--- a/tests/regression_data_windows/performance_analysis_zero_deviation_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_zero_deviation_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.017700569933738</v>
+        <v>2.017700569957928</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000029564</v>
+        <v>2.299999999968434</v>
       </c>
       <c r="D2" t="n">
-        <v>2.717718920664225</v>
+        <v>2.717718920694185</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56953368744014</v>
+        <v>92.5695336891079</v>
       </c>
       <c r="F2" t="n">
-        <v>79.21432923204111</v>
+        <v>79.21432923426116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1442721370995852</v>
+        <v>0.1442721370910195</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.3586013691407</v>
+        <v>-78.35860137135218</v>
       </c>
       <c r="I2" t="n">
-        <v>135281.2075871305</v>
+        <v>135281.2075924133</v>
       </c>
       <c r="J2" t="n">
-        <v>83.14763834488663</v>
+        <v>83.14763834813354</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.8399275335028</v>
+        <v>-24.83992753225267</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6544847779678</v>
+        <v>134.6544847739705</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372006.9480094835</v>
+        <v>372006.9480080884</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7130441830397328</v>
+        <v>0.7130441830436631</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.072851537900292</v>
+        <v>2.072851537895616</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999860639</v>
+        <v>2.399999999991714</v>
       </c>
       <c r="D3" t="n">
-        <v>2.725101776077747</v>
+        <v>2.725101775856381</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52049239478247</v>
+        <v>92.5204923917114</v>
       </c>
       <c r="F3" t="n">
-        <v>78.35440556521343</v>
+        <v>78.35440556342095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1531129640893254</v>
+        <v>0.1531129640805882</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.50751852930276</v>
+        <v>-77.50751852750155</v>
       </c>
       <c r="I3" t="n">
-        <v>140209.3213404122</v>
+        <v>140209.3213258152</v>
       </c>
       <c r="J3" t="n">
-        <v>86.17659578390423</v>
+        <v>86.17659577493251</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.93527213996669</v>
+        <v>-26.93527213885487</v>
       </c>
       <c r="M3" t="n">
-        <v>141.803303989599</v>
+        <v>141.8033039855532</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370333.3907747061</v>
+        <v>370333.3907758831</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7014098127460824</v>
+        <v>0.7014098127175938</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.92994373225115</v>
+        <v>79.92994373374349</v>
       </c>
       <c r="D2" t="n">
-        <v>79.92994373225115</v>
+        <v>79.92994373374349</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.92994373225115</v>
+        <v>79.92994373374349</v>
       </c>
       <c r="H2" t="n">
-        <v>79.92994373225115</v>
+        <v>79.92994373374349</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4149504415394</v>
+        <v>292.4149504413203</v>
       </c>
       <c r="L2" t="n">
-        <v>132871.7007980018</v>
+        <v>132871.7007976544</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583779025140718</v>
+        <v>1.583779025137765</v>
       </c>
       <c r="N2" t="n">
-        <v>334694.679877305</v>
+        <v>334694.6798771485</v>
       </c>
       <c r="O2" t="n">
-        <v>418590.0331360694</v>
+        <v>418590.0331358497</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687591.5556213992</v>
+        <v>-687591.55562079</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7157387245791</v>
+        <v>717.7157387245694</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.650945680655</v>
+        <v>1006.650945680644</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576105505962</v>
+        <v>1.402576105505965</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994984012260867</v>
+        <v>0.9994984012260851</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9448990721868</v>
+        <v>342.9448990720583</v>
       </c>
       <c r="W2" t="n">
-        <v>186270.1576994081</v>
+        <v>186270.1576989211</v>
       </c>
       <c r="X2" t="n">
-        <v>5.368546482973089e-06</v>
+        <v>5.368546482987124e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132805.7400722747</v>
+        <v>132805.7400719272</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.529795018316124e-06</v>
+        <v>7.529795018335827e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432727394131792</v>
+        <v>0.003432727394134359</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817446758361831e-05</v>
+        <v>1.817446758360759e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582901598900934</v>
+        <v>0.02582901598899283</v>
       </c>
       <c r="AD2" t="n">
-        <v>132871.7007980018</v>
+        <v>132871.7007976544</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583779025140718</v>
+        <v>1.583779025137765</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583779025140718</v>
+        <v>1.583779025137765</v>
       </c>
       <c r="AG2" t="n">
-        <v>334694.679877305</v>
+        <v>334694.6798771485</v>
       </c>
       <c r="AH2" t="n">
-        <v>418590.0331360694</v>
+        <v>418590.0331358497</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7157387245791</v>
+        <v>717.7157387245694</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.650945680655</v>
+        <v>1006.650945680644</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9448990721868</v>
+        <v>342.9448990720583</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994984012260867</v>
+        <v>0.9994984012260851</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817446758361831e-05</v>
+        <v>1.817446758360759e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582901598900934</v>
+        <v>0.02582901598899283</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2330693471414678</v>
+        <v>0.2330693471459067</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2330693471414678</v>
+        <v>0.2330693471459067</v>
       </c>
       <c r="DH2" t="n">
-        <v>182213.3265341108</v>
+        <v>182213.3265372806</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.717718920653892</v>
+        <v>2.717718920699566</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>267.9512936417537</v>
+        <v>267.9512936557614</v>
       </c>
       <c r="DU2" t="n">
-        <v>109.4864221577046</v>
+        <v>109.4864221634283</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.5620966695252</v>
+        <v>244.5620966823103</v>
       </c>
       <c r="DW2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DX2" t="n">
-        <v>267.9512936417537</v>
+        <v>267.9512936557614</v>
       </c>
       <c r="DY2" t="n">
-        <v>109.4864221577046</v>
+        <v>109.4864221634283</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.5620966695252</v>
+        <v>244.5620966823103</v>
       </c>
       <c r="EA2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.7774761367602</v>
+        <v>259.7774761330138</v>
       </c>
       <c r="EC2" t="n">
-        <v>86160.51930725067</v>
+        <v>86160.51930095485</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.156228926554733</v>
+        <v>1.156228926486923</v>
       </c>
       <c r="EE2" t="n">
-        <v>311366.9191674061</v>
+        <v>311366.9191647339</v>
       </c>
       <c r="EF2" t="n">
-        <v>385885.4832064387</v>
+        <v>385885.4832026917</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.594327640528</v>
+        <v>3788.594327647065</v>
       </c>
       <c r="EH2" t="n">
-        <v>-598305.989334064</v>
+        <v>-598305.9893253153</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5428706244289</v>
+        <v>716.542870624321</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.21177325114</v>
+        <v>1005.21177325097</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402863407705323</v>
+        <v>1.402863407705296</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993250048389617</v>
+        <v>0.9993250048389605</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.2167642390972</v>
+        <v>323.216764236763</v>
       </c>
       <c r="EN2" t="n">
-        <v>120790.1683938838</v>
+        <v>120790.168385055</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.278819487519111e-06</v>
+        <v>8.278819488124223e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>86102.58684518788</v>
+        <v>86102.58683889617</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.161405291803829e-05</v>
+        <v>1.161405291888696e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003862896477057549</v>
+        <v>0.003862896477112843</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.653940697276436e-05</v>
+        <v>1.653940697257186e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02332344292852846</v>
+        <v>0.0233234429282348</v>
       </c>
       <c r="EU2" t="n">
-        <v>86160.51930725067</v>
+        <v>86160.51930095485</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.156228926554733</v>
+        <v>1.156228926486923</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.156228926554733</v>
+        <v>1.156228926486923</v>
       </c>
       <c r="EX2" t="n">
-        <v>311366.9191674061</v>
+        <v>311366.9191647339</v>
       </c>
       <c r="EY2" t="n">
-        <v>385885.4832064387</v>
+        <v>385885.4832026917</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.594327640528</v>
+        <v>3788.594327647065</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5428706244289</v>
+        <v>716.542870624321</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.21177325114</v>
+        <v>1005.21177325097</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.2167642390972</v>
+        <v>323.216764236763</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993250048389617</v>
+        <v>0.9993250048389605</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.653940697276436e-05</v>
+        <v>1.653940697257186e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02332344292852846</v>
+        <v>0.0233234429282348</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937313466983</v>
+        <v>295.5937313466912</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135296.3107318407</v>
+        <v>135296.3107287578</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595286006675591</v>
+        <v>1.595286006639262</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3655794312</v>
+        <v>336974.3655794323</v>
       </c>
       <c r="FM2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.594327645727</v>
+        <v>3788.594327652264</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698100.3027792469</v>
+        <v>-698100.3027811523</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.856194126619</v>
+        <v>717.8561941266109</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777192427234</v>
+        <v>1006.777192427184</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477544478294</v>
+        <v>1.402477544478239</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302652409171</v>
+        <v>0.9995302652409276</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027922114964</v>
+        <v>344.802792211489</v>
       </c>
       <c r="FU2" t="n">
-        <v>189661.9030371587</v>
+        <v>189661.9030328315</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272540156913216e-06</v>
+        <v>5.272540157033512e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135233.468645454</v>
+        <v>135233.4686423739</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.394619172430849e-06</v>
+        <v>7.394619172599271e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395620349783195</v>
+        <v>0.003395620349782992</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925761099146e-05</v>
+        <v>1.832925761099066e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729972444079</v>
+        <v>0.02606729972443926</v>
       </c>
       <c r="GB2" t="n">
-        <v>135296.3107318407</v>
+        <v>135296.3107287578</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595286006675591</v>
+        <v>1.595286006639262</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595286006675591</v>
+        <v>1.595286006639262</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3655794312</v>
+        <v>336974.3655794323</v>
       </c>
       <c r="GF2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.594327645727</v>
+        <v>3788.594327652264</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.856194126619</v>
+        <v>717.8561941266109</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777192427234</v>
+        <v>1006.777192427184</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027922114964</v>
+        <v>344.802792211489</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302652409171</v>
+        <v>0.9995302652409276</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925761099146e-05</v>
+        <v>1.832925761099066e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729972444079</v>
+        <v>0.02606729972443926</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937313466983</v>
+        <v>295.5937313466912</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135296.3107318407</v>
+        <v>135296.3107287578</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595286006675591</v>
+        <v>1.595286006639262</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3655794312</v>
+        <v>336974.3655794323</v>
       </c>
       <c r="GT2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.594327645727</v>
+        <v>3788.594327652264</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698100.3027792469</v>
+        <v>-698100.3027811523</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.856194126619</v>
+        <v>717.8561941266109</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777192427234</v>
+        <v>1006.777192427184</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477544478294</v>
+        <v>1.402477544478239</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302652409171</v>
+        <v>0.9995302652409276</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027922114964</v>
+        <v>344.802792211489</v>
       </c>
       <c r="HB2" t="n">
-        <v>189661.9030371587</v>
+        <v>189661.9030328315</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272540156913216e-06</v>
+        <v>5.272540157033512e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135233.468645454</v>
+        <v>135233.4686423739</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.394619172430849e-06</v>
+        <v>7.394619172599271e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395620349783195</v>
+        <v>0.003395620349782992</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925761099146e-05</v>
+        <v>1.832925761099066e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729972444079</v>
+        <v>0.02606729972443926</v>
       </c>
       <c r="HI2" t="n">
-        <v>135296.3107318407</v>
+        <v>135296.3107287578</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595286006675591</v>
+        <v>1.595286006639262</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595286006675591</v>
+        <v>1.595286006639262</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3655794312</v>
+        <v>336974.3655794323</v>
       </c>
       <c r="HM2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.594327645727</v>
+        <v>3788.594327652264</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.856194126619</v>
+        <v>717.8561941266109</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777192427234</v>
+        <v>1006.777192427184</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027922114964</v>
+        <v>344.802792211489</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302652409171</v>
+        <v>0.9995302652409276</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925761099146e-05</v>
+        <v>1.832925761099066e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729972444079</v>
+        <v>0.02606729972443926</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.829014219830314</v>
+        <v>0.8290142198796396</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.829014219830314</v>
+        <v>0.8290142198796396</v>
       </c>
       <c r="HY2" t="n">
-        <v>490024.1617628746</v>
+        <v>490024.1617654561</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.717718920651831</v>
+        <v>2.717718920634518</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01611691534489195</v>
+        <v>0.01611691534489501</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.785867205538613e-07</v>
+        <v>-1.785867205380984e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.0137968464289208</v>
+        <v>0.01379684642892114</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02511126098068089</v>
+        <v>0.02511126098067262</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05502484416777308</v>
+        <v>0.05502484416776824</v>
       </c>
       <c r="IH2" t="n">
-        <v>-6.856286371981213e-12</v>
+        <v>1.154042139628331e-12</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>267.9512936417536</v>
+        <v>267.9512936557614</v>
       </c>
       <c r="IL2" t="n">
-        <v>109.4864221577046</v>
+        <v>109.4864221634283</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.5620966695252</v>
+        <v>244.5620966823103</v>
       </c>
       <c r="IN2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IO2" t="n">
-        <v>135.1637870813243</v>
+        <v>135.1637870934577</v>
       </c>
       <c r="IP2" t="n">
-        <v>109.4864221577046</v>
+        <v>109.4864221634283</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.25889666952517</v>
+        <v>79.25889668231025</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.90135447858487</v>
+        <v>35.90135448155215</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.7774761366668</v>
+        <v>259.7774761328074</v>
       </c>
       <c r="IT2" t="n">
-        <v>86160.51930721974</v>
+        <v>86160.51930079807</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.156228926554735</v>
+        <v>1.156228926485739</v>
       </c>
       <c r="IV2" t="n">
-        <v>311366.919167339</v>
+        <v>311366.9191645861</v>
       </c>
       <c r="IW2" t="n">
-        <v>385885.4832063447</v>
+        <v>385885.4832024846</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.59432764027</v>
+        <v>3788.59432764679</v>
       </c>
       <c r="IY2" t="n">
-        <v>-598305.9893337367</v>
+        <v>-598305.989324669</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5428706244267</v>
+        <v>716.5428706243159</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.211773251139</v>
+        <v>1005.211773250965</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402863407705325</v>
+        <v>1.402863407705299</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993250048389607</v>
+        <v>0.9993250048389589</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.216764239039</v>
+        <v>323.2167642366344</v>
       </c>
       <c r="JE2" t="n">
-        <v>120790.1683938405</v>
+        <v>120790.1683848353</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.278819487522079e-06</v>
+        <v>8.278819488139283e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>86102.58684515685</v>
+        <v>86102.58683873934</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.161405291804248e-05</v>
+        <v>1.161405291890811e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003862896477058948</v>
+        <v>0.00386289647711592</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.653940697275957e-05</v>
+        <v>1.653940697256128e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02332344292852119</v>
+        <v>0.02332344292821869</v>
       </c>
       <c r="JL2" t="n">
-        <v>86160.51930721974</v>
+        <v>86160.51930079807</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.156228926554735</v>
+        <v>1.156228926485739</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.156228926554735</v>
+        <v>1.156228926485739</v>
       </c>
       <c r="JO2" t="n">
-        <v>311366.919167339</v>
+        <v>311366.9191645861</v>
       </c>
       <c r="JP2" t="n">
-        <v>385885.4832063447</v>
+        <v>385885.4832024846</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.59432764027</v>
+        <v>3788.59432764679</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5428706244267</v>
+        <v>716.5428706243159</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.211773251139</v>
+        <v>1005.211773250965</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.216764239039</v>
+        <v>323.2167642366344</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993250048389607</v>
+        <v>0.9993250048389589</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.653940697275957e-05</v>
+        <v>1.653940697256128e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02332344292852119</v>
+        <v>0.02332344292821869</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937313465985</v>
+        <v>295.5937313467915</v>
       </c>
       <c r="KA2" t="n">
-        <v>135296.3107318016</v>
+        <v>135296.3107290474</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.59528600667567</v>
+        <v>1.595286006642135</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3655793595</v>
+        <v>336974.3655795038</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.59432764547</v>
+        <v>3788.59432765199</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698100.3027788933</v>
+        <v>-698100.3027813508</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561941266148</v>
+        <v>717.8561941266162</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777192427231</v>
+        <v>1006.777192427192</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477544478298</v>
+        <v>1.40247754447824</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.999530265240916</v>
+        <v>0.9995302652409279</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027922114383</v>
+        <v>344.8027922115477</v>
       </c>
       <c r="KL2" t="n">
-        <v>189661.9030371041</v>
+        <v>189661.9030332377</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272540156914733e-06</v>
+        <v>5.27254015702222e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135233.4686454147</v>
+        <v>135233.4686426634</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.394619172432998e-06</v>
+        <v>7.394619172583439e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395620349784352</v>
+        <v>0.003395620349781854</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925761098661e-05</v>
+        <v>1.832925761099557e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729972443332</v>
+        <v>0.02606729972444684</v>
       </c>
       <c r="KS2" t="n">
-        <v>135296.3107318016</v>
+        <v>135296.3107290474</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.59528600667567</v>
+        <v>1.595286006642135</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.59528600667567</v>
+        <v>1.595286006642135</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3655793595</v>
+        <v>336974.3655795038</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.59432764547</v>
+        <v>3788.59432765199</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561941266148</v>
+        <v>717.8561941266162</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777192427231</v>
+        <v>1006.777192427192</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027922114383</v>
+        <v>344.8027922115477</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.999530265240916</v>
+        <v>0.9995302652409279</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925761098661e-05</v>
+        <v>1.832925761099557e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729972443332</v>
+        <v>0.02606729972444684</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8953286534583</v>
+        <v>268.8953286515426</v>
       </c>
       <c r="LH2" t="n">
-        <v>97192.07029066546</v>
+        <v>97192.07028604612</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259986353688575</v>
+        <v>1.259986353637661</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317882.7087232346</v>
+        <v>317882.7087218707</v>
       </c>
       <c r="LK2" t="n">
-        <v>395020.1078753273</v>
+        <v>395020.1078734141</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.594327640269</v>
+        <v>3788.59432764679</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623715.2089901307</v>
+        <v>-623715.2089865395</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8095260456963</v>
+        <v>716.8095260456289</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.541905458616</v>
+        <v>1005.541905458497</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802095845073</v>
+        <v>1.402802095845039</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993681492994558</v>
+        <v>0.9993681492994604</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.847195560221</v>
+        <v>328.8471955590471</v>
       </c>
       <c r="LS2" t="n">
-        <v>136255.5265964152</v>
+        <v>136255.5265899365</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.339151849318893e-06</v>
+        <v>7.339151849667853e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97130.96879452011</v>
+        <v>97130.96878990409</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.029537759594978e-05</v>
+        <v>1.029537759643906e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732159335863882</v>
+        <v>0.00373215933589012</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700397342647014e-05</v>
+        <v>1.700397342637287e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02403259065099713</v>
+        <v>0.02403259065084815</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97192.07029066546</v>
+        <v>97192.07028604612</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259986353688575</v>
+        <v>1.259986353637661</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259986353688575</v>
+        <v>1.259986353637661</v>
       </c>
       <c r="MC2" t="n">
-        <v>317882.7087232346</v>
+        <v>317882.7087218707</v>
       </c>
       <c r="MD2" t="n">
-        <v>395020.1078753273</v>
+        <v>395020.1078734141</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.594327640269</v>
+        <v>3788.59432764679</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8095260456963</v>
+        <v>716.8095260456289</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.541905458616</v>
+        <v>1005.541905458497</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.847195560221</v>
+        <v>328.8471955590471</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993681492994558</v>
+        <v>0.9993681492994604</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700397342647014e-05</v>
+        <v>1.700397342637287e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02403259065099713</v>
+        <v>0.02403259065084815</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8290142198304631</v>
+        <v>0.8290142198799694</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4181830957919072</v>
+        <v>0.4181830958325577</v>
       </c>
       <c r="MP2" t="n">
-        <v>246240.0323743996</v>
+        <v>246240.0323847624</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.717718920651835</v>
+        <v>2.717718920631735</v>
       </c>
       <c r="MR2" t="n">
-        <v>381357.5339103075</v>
+        <v>381357.533908194</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>134.6544847779678</v>
+        <v>134.6544847739705</v>
       </c>
       <c r="MU2" t="n">
-        <v>122.1969191745448</v>
+        <v>122.1969191721516</v>
       </c>
       <c r="MV2" t="n">
-        <v>-56.56627276982033</v>
+        <v>-56.56627276547493</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.8399275335028</v>
+        <v>-24.83992753225267</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.2945913416003</v>
+        <v>253.2945913366394</v>
       </c>
       <c r="MY2" t="n">
-        <v>122.1969191745448</v>
+        <v>122.1969191721516</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.8694727698203</v>
+        <v>-221.8694727654749</v>
       </c>
       <c r="NA2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8577784212237</v>
+        <v>236.8577784202765</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999822968</v>
+        <v>59999.99999982437</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.883128087348983</v>
+        <v>0.8831280873760149</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.7183741232</v>
+        <v>295000.7183734397</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.0328740738</v>
+        <v>362941.0328731165</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.929754843051</v>
+        <v>3799.929754831386</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537101.8870147566</v>
+        <v>-537101.8870093513</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325578009085</v>
+        <v>716.0325578009038</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930872737</v>
+        <v>1004.487930872783</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852314366455</v>
+        <v>1.402852314366529</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.999271891441717</v>
+        <v>0.9992718914416849</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6113425337014</v>
+        <v>308.6113425330826</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96749599636</v>
+        <v>84109.96749823357</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919731835112e-05</v>
+        <v>1.188919731803489e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39500654167</v>
+        <v>59956.39500813329</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878797400832e-05</v>
+        <v>1.667878797356557e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235352711851287</v>
+        <v>0.004235352711868734</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216017414311e-05</v>
+        <v>1.534216017409315e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150521903508271</v>
+        <v>0.02150521903500753</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999822968</v>
+        <v>59999.99999982437</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.883128087348983</v>
+        <v>0.8831280873760149</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.883128087348983</v>
+        <v>0.8831280873760149</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.7183741232</v>
+        <v>295000.7183734397</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.0328740738</v>
+        <v>362941.0328731165</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.929754843051</v>
+        <v>3799.929754831386</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325578009085</v>
+        <v>716.0325578009038</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930872737</v>
+        <v>1004.487930872783</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6113425337014</v>
+        <v>308.6113425330826</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.999271891441717</v>
+        <v>0.9992718914416849</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216017414311e-05</v>
+        <v>1.534216017409315e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150521903508271</v>
+        <v>0.02150521903500753</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9111911242356</v>
+        <v>245.9111911228442</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68394.6875240433</v>
+        <v>68394.68752322331</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9695995977734823</v>
+        <v>0.9695995977673534</v>
       </c>
       <c r="OL2" t="n">
-        <v>301467.8433305006</v>
+        <v>301467.8433295054</v>
       </c>
       <c r="OM2" t="n">
-        <v>372006.9480094835</v>
+        <v>372006.9480080884</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.929754842197</v>
+        <v>3799.929754839962</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562438.3041921856</v>
+        <v>-562438.304187744</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.202589502533</v>
+        <v>716.2025895025065</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.717083342874</v>
+        <v>1004.717083342849</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839221847466</v>
+        <v>1.402839221847484</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992989235421862</v>
+        <v>0.9992989235421762</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.4611573931264</v>
+        <v>314.4611573922356</v>
       </c>
       <c r="OU2" t="n">
-        <v>95879.65082145142</v>
+        <v>95879.65082030214</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.042974177974652e-05</v>
+        <v>1.042974177987154e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68346.85638114887</v>
+        <v>68346.85638032877</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.463125084236962e-05</v>
+        <v>1.463125084254518e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004079731787030821</v>
+        <v>0.004079731787053961</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582000283799928e-05</v>
+        <v>1.582000283792646e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02222905145474807</v>
+        <v>0.02222905145463765</v>
       </c>
       <c r="PB2" t="n">
-        <v>68394.6875240433</v>
+        <v>68394.68752322331</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9695995977734823</v>
+        <v>0.9695995977673534</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9695995977734823</v>
+        <v>0.9695995977673534</v>
       </c>
       <c r="PE2" t="n">
-        <v>301467.8433305006</v>
+        <v>301467.8433295054</v>
       </c>
       <c r="PF2" t="n">
-        <v>372006.9480094835</v>
+        <v>372006.9480080884</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.929754842197</v>
+        <v>3799.929754839962</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.202589502533</v>
+        <v>716.2025895025065</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.717083342874</v>
+        <v>1004.717083342849</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.4611573931264</v>
+        <v>314.4611573922356</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992989235421862</v>
+        <v>0.9992989235421762</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582000283799928e-05</v>
+        <v>1.582000283792646e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02222905145474807</v>
+        <v>0.02222905145463765</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8847462722676</v>
+        <v>268.8847462703546</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93426.5101080313</v>
+        <v>93426.51010643529</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.211188388338482</v>
+        <v>1.211188388326425</v>
       </c>
       <c r="PS2" t="n">
-        <v>317883.8745630286</v>
+        <v>317883.8745616595</v>
       </c>
       <c r="PT2" t="n">
-        <v>395020.1078753333</v>
+        <v>395020.1078734143</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.929754840499</v>
+        <v>3799.929754838263</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626723.0401073946</v>
+        <v>-626723.0401014433</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7971468091794</v>
+        <v>716.7971468091213</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.464364792023</v>
+        <v>1005.464364791965</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718145946653</v>
+        <v>1.402718145946686</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993923761493252</v>
+        <v>0.9993923761493112</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8388167174934</v>
+        <v>328.8388167163228</v>
       </c>
       <c r="QB2" t="n">
-        <v>130971.8168642118</v>
+        <v>130971.8168619755</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.635230417829313e-06</v>
+        <v>7.635230417959681e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93370.01680820399</v>
+        <v>93370.01680660764</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071007625557303e-05</v>
+        <v>1.071007625575614e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003731795025045222</v>
+        <v>0.003731795025071823</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700286758285869e-05</v>
+        <v>1.7002867582762e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02403044236772106</v>
+        <v>0.02403044236757334</v>
       </c>
       <c r="QI2" t="n">
-        <v>93426.5101080313</v>
+        <v>93426.51010643529</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.211188388338482</v>
+        <v>1.211188388326425</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.211188388338482</v>
+        <v>1.211188388326425</v>
       </c>
       <c r="QL2" t="n">
-        <v>317883.8745630286</v>
+        <v>317883.8745616595</v>
       </c>
       <c r="QM2" t="n">
-        <v>395020.1078753333</v>
+        <v>395020.1078734143</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.929754840499</v>
+        <v>3799.929754838263</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7971468091794</v>
+        <v>716.7971468091213</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.464364792023</v>
+        <v>1005.464364791965</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8388167174934</v>
+        <v>328.8388167163228</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993923761493252</v>
+        <v>0.9993923761493112</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700286758285869e-05</v>
+        <v>1.7002867582762e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02403044236772106</v>
+        <v>0.02403044236757334</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4363238359045831</v>
+        <v>0.4363238358925054</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8207559361300522</v>
+        <v>0.8207559361156233</v>
       </c>
       <c r="QY2" t="n">
-        <v>379959.6794442877</v>
+        <v>379959.6794497137</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.717718920664225</v>
+        <v>2.717718920694185</v>
       </c>
       <c r="RA2" t="n">
-        <v>381357.5339103075</v>
+        <v>381357.533908194</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02417559754029134</v>
+        <v>0.02417559754341635</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.002020493326765246</v>
+        <v>0.002020493328504812</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01190512760911613</v>
+        <v>0.01190512760898227</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03192297883338758</v>
+        <v>0.03192297883455988</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04262771182379295</v>
+        <v>0.04262771182573514</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126519091333532</v>
+        <v>0.1126519091411985</v>
       </c>
       <c r="RH2" t="n">
-        <v>9.273097567596977e-11</v>
+        <v>5.188571794434438e-12</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.15960734464592</v>
+        <v>80.15960734263152</v>
       </c>
       <c r="D3" t="n">
-        <v>80.15960734464592</v>
+        <v>80.15960734263152</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.15960734464592</v>
+        <v>80.15960734263152</v>
       </c>
       <c r="H3" t="n">
-        <v>80.15960734464592</v>
+        <v>80.15960734263152</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3966194754458</v>
+        <v>292.396619475707</v>
       </c>
       <c r="L3" t="n">
-        <v>132842.5878737509</v>
+        <v>132842.5878741659</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583531482077738</v>
+        <v>1.583531482081267</v>
       </c>
       <c r="N3" t="n">
-        <v>334681.5665052959</v>
+        <v>334681.5665054828</v>
       </c>
       <c r="O3" t="n">
-        <v>418571.6497636655</v>
+        <v>418571.6497639275</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687540.594464167</v>
+        <v>-687540.5944648932</v>
       </c>
       <c r="R3" t="n">
-        <v>717.71490843395</v>
+        <v>717.7149084339619</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.649982352588</v>
+        <v>1006.649982352602</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576385864818</v>
+        <v>1.402576385864814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994982731233854</v>
+        <v>0.9994982731233871</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9341396416172</v>
+        <v>342.9341396417706</v>
       </c>
       <c r="W3" t="n">
-        <v>186229.3579253379</v>
+        <v>186229.3579259194</v>
       </c>
       <c r="X3" t="n">
-        <v>5.369722642768894e-06</v>
+        <v>5.369722642752127e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132776.624362252</v>
+        <v>132776.6243626669</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.531446177391277e-06</v>
+        <v>7.531446177367738e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432942251622842</v>
+        <v>0.003432942251619779</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817357072403495e-05</v>
+        <v>1.817357072404773e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582763452449984</v>
+        <v>0.02582763452451953</v>
       </c>
       <c r="AD3" t="n">
-        <v>132842.5878737509</v>
+        <v>132842.5878741659</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583531482077738</v>
+        <v>1.583531482081267</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583531482077738</v>
+        <v>1.583531482081267</v>
       </c>
       <c r="AG3" t="n">
-        <v>334681.5665052959</v>
+        <v>334681.5665054828</v>
       </c>
       <c r="AH3" t="n">
-        <v>418571.6497636655</v>
+        <v>418571.6497639275</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.71490843395</v>
+        <v>717.7149084339619</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.649982352588</v>
+        <v>1006.649982352602</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9341396416172</v>
+        <v>342.9341396417706</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994982731233854</v>
+        <v>0.9994982731233871</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817357072403495e-05</v>
+        <v>1.817357072404773e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582763452449984</v>
+        <v>0.02582763452451953</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2337463614104346</v>
+        <v>0.2337463614044561</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2337463614104346</v>
+        <v>0.2337463614044561</v>
       </c>
       <c r="DH3" t="n">
-        <v>182717.3371522389</v>
+        <v>182717.3371479259</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.725101775962259</v>
+        <v>2.72510177589985</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.6420302537853</v>
+        <v>270.6420302506783</v>
       </c>
       <c r="DU3" t="n">
-        <v>110.5858724369556</v>
+        <v>110.585872435686</v>
       </c>
       <c r="DV3" t="n">
-        <v>247.0179616085604</v>
+        <v>247.0179616057246</v>
       </c>
       <c r="DW3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.6420302537853</v>
+        <v>270.6420302506783</v>
       </c>
       <c r="DY3" t="n">
-        <v>110.5858724369556</v>
+        <v>110.585872435686</v>
       </c>
       <c r="DZ3" t="n">
-        <v>247.0179616085604</v>
+        <v>247.0179616057246</v>
       </c>
       <c r="EA3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.0540156453187</v>
+        <v>259.0540156461471</v>
       </c>
       <c r="EC3" t="n">
-        <v>85297.17934010478</v>
+        <v>85297.17933956525</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.147843382013475</v>
+        <v>1.147843382002527</v>
       </c>
       <c r="EE3" t="n">
-        <v>310850.0599627055</v>
+        <v>310850.0599633008</v>
       </c>
       <c r="EF3" t="n">
-        <v>385160.8768186443</v>
+        <v>385160.8768194783</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.689924008445</v>
+        <v>3788.689924013479</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596314.4620307006</v>
+        <v>-596314.4620343095</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5233972856884</v>
+        <v>716.5233972857052</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.18674969103</v>
+        <v>1005.186749691024</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866610495689</v>
+        <v>1.402866610495648</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993220643801732</v>
+        <v>0.9993220643801886</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.7657950594487</v>
+        <v>322.7657950599651</v>
       </c>
       <c r="EN3" t="n">
-        <v>119579.7506017203</v>
+        <v>119579.7506009623</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.362619883116009e-06</v>
+        <v>8.362619883169018e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85239.57281973376</v>
+        <v>85239.57281919591</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.173164021029081e-05</v>
+        <v>1.173164021036483e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003873658636322654</v>
+        <v>0.003873658636310056</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.65022677799523e-05</v>
+        <v>1.650226777999462e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02326683852607817</v>
+        <v>0.02326683852614244</v>
       </c>
       <c r="EU3" t="n">
-        <v>85297.17934010478</v>
+        <v>85297.17933956525</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.147843382013475</v>
+        <v>1.147843382002527</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.147843382013475</v>
+        <v>1.147843382002527</v>
       </c>
       <c r="EX3" t="n">
-        <v>310850.0599627055</v>
+        <v>310850.0599633008</v>
       </c>
       <c r="EY3" t="n">
-        <v>385160.8768186443</v>
+        <v>385160.8768194783</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.689924008445</v>
+        <v>3788.689924013479</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5233972856884</v>
+        <v>716.5233972857052</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.18674969103</v>
+        <v>1005.186749691024</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.7657950594487</v>
+        <v>322.7657950599651</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993220643801732</v>
+        <v>0.9993220643801886</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.65022677799523e-05</v>
+        <v>1.650226777999462e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02326683852607817</v>
+        <v>0.02326683852614244</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936268383318</v>
+        <v>295.5936268383265</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135251.2391517229</v>
+        <v>135251.2391493497</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594754884328857</v>
+        <v>1.59475488430089</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3825470905</v>
+        <v>336974.3825470916</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.689924013646</v>
+        <v>3788.689924018681</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698128.164516448</v>
+        <v>-698128.164517916</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8560767284954</v>
+        <v>717.8560767284894</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776452400083</v>
+        <v>1006.776452400044</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476742954231</v>
+        <v>1.402476742954189</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995304186575469</v>
+        <v>0.999530418657555</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8026850520787</v>
+        <v>344.8026850520733</v>
       </c>
       <c r="FU3" t="n">
-        <v>189598.6406020405</v>
+        <v>189598.6405987096</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.274299419155421e-06</v>
+        <v>5.274299419248083e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135188.4382786004</v>
+        <v>135188.4382762294</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.397082270742488e-06</v>
+        <v>7.397082270872223e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395617376240516</v>
+        <v>0.003395617376240358</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924604019585e-05</v>
+        <v>1.832924604019526e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606727748019907</v>
+        <v>0.02606727748019792</v>
       </c>
       <c r="GB3" t="n">
-        <v>135251.2391517229</v>
+        <v>135251.2391493497</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594754884328857</v>
+        <v>1.59475488430089</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594754884328857</v>
+        <v>1.59475488430089</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3825470905</v>
+        <v>336974.3825470916</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.689924013646</v>
+        <v>3788.689924018681</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8560767284954</v>
+        <v>717.8560767284894</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776452400083</v>
+        <v>1006.776452400044</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8026850520787</v>
+        <v>344.8026850520733</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995304186575469</v>
+        <v>0.999530418657555</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924604019585e-05</v>
+        <v>1.832924604019526e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606727748019907</v>
+        <v>0.02606727748019792</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936268383318</v>
+        <v>295.5936268383265</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135251.2391517229</v>
+        <v>135251.2391493497</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594754884328857</v>
+        <v>1.59475488430089</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3825470905</v>
+        <v>336974.3825470916</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.689924013646</v>
+        <v>3788.689924018681</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698128.164516448</v>
+        <v>-698128.164517916</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8560767284954</v>
+        <v>717.8560767284894</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776452400083</v>
+        <v>1006.776452400044</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476742954231</v>
+        <v>1.402476742954189</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995304186575469</v>
+        <v>0.999530418657555</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8026850520787</v>
+        <v>344.8026850520733</v>
       </c>
       <c r="HB3" t="n">
-        <v>189598.6406020405</v>
+        <v>189598.6405987096</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.274299419155421e-06</v>
+        <v>5.274299419248083e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135188.4382786004</v>
+        <v>135188.4382762294</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.397082270742488e-06</v>
+        <v>7.397082270872223e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395617376240516</v>
+        <v>0.003395617376240358</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924604019585e-05</v>
+        <v>1.832924604019526e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606727748019907</v>
+        <v>0.02606727748019792</v>
       </c>
       <c r="HI3" t="n">
-        <v>135251.2391517229</v>
+        <v>135251.2391493497</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594754884328857</v>
+        <v>1.59475488430089</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594754884328857</v>
+        <v>1.59475488430089</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3825470905</v>
+        <v>336974.3825470916</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.689924013646</v>
+        <v>3788.689924018681</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8560767284954</v>
+        <v>717.8560767284894</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776452400083</v>
+        <v>1006.776452400044</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8026850520787</v>
+        <v>344.8026850520733</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995304186575469</v>
+        <v>0.999530418657555</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924604019585e-05</v>
+        <v>1.832924604019526e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606727748019907</v>
+        <v>0.02606727748019792</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8385090192222415</v>
+        <v>0.8385090192112736</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8385090192222415</v>
+        <v>0.8385090192112736</v>
       </c>
       <c r="HY3" t="n">
-        <v>492461.1635719006</v>
+        <v>492461.1635602869</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.725101775956016</v>
+        <v>2.725101775898737</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01611910595787592</v>
+        <v>0.01611910595792032</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.796499141566338e-07</v>
+        <v>-1.796499141600953e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.0137969014269984</v>
+        <v>0.01379690142699793</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02510994707370795</v>
+        <v>0.02510994707371917</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05502577480866811</v>
+        <v>0.05502577480872325</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.269748195475984e-13</v>
+        <v>-7.031389359646312e-13</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.6420302537853</v>
+        <v>270.6420302506783</v>
       </c>
       <c r="IL3" t="n">
-        <v>110.5858724369556</v>
+        <v>110.5858724356861</v>
       </c>
       <c r="IM3" t="n">
-        <v>247.0179616085604</v>
+        <v>247.0179616057246</v>
       </c>
       <c r="IN3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5010452592506</v>
+        <v>137.5010452565443</v>
       </c>
       <c r="IP3" t="n">
-        <v>110.5858724369556</v>
+        <v>110.5858724356861</v>
       </c>
       <c r="IQ3" t="n">
-        <v>81.71476160856042</v>
+        <v>81.71476160572462</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.46165375038237</v>
+        <v>36.4616537497464</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.0540156452185</v>
+        <v>259.0540156462538</v>
       </c>
       <c r="IT3" t="n">
-        <v>85297.17933998953</v>
+        <v>85297.17934183347</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.147843382012369</v>
+        <v>1.147843382032596</v>
       </c>
       <c r="IV3" t="n">
-        <v>310850.0599626338</v>
+        <v>310850.059963372</v>
       </c>
       <c r="IW3" t="n">
-        <v>385160.8768185438</v>
+        <v>385160.8768195789</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.689924008445</v>
+        <v>3788.689924006239</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596314.4620304215</v>
+        <v>-596314.4620327377</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5233972856854</v>
+        <v>716.5233972857152</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.186749691026</v>
+        <v>1005.186749691075</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.40286661049569</v>
+        <v>1.4028666104957</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993220643801728</v>
+        <v>0.9993220643801721</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.7657950593862</v>
+        <v>322.7657950600322</v>
       </c>
       <c r="JE3" t="n">
-        <v>119579.7506015588</v>
+        <v>119579.7506041446</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.362619883127307e-06</v>
+        <v>8.362619882946469e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85239.57281961852</v>
+        <v>85239.57282146114</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.173164021030667e-05</v>
+        <v>1.173164021005307e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003873658636324149</v>
+        <v>0.003873658636308802</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650226777994716e-05</v>
+        <v>1.650226778000043e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02326683852607033</v>
+        <v>0.0232668385261516</v>
       </c>
       <c r="JL3" t="n">
-        <v>85297.17933998953</v>
+        <v>85297.17934183347</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.147843382012369</v>
+        <v>1.147843382032596</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.147843382012369</v>
+        <v>1.147843382032596</v>
       </c>
       <c r="JO3" t="n">
-        <v>310850.0599626338</v>
+        <v>310850.059963372</v>
       </c>
       <c r="JP3" t="n">
-        <v>385160.8768185438</v>
+        <v>385160.8768195789</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.689924008445</v>
+        <v>3788.689924006239</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5233972856854</v>
+        <v>716.5233972857152</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.186749691026</v>
+        <v>1005.186749691075</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.7657950593862</v>
+        <v>322.7657950600322</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993220643801728</v>
+        <v>0.9993220643801721</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650226777994716e-05</v>
+        <v>1.650226778000043e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02326683852607033</v>
+        <v>0.0232668385261516</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936268384318</v>
+        <v>295.5936268384266</v>
       </c>
       <c r="KA3" t="n">
-        <v>135251.2391518833</v>
+        <v>135251.239149501</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594754884330208</v>
+        <v>1.594754884302133</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3825471621</v>
+        <v>336974.3825471631</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.689924013646</v>
+        <v>3788.6899240187</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698128.1645167264</v>
+        <v>-698128.1645182008</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8560767285001</v>
+        <v>717.8560767284938</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776452400088</v>
+        <v>1006.776452400049</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.40247674295423</v>
+        <v>1.402476742954187</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995304186575475</v>
+        <v>0.9995304186575557</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8026850521371</v>
+        <v>344.8026850521317</v>
       </c>
       <c r="KL3" t="n">
-        <v>189598.6406022653</v>
+        <v>189598.6405989215</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.27429941914917e-06</v>
+        <v>5.274299419242187e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135188.4382787608</v>
+        <v>135188.4382763807</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.397082270733713e-06</v>
+        <v>7.397082270863942e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.00339561737623937</v>
+        <v>0.003395617376239208</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924604020073e-05</v>
+        <v>1.832924604020013e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606727748020659</v>
+        <v>0.02606727748020544</v>
       </c>
       <c r="KS3" t="n">
-        <v>135251.2391518833</v>
+        <v>135251.239149501</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594754884330208</v>
+        <v>1.594754884302133</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594754884330208</v>
+        <v>1.594754884302133</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3825471621</v>
+        <v>336974.3825471631</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.689924013646</v>
+        <v>3788.6899240187</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8560767285001</v>
+        <v>717.8560767284938</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776452400088</v>
+        <v>1006.776452400049</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8026850521371</v>
+        <v>344.8026850521317</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995304186575475</v>
+        <v>0.9995304186575557</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924604020073e-05</v>
+        <v>1.832924604020013e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606727748020659</v>
+        <v>0.02606727748020544</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.4900730223652</v>
+        <v>268.4900730230286</v>
       </c>
       <c r="LH3" t="n">
-        <v>96649.30964233773</v>
+        <v>96649.30964147495</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.254843564352017</v>
+        <v>1.254843564337695</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317593.1427750546</v>
+        <v>317593.1427755325</v>
       </c>
       <c r="LK3" t="n">
-        <v>394614.145542237</v>
+        <v>394614.1455429064</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.689924015083</v>
+        <v>3788.689924020137</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622611.4888156715</v>
+        <v>-622611.488818873</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.7966594973074</v>
+        <v>716.7966594973228</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.525647585378</v>
+        <v>1005.525647585368</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402804594946853</v>
+        <v>1.40280459494681</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993663118494301</v>
+        <v>0.9993663118494446</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.5989810059239</v>
+        <v>328.5989810063295</v>
       </c>
       <c r="LS3" t="n">
-        <v>135494.6078518766</v>
+        <v>135494.6078506648</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.380367498411485e-06</v>
+        <v>7.380367498477495e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96588.36900018137</v>
+        <v>96588.3689993205</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.035321343916805e-05</v>
+        <v>1.035321343926032e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.0037377775861728</v>
+        <v>0.003737777586163347</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.69834542160337e-05</v>
+        <v>1.698345421606703e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.0240012197304713</v>
+        <v>0.02400121973052204</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96649.30964233773</v>
+        <v>96649.30964147495</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.254843564352017</v>
+        <v>1.254843564337695</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.254843564352017</v>
+        <v>1.254843564337695</v>
       </c>
       <c r="MC3" t="n">
-        <v>317593.1427750546</v>
+        <v>317593.1427755325</v>
       </c>
       <c r="MD3" t="n">
-        <v>394614.145542237</v>
+        <v>394614.1455429064</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.689924015083</v>
+        <v>3788.689924020137</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.7966594973074</v>
+        <v>716.7966594973228</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.525647585378</v>
+        <v>1005.525647585368</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.5989810059239</v>
+        <v>328.5989810063295</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993663118494301</v>
+        <v>0.9993663118494446</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.69834542160337e-05</v>
+        <v>1.698345421606703e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.0240012197304713</v>
+        <v>0.02400121973052204</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8385090192224038</v>
+        <v>0.8385090192110993</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4260087263396406</v>
+        <v>0.4260087263304032</v>
       </c>
       <c r="MP3" t="n">
-        <v>249240.960095387</v>
+        <v>249240.9600940689</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.725101775953389</v>
+        <v>2.725101775970125</v>
       </c>
       <c r="MR3" t="n">
-        <v>380951.5715772173</v>
+        <v>380951.5715776862</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>141.803303989599</v>
+        <v>141.8033039855532</v>
       </c>
       <c r="MU3" t="n">
-        <v>126.4203163793731</v>
+        <v>126.4203163770126</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.23457502705094</v>
+        <v>-64.23457502276503</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.93527213996669</v>
+        <v>-26.93527213885487</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.049015563558</v>
+        <v>262.049015558665</v>
       </c>
       <c r="MY3" t="n">
-        <v>126.4203163793731</v>
+        <v>126.4203163770126</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.5377750270509</v>
+        <v>-229.537775022765</v>
       </c>
       <c r="NA3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1988069701783</v>
+        <v>234.198806972024</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000238139</v>
+        <v>57499.99999924106</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559438386122211</v>
+        <v>0.8559438385586732</v>
       </c>
       <c r="NE3" t="n">
-        <v>293101.9976220236</v>
+        <v>293101.9976233555</v>
       </c>
       <c r="NF3" t="n">
-        <v>360279.3022634224</v>
+        <v>360279.302265288</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.83630369119</v>
+        <v>3800.836303714821</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529872.0255499968</v>
+        <v>-529872.0255606809</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9877717801929</v>
+        <v>715.9877717801998</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421533913701</v>
+        <v>1004.421533913606</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847329943027</v>
+        <v>1.402847329942881</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992672778161613</v>
+        <v>0.9992672778162259</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8722353316698</v>
+        <v>306.8722353328828</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.71815790939</v>
+        <v>80604.71815350399</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622165616833e-05</v>
+        <v>1.240622165684638e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.94031712841</v>
+        <v>57457.94031399408</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.74040349250371e-05</v>
+        <v>1.740403492598649e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283298254377365</v>
+        <v>0.004283298254342574</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.520047292765615e-05</v>
+        <v>1.520047292775392e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02129098961115867</v>
+        <v>0.02129098961130563</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000238139</v>
+        <v>57499.99999924106</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559438386122211</v>
+        <v>0.8559438385586732</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559438386122211</v>
+        <v>0.8559438385586732</v>
       </c>
       <c r="NX3" t="n">
-        <v>293101.9976220236</v>
+        <v>293101.9976233555</v>
       </c>
       <c r="NY3" t="n">
-        <v>360279.3022634224</v>
+        <v>360279.302265288</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.83630369119</v>
+        <v>3800.836303714821</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9877717801929</v>
+        <v>715.9877717801998</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421533913701</v>
+        <v>1004.421533913606</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8722353316698</v>
+        <v>306.8722353328828</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992672778161613</v>
+        <v>0.9992672778162259</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.520047292765615e-05</v>
+        <v>1.520047292775392e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02129098961115867</v>
+        <v>0.02129098961130563</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.2393361240505</v>
+        <v>244.2393361252227</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66574.9560325435</v>
+        <v>66574.95603269366</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9502656064815229</v>
+        <v>0.9502656064790926</v>
       </c>
       <c r="OL3" t="n">
-        <v>300274.0772749304</v>
+        <v>300274.0772757702</v>
       </c>
       <c r="OM3" t="n">
-        <v>370333.3907747061</v>
+        <v>370333.3907758831</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.836303709597</v>
+        <v>3800.83630371377</v>
       </c>
       <c r="OO3" t="n">
-        <v>-557980.344759516</v>
+        <v>-557980.3447638132</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1678171833986</v>
+        <v>716.1678171834176</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.666760708727</v>
+        <v>1004.666760708733</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837067797824</v>
+        <v>1.402837067797795</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992957411827104</v>
+        <v>0.9992957411827242</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.3891327001264</v>
+        <v>313.3891327008795</v>
       </c>
       <c r="OU3" t="n">
-        <v>93328.19701237891</v>
+        <v>93328.19701258879</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.071487537541695e-05</v>
+        <v>1.071487537539285e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66528.18003938666</v>
+        <v>66528.18003953765</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.503122435346902e-05</v>
+        <v>1.50312243534349e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004107560720036418</v>
+        <v>0.00410756072001655</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573224277683093e-05</v>
+        <v>1.573224277689236e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02209591450353572</v>
+        <v>0.02209591450362871</v>
       </c>
       <c r="PB3" t="n">
-        <v>66574.9560325435</v>
+        <v>66574.95603269366</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9502656064815229</v>
+        <v>0.9502656064790926</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9502656064815229</v>
+        <v>0.9502656064790926</v>
       </c>
       <c r="PE3" t="n">
-        <v>300274.0772749304</v>
+        <v>300274.0772757702</v>
       </c>
       <c r="PF3" t="n">
-        <v>370333.3907747061</v>
+        <v>370333.3907758831</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.836303709597</v>
+        <v>3800.83630371377</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1678171833986</v>
+        <v>716.1678171834176</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.666760708727</v>
+        <v>1004.666760708733</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.3891327001264</v>
+        <v>313.3891327008795</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992957411827104</v>
+        <v>0.9992957411827242</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573224277683093e-05</v>
+        <v>1.573224277689236e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02209591450353572</v>
+        <v>0.02209591450362871</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.4787791012075</v>
+        <v>268.4787791014716</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92642.51381982352</v>
+        <v>92642.51381879917</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.202840746796755</v>
+        <v>1.202840746782261</v>
       </c>
       <c r="PS3" t="n">
-        <v>317594.3787391126</v>
+        <v>317594.3787393043</v>
       </c>
       <c r="PT3" t="n">
-        <v>394614.1455424378</v>
+        <v>394614.1455427058</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.83630370092</v>
+        <v>3800.836303705091</v>
       </c>
       <c r="PV3" t="n">
-        <v>-625829.7448387316</v>
+        <v>-625829.744840587</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7834355939771</v>
+        <v>716.783435593981</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.44283808606</v>
+        <v>1005.442838086043</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.40271494590675</v>
+        <v>1.402714945906718</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993923139309058</v>
+        <v>0.9993923139309158</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.5900771572082</v>
+        <v>328.5900771573693</v>
       </c>
       <c r="QB3" t="n">
-        <v>129872.4460863458</v>
+        <v>129872.4460849081</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.699862673989749e-06</v>
+        <v>7.699862674074989e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92586.48484877516</v>
+        <v>92586.48484775235</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.080071245423494e-05</v>
+        <v>1.080071245435425e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003737387596120616</v>
+        <v>0.003737387596116762</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698227502145842e-05</v>
+        <v>1.698227502147159e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02399892856583774</v>
+        <v>0.0239989285658577</v>
       </c>
       <c r="QI3" t="n">
-        <v>92642.51381982352</v>
+        <v>92642.51381879917</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.202840746796755</v>
+        <v>1.202840746782261</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.202840746796755</v>
+        <v>1.202840746782261</v>
       </c>
       <c r="QL3" t="n">
-        <v>317594.3787391126</v>
+        <v>317594.3787393043</v>
       </c>
       <c r="QM3" t="n">
-        <v>394614.1455424378</v>
+        <v>394614.1455427058</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.83630370092</v>
+        <v>3800.836303705091</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7834355939771</v>
+        <v>716.783435593981</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.44283808606</v>
+        <v>1005.442838086043</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.5900771572082</v>
+        <v>328.5900771573693</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993923139309058</v>
+        <v>0.9993923139309158</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698227502145842e-05</v>
+        <v>1.698227502147159e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02399892856583774</v>
+        <v>0.0239989285658577</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4620923226773415</v>
+        <v>0.4620923226623306</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8539352388147251</v>
+        <v>0.853935238795405</v>
       </c>
       <c r="QY3" t="n">
-        <v>384543.1803124258</v>
+        <v>384543.1802787149</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.725101776077747</v>
+        <v>2.725101775856381</v>
       </c>
       <c r="RA3" t="n">
-        <v>380951.5715772173</v>
+        <v>380951.5715776862</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02457066441896829</v>
+        <v>0.02457066441792444</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.00242264068263393</v>
+        <v>0.002422640682169427</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01187960968177014</v>
+        <v>0.0118796096817996</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03214502245925605</v>
+        <v>0.03214502245899551</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04299769189374122</v>
+        <v>0.04299769189331755</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1140156291363696</v>
+        <v>0.1140156291342065</v>
       </c>
       <c r="RH3" t="n">
-        <v>5.26367838205033e-12</v>
+        <v>7.117324785088641e-11</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,34 +8689,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01611691534489195</v>
+        <v>0.01611691534489501</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.785867205538613e-07</v>
+        <v>-1.785867205380984e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0137968464289208</v>
+        <v>0.01379684642892114</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02511126098068089</v>
+        <v>0.02511126098067262</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05502484416777308</v>
+        <v>0.05502484416776824</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.856286371981213e-12</v>
+        <v>1.154042139628331e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172527294</v>
+        <v>81.75758172381565</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172527294</v>
+        <v>81.75758172381565</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172527294</v>
+        <v>81.75758172381565</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172527294</v>
+        <v>81.75758172381565</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180724806</v>
+        <v>292.2676180725994</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394374762</v>
+        <v>132637.8394376649</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096100289</v>
+        <v>1.581790096101894</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834750779</v>
+        <v>334589.2834751628</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800038074</v>
+        <v>418442.2800039266</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625803953</v>
+        <v>-687181.9625807256</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713704008</v>
+        <v>717.7090713704061</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103392</v>
+        <v>1006.643209103398</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574212</v>
+        <v>1.402578355574211</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756392</v>
+        <v>0.9994973723756401</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121221794</v>
+        <v>342.8584121222492</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.416586685</v>
+        <v>185942.4165869494</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054398878e-06</v>
+        <v>5.378009054391231e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565723628</v>
+        <v>132571.8565725514</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095782003e-06</v>
+        <v>7.543079095771272e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038600185</v>
+        <v>0.003434455038598792</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856046591e-05</v>
+        <v>1.816725856047172e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190127231</v>
+        <v>0.02581791190128126</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394374762</v>
+        <v>132637.8394376649</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096100289</v>
+        <v>1.581790096101894</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096100289</v>
+        <v>1.581790096101894</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834750779</v>
+        <v>334589.2834751628</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800038074</v>
+        <v>418442.2800039266</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713704008</v>
+        <v>717.7090713704061</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103392</v>
+        <v>1006.643209103398</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121221794</v>
+        <v>342.8584121222492</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756392</v>
+        <v>0.9994973723756401</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856046591e-05</v>
+        <v>1.816725856047172e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190127231</v>
+        <v>0.02581791190128126</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8838,97 +8838,97 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BD2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368984915</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BG2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974367843</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309081e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617458637</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346996765e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BW2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BY2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8939,97 +8939,97 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CK2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368984915</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="CN2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974367843</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309081e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617458637</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346996765e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="DD2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="DF2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305856687</v>
+        <v>0.2384587305813697</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305856687</v>
+        <v>0.2384587305813697</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323216513</v>
+        <v>186219.5323184614</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.77636993474301</v>
+        <v>2.77636993469634</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780767509163</v>
+        <v>309.3780771675716</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136412895128</v>
+        <v>126.4136414597605</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727778487548</v>
+        <v>282.3727782290407</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780767509163</v>
+        <v>309.3780771675716</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136412895128</v>
+        <v>126.4136414597605</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727778487548</v>
+        <v>282.3727782290407</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365049631574</v>
+        <v>247.8365048344223</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23788471294</v>
+        <v>72726.23774766069</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014670975362</v>
+        <v>1.023014669579299</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9117867955</v>
+        <v>302836.9116948471</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0339014416</v>
+        <v>373927.0337725377</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061326164</v>
+        <v>3790.0930613466</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3839027485</v>
+        <v>-565396.3835487996</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.252943056452</v>
+        <v>716.2529430536686</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581203881</v>
+        <v>1004.831581200112</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457087106</v>
+        <v>1.402900457087296</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812859005105</v>
+        <v>0.9992812859001063</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911155652415</v>
+        <v>315.6911154831436</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5428194252</v>
+        <v>101954.5426272643</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292718953485e-06</v>
+        <v>9.808292737439868e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11048615471</v>
+        <v>72674.11034917082</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005833866397e-05</v>
+        <v>1.376005836460039e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559444681673</v>
+        <v>0.004048559446779377</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113116822725e-05</v>
+        <v>1.592113116149991e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0223828837372945</v>
+        <v>0.02238288372708068</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23788471294</v>
+        <v>72726.23774766069</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014670975362</v>
+        <v>1.023014669579299</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014670975362</v>
+        <v>1.023014669579299</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9117867955</v>
+        <v>302836.9116948471</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0339014416</v>
+        <v>373927.0337725377</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061326164</v>
+        <v>3790.0930613466</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.252943056452</v>
+        <v>716.2529430536686</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581203881</v>
+        <v>1004.831581200112</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911155652415</v>
+        <v>315.6911154831436</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812859005105</v>
+        <v>0.9992812859001063</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113116822725e-05</v>
+        <v>1.592113116149991e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0223828837372945</v>
+        <v>0.02238288372708068</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968650399</v>
+        <v>295.5920968650176</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4165563135</v>
+        <v>134591.4165467269</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979527229919</v>
+        <v>1.586979527116952</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309325134</v>
+        <v>336974.6309325169</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061335813</v>
+        <v>3790.093061356248</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1242252012</v>
+        <v>-698537.1242311571</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580608188</v>
+        <v>717.8543580607937</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618720694</v>
+        <v>1006.765618720536</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008975257</v>
+        <v>1.402465008975087</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648234134</v>
+        <v>0.999532664823446</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163636118</v>
+        <v>344.8011163635889</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5202621596</v>
+        <v>188672.5202487042</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188912569274e-06</v>
+        <v>5.300188912947264e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2175239491</v>
+        <v>134529.2175143713</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329490837026e-06</v>
+        <v>7.433329491366242e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843599572</v>
+        <v>0.003395573843598942</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665247537e-05</v>
+        <v>1.832907665247291e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184419801</v>
+        <v>0.02606695184419328</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4165563135</v>
+        <v>134591.4165467269</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979527229919</v>
+        <v>1.586979527116952</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979527229919</v>
+        <v>1.586979527116952</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309325134</v>
+        <v>336974.6309325169</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061335813</v>
+        <v>3790.093061356248</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580608188</v>
+        <v>717.8543580607937</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618720694</v>
+        <v>1006.765618720536</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163636118</v>
+        <v>344.8011163635889</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648234134</v>
+        <v>0.999532664823446</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665247537e-05</v>
+        <v>1.832907665247291e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184419801</v>
+        <v>0.02606695184419328</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968650399</v>
+        <v>295.5920968650176</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4165563135</v>
+        <v>134591.4165467269</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979527229919</v>
+        <v>1.586979527116952</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309325134</v>
+        <v>336974.6309325169</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061335813</v>
+        <v>3790.093061356248</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1242252012</v>
+        <v>-698537.1242311571</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580608188</v>
+        <v>717.8543580607937</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618720694</v>
+        <v>1006.765618720536</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008975257</v>
+        <v>1.402465008975087</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648234134</v>
+        <v>0.999532664823446</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163636118</v>
+        <v>344.8011163635889</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5202621596</v>
+        <v>188672.5202487042</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188912569274e-06</v>
+        <v>5.300188912947264e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2175239491</v>
+        <v>134529.2175143713</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329490837026e-06</v>
+        <v>7.433329491366242e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843599572</v>
+        <v>0.003395573843598942</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665247537e-05</v>
+        <v>1.832907665247291e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184419801</v>
+        <v>0.02606695184419328</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4165563135</v>
+        <v>134591.4165467269</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979527229919</v>
+        <v>1.586979527116952</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979527229919</v>
+        <v>1.586979527116952</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309325134</v>
+        <v>336974.6309325169</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061335813</v>
+        <v>3790.093061356248</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580608188</v>
+        <v>717.8543580607937</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618720694</v>
+        <v>1006.765618720536</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163636118</v>
+        <v>344.8011163635889</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648234134</v>
+        <v>0.999532664823446</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665247537e-05</v>
+        <v>1.832907665247291e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184419801</v>
+        <v>0.02606695184419328</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,37 +9385,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337326453411</v>
+        <v>0.0161933732657548</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005773539037e-07</v>
+        <v>-1.972005769336536e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827868037</v>
+        <v>0.01379727827868003</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007318111</v>
+        <v>0.02510093007318923</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138441581823</v>
+        <v>0.05509138441704713</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578235935568832e-06</v>
+        <v>5.578238152829929e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024818467832</v>
+        <v>0.9800024834214597</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024818467832</v>
+        <v>0.9800024834214597</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1642856312</v>
+        <v>520038.1644960577</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991773826</v>
+        <v>2.776362991724117</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>1470.5949655156</v>
+        <v>1470.5949671829</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006614956773487932</v>
+        <v>0.006614956783562565</v>
       </c>
       <c r="IL2" t="n">
-        <v>-7.329835837086364e-08</v>
+        <v>-7.329835847601404e-08</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01030655695338281</v>
+        <v>0.01030655696907443</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.005662717758624194</v>
+        <v>0.005662717767247624</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02417559754029134</v>
+        <v>0.02417559754341635</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.002020493326765246</v>
+        <v>0.002020493328504812</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01190512760911613</v>
+        <v>0.01190512760898227</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03192297883338758</v>
+        <v>0.03192297883455988</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04262771182379295</v>
+        <v>0.04262771182573514</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1126519091333532</v>
+        <v>0.1126519091411985</v>
       </c>
       <c r="IV2" t="n">
-        <v>9.273097567596977e-11</v>
+        <v>5.188571794434438e-12</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>274.2435955756441</v>
+        <v>274.2435955714786</v>
       </c>
       <c r="IY2" t="n">
-        <v>112.0574925060297</v>
+        <v>112.0574925043277</v>
       </c>
       <c r="IZ2" t="n">
-        <v>250.3051499420628</v>
+        <v>250.3051499382609</v>
       </c>
       <c r="JA2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="JB2" t="n">
-        <v>140.6492556705931</v>
+        <v>140.6492556669394</v>
       </c>
       <c r="JC2" t="n">
-        <v>112.0574925060297</v>
+        <v>112.0574925043277</v>
       </c>
       <c r="JD2" t="n">
-        <v>85.00194994206279</v>
+        <v>85.00194993826091</v>
       </c>
       <c r="JE2" t="n">
-        <v>37.18237547064346</v>
+        <v>37.18237546982857</v>
       </c>
       <c r="JF2" t="n">
-        <v>258.0745276015193</v>
+        <v>258.0745276029543</v>
       </c>
       <c r="JG2" t="n">
-        <v>84204.24304514931</v>
+        <v>84204.24304487687</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.137441480265779</v>
+        <v>1.137441480255749</v>
       </c>
       <c r="JI2" t="n">
-        <v>310150.1395429925</v>
+        <v>310150.1395440226</v>
       </c>
       <c r="JJ2" t="n">
-        <v>384179.6562311599</v>
+        <v>384179.6562326032</v>
       </c>
       <c r="JK2" t="n">
-        <v>3788.594327640664</v>
+        <v>3788.594327647186</v>
       </c>
       <c r="JL2" t="n">
-        <v>-593560.0351484999</v>
+        <v>-593560.0351541764</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.4976739310475</v>
+        <v>716.4976739310782</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.154781941206</v>
+        <v>1005.15478194121</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402872358854213</v>
+        <v>1.402872358854159</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993176152848393</v>
+        <v>0.9993176152848608</v>
       </c>
       <c r="JQ2" t="n">
-        <v>322.1542423943101</v>
+        <v>322.1542423952066</v>
       </c>
       <c r="JR2" t="n">
-        <v>118047.4939534882</v>
+        <v>118047.4939531042</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.471166701717609e-06</v>
+        <v>8.471166701745165e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>84146.99541867281</v>
+        <v>84146.99541840237</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.188396561308585e-05</v>
+        <v>1.188396561312404e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.0038883359606323</v>
+        <v>0.003888335960610415</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.645193061133066e-05</v>
+        <v>1.645193061140417e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02319014930012003</v>
+        <v>0.02319014930023176</v>
       </c>
       <c r="JY2" t="n">
-        <v>84204.24304514931</v>
+        <v>84204.24304487687</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.137441480265779</v>
+        <v>1.137441480255749</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.137441480265779</v>
+        <v>1.137441480255749</v>
       </c>
       <c r="KB2" t="n">
-        <v>310150.1395429925</v>
+        <v>310150.1395440226</v>
       </c>
       <c r="KC2" t="n">
-        <v>384179.6562311599</v>
+        <v>384179.6562326032</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.594327640664</v>
+        <v>3788.594327647186</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.4976739310475</v>
+        <v>716.4976739310782</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.154781941206</v>
+        <v>1005.15478194121</v>
       </c>
       <c r="KG2" t="n">
-        <v>322.1542423943101</v>
+        <v>322.1542423952066</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993176152848393</v>
+        <v>0.9993176152848608</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.645193061133066e-05</v>
+        <v>1.645193061140417e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02319014930012003</v>
+        <v>0.02319014930023176</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5937313464985</v>
+        <v>295.5937313467913</v>
       </c>
       <c r="KN2" t="n">
-        <v>135296.3107316423</v>
+        <v>135296.3107290466</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.595286006674332</v>
+        <v>1.595286006642127</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.3655792882</v>
+        <v>336974.3655795038</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.431088289</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="KR2" t="n">
-        <v>3788.59432764547</v>
+        <v>3788.594327651991</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698100.3027786145</v>
+        <v>-698100.3027813504</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.8561941266101</v>
+        <v>717.8561941266164</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.777192427226</v>
+        <v>1006.777192427192</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402477544478299</v>
+        <v>1.40247754447824</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995302652409153</v>
+        <v>0.9995302652409279</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8027922113799</v>
+        <v>344.8027922115476</v>
       </c>
       <c r="KY2" t="n">
-        <v>189661.9030368809</v>
+        <v>189661.9030332365</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.272540156920939e-06</v>
+        <v>5.272540157022252e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>135233.4686452554</v>
+        <v>135233.4686426626</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.394619172441709e-06</v>
+        <v>7.394619172583482e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395620349785498</v>
+        <v>0.003395620349781856</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832925761098174e-05</v>
+        <v>1.832925761099556e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606729972442582</v>
+        <v>0.02606729972444683</v>
       </c>
       <c r="LF2" t="n">
-        <v>135296.3107316423</v>
+        <v>135296.3107290466</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.595286006674332</v>
+        <v>1.595286006642127</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.595286006674332</v>
+        <v>1.595286006642127</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.3655792882</v>
+        <v>336974.3655795038</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.431088289</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="LK2" t="n">
-        <v>3788.59432764547</v>
+        <v>3788.594327651991</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.8561941266101</v>
+        <v>717.8561941266164</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.777192427226</v>
+        <v>1006.777192427192</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8027922113799</v>
+        <v>344.8027922115476</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995302652409153</v>
+        <v>0.9995302652409279</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832925761098174e-05</v>
+        <v>1.832925761099556e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606729972442582</v>
+        <v>0.02606729972444683</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>267.9478405139109</v>
+        <v>267.9478405147321</v>
       </c>
       <c r="LU2" t="n">
-        <v>96001.1496927938</v>
+        <v>96001.14969164671</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.248954192574275</v>
+        <v>1.248954192555501</v>
       </c>
       <c r="LW2" t="n">
-        <v>317205.5340556775</v>
+        <v>317205.5340562694</v>
       </c>
       <c r="LX2" t="n">
-        <v>394070.7627915061</v>
+        <v>394070.7627923352</v>
       </c>
       <c r="LY2" t="n">
-        <v>3788.594327646941</v>
+        <v>3788.594327653461</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-621074.9058847437</v>
+        <v>-621074.9058887732</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.7798217230484</v>
+        <v>716.7798217230668</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.505580238915</v>
+        <v>1005.505580238901</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402809551504681</v>
+        <v>1.402809551504625</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993633826738344</v>
+        <v>0.9993633826738528</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.2666125068595</v>
+        <v>328.2666125073621</v>
       </c>
       <c r="MF2" t="n">
-        <v>134586.0159785606</v>
+        <v>134586.0159769496</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.430192451489901e-06</v>
+        <v>7.430192451578838e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>95940.33333619735</v>
+        <v>95940.33333505274</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.042314494046801e-05</v>
+        <v>1.042314494059237e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003745331631139743</v>
+        <v>0.003745331631127986</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.695599162239828e-05</v>
+        <v>1.695599162243957e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02395924904448511</v>
+        <v>0.02395924904454794</v>
       </c>
       <c r="MM2" t="n">
-        <v>96001.1496927938</v>
+        <v>96001.14969164671</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.248954192574275</v>
+        <v>1.248954192555501</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.248954192574275</v>
+        <v>1.248954192555501</v>
       </c>
       <c r="MP2" t="n">
-        <v>317205.5340556775</v>
+        <v>317205.5340562694</v>
       </c>
       <c r="MQ2" t="n">
-        <v>394070.7627915061</v>
+        <v>394070.7627923352</v>
       </c>
       <c r="MR2" t="n">
-        <v>3788.594327646941</v>
+        <v>3788.594327653461</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.7798217230484</v>
+        <v>716.7798217230668</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.505580238915</v>
+        <v>1005.505580238901</v>
       </c>
       <c r="MU2" t="n">
-        <v>328.2666125068595</v>
+        <v>328.2666125073621</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993633826738344</v>
+        <v>0.9993633826738528</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.695599162239828e-05</v>
+        <v>1.695599162243957e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02395924904448511</v>
+        <v>0.02395924904454794</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.8512804100837376</v>
+        <v>0.8512804100684387</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4365897981825777</v>
+        <v>0.4365897981700213</v>
       </c>
       <c r="NC2" t="n">
-        <v>253410.1713118712</v>
+        <v>253410.1713019213</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.736342184778776</v>
+        <v>2.736342184713085</v>
       </c>
       <c r="NE2" t="n">
-        <v>380408.1888264862</v>
+        <v>380408.1888273152</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>165.2430900733487</v>
+        <v>165.2430901651134</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.6735912308008</v>
+        <v>139.6735912813467</v>
       </c>
       <c r="NI2" t="n">
-        <v>-88.29816945826232</v>
+        <v>-88.29816955003719</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-32.30005581224817</v>
+        <v>-32.30005582978066</v>
       </c>
       <c r="NK2" t="n">
-        <v>289.5209261494148</v>
+        <v>289.5209262541885</v>
       </c>
       <c r="NL2" t="n">
-        <v>139.6735912308008</v>
+        <v>139.6735912813467</v>
       </c>
       <c r="NM2" t="n">
-        <v>-253.6013694582623</v>
+        <v>-253.6013695500372</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO2" t="n">
-        <v>226.0874541913191</v>
+        <v>226.0874541619347</v>
       </c>
       <c r="NP2" t="n">
-        <v>50447.70675863189</v>
+        <v>50447.70673206886</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7779155801084677</v>
+        <v>0.7779155797999676</v>
       </c>
       <c r="NR2" t="n">
-        <v>287309.7319257586</v>
+        <v>287309.7319047826</v>
       </c>
       <c r="NS2" t="n">
-        <v>352159.5794523988</v>
+        <v>352159.5794229939</v>
       </c>
       <c r="NT2" t="n">
-        <v>3803.083408206205</v>
+        <v>3803.083408227177</v>
       </c>
       <c r="NU2" t="n">
-        <v>-507669.8663861874</v>
+        <v>-507669.8663085823</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8671532979193</v>
+        <v>715.8671532975106</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.23851667194</v>
+        <v>1004.238516671249</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402828041551462</v>
+        <v>1.402828041551298</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992548518771903</v>
+        <v>0.9992548518771863</v>
       </c>
       <c r="NZ2" t="n">
-        <v>301.5053610074377</v>
+        <v>301.5053609878254</v>
       </c>
       <c r="OA2" t="n">
-        <v>70716.7913222327</v>
+        <v>70716.79128498839</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.41409130887081e-05</v>
+        <v>1.414091309615568e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>50410.16377461576</v>
+        <v>50410.16374807224</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.983726941398183e-05</v>
+        <v>1.983726942442716e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004436546258956089</v>
+        <v>0.004436546259530552</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.476448183773642e-05</v>
+        <v>1.476448183614614e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.0206330235956011</v>
+        <v>0.02063302359320414</v>
       </c>
       <c r="OH2" t="n">
-        <v>50447.70675863189</v>
+        <v>50447.70673206886</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7779155801084677</v>
+        <v>0.7779155797999676</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7779155801084677</v>
+        <v>0.7779155797999676</v>
       </c>
       <c r="OK2" t="n">
-        <v>287309.7319257586</v>
+        <v>287309.7319047826</v>
       </c>
       <c r="OL2" t="n">
-        <v>352159.5794523988</v>
+        <v>352159.5794229939</v>
       </c>
       <c r="OM2" t="n">
-        <v>3803.083408206205</v>
+        <v>3803.083408227177</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8671532979193</v>
+        <v>715.8671532975106</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.23851667194</v>
+        <v>1004.238516671249</v>
       </c>
       <c r="OP2" t="n">
-        <v>301.5053610074377</v>
+        <v>301.5053609878254</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992548518771903</v>
+        <v>0.9992548518771863</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.476448183773642e-05</v>
+        <v>1.476448183614614e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.0206330235956011</v>
+        <v>0.02063302359320414</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>239.7227567704425</v>
+        <v>239.7227567559044</v>
       </c>
       <c r="OW2" t="n">
-        <v>61889.88294337221</v>
+        <v>61889.88292575877</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.9000437645724321</v>
+        <v>0.9000437643708598</v>
       </c>
       <c r="OY2" t="n">
-        <v>297049.0260258394</v>
+        <v>297049.0260154664</v>
       </c>
       <c r="OZ2" t="n">
-        <v>365812.2188609936</v>
+        <v>365812.2188464511</v>
       </c>
       <c r="PA2" t="n">
-        <v>3803.083408200348</v>
+        <v>3803.083408221319</v>
       </c>
       <c r="PB2" t="n">
-        <v>-545873.419980724</v>
+        <v>-545873.419945004</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.0798178260291</v>
+        <v>716.0798178257456</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.538266868083</v>
+        <v>1004.538266867603</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402830022381854</v>
+        <v>1.40283002238174</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9992876966408841</v>
+        <v>0.9992876966408946</v>
       </c>
       <c r="PG2" t="n">
-        <v>310.474635621216</v>
+        <v>310.4746356117919</v>
       </c>
       <c r="PH2" t="n">
-        <v>86759.26809176362</v>
+        <v>86759.26806706625</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.152614610513218e-05</v>
+        <v>1.152614610841328e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>61845.88774658224</v>
+        <v>61845.88772898192</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.61692237986391e-05</v>
+        <v>1.61692238032406e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004184691050499859</v>
+        <v>0.004184691050752171</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.549400913753719e-05</v>
+        <v>1.549400913676715e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02173488989600351</v>
+        <v>0.021734889894837</v>
       </c>
       <c r="PO2" t="n">
-        <v>61889.88294337221</v>
+        <v>61889.88292575877</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.9000437645724321</v>
+        <v>0.9000437643708598</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9000437645724321</v>
+        <v>0.9000437643708598</v>
       </c>
       <c r="PR2" t="n">
-        <v>297049.0260258394</v>
+        <v>297049.0260154664</v>
       </c>
       <c r="PS2" t="n">
-        <v>365812.2188609936</v>
+        <v>365812.2188464511</v>
       </c>
       <c r="PT2" t="n">
-        <v>3803.083408200348</v>
+        <v>3803.083408221319</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.0798178260291</v>
+        <v>716.0798178257456</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.538266868083</v>
+        <v>1004.538266867603</v>
       </c>
       <c r="PW2" t="n">
-        <v>310.474635621216</v>
+        <v>310.4746356117919</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9992876966408841</v>
+        <v>0.9992876966408946</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.549400913753719e-05</v>
+        <v>1.549400913676715e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02173488989600351</v>
+        <v>0.021734889894837</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>267.9344593801213</v>
+        <v>267.9344593807297</v>
       </c>
       <c r="QD2" t="n">
-        <v>91272.80169209998</v>
+        <v>91272.80168617399</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.187461827899727</v>
+        <v>1.187461827819878</v>
       </c>
       <c r="QF2" t="n">
-        <v>317206.9853231416</v>
+        <v>317206.9853235917</v>
       </c>
       <c r="QG2" t="n">
-        <v>394070.7627917065</v>
+        <v>394070.7627923349</v>
       </c>
       <c r="QH2" t="n">
-        <v>3803.083408195522</v>
+        <v>3803.083408216493</v>
       </c>
       <c r="QI2" t="n">
-        <v>-624906.3341606696</v>
+        <v>-624906.3341679742</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.7641341354922</v>
+        <v>716.7641341354893</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.407378977338</v>
+        <v>1005.407378977223</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402703247965924</v>
+        <v>1.40270324796577</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9993944231014352</v>
+        <v>0.999394423101482</v>
       </c>
       <c r="QN2" t="n">
-        <v>328.2561241991223</v>
+        <v>328.2561241994921</v>
       </c>
       <c r="QO2" t="n">
-        <v>127951.4855273279</v>
+        <v>127951.4855190123</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.815462211155179e-06</v>
+        <v>7.815462211663109e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>91217.78659375869</v>
+        <v>91217.7865878405</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.096277422794232e-05</v>
+        <v>1.096277422865358e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003744867677654899</v>
+        <v>0.003744867677645491</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.695459610817341e-05</v>
+        <v>1.695459610820323e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02395653696807589</v>
+        <v>0.02395653696812063</v>
       </c>
       <c r="QV2" t="n">
-        <v>91272.80169209998</v>
+        <v>91272.80168617399</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.187461827899727</v>
+        <v>1.187461827819878</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.187461827899727</v>
+        <v>1.187461827819878</v>
       </c>
       <c r="QY2" t="n">
-        <v>317206.9853231416</v>
+        <v>317206.9853235917</v>
       </c>
       <c r="QZ2" t="n">
-        <v>394070.7627917065</v>
+        <v>394070.7627923349</v>
       </c>
       <c r="RA2" t="n">
-        <v>3803.083408195522</v>
+        <v>3803.083408216493</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.7641341354922</v>
+        <v>716.7641341354893</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.407378977338</v>
+        <v>1005.407378977223</v>
       </c>
       <c r="RD2" t="n">
-        <v>328.2561241991223</v>
+        <v>328.2561241994921</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9993944231014352</v>
+        <v>0.999394423101482</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.695459610817341e-05</v>
+        <v>1.695459610820323e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02395653696807589</v>
+        <v>0.02395653696812063</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02486058100855051</v>
+        <v>0.02486058100623793</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.003173858067597416</v>
+        <v>0.003173858067774155</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.0118458651050686</v>
+        <v>0.01184586510510703</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.03243939643378745</v>
+        <v>0.03243939643346064</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04348345569016397</v>
+        <v>0.04348345568960826</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.115803156305168</v>
+        <v>0.115803156302188</v>
       </c>
       <c r="RP2" t="n">
-        <v>1.648865584244485e-05</v>
+        <v>1.648872023415904e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5480602053681971</v>
+        <v>0.5480602057082026</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9602513374290308</v>
+        <v>0.960251337838995</v>
       </c>
       <c r="RS2" t="n">
-        <v>397528.8299686524</v>
+        <v>397528.8299976814</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.736322951368372</v>
+        <v>2.736322951273459</v>
       </c>
       <c r="RU2" t="n">
-        <v>380408.1888264862</v>
+        <v>380408.1888273152</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>2669.791787207883</v>
+        <v>2669.791782938119</v>
       </c>
       <c r="RX2" t="n">
-        <v>6.301354478584869</v>
+        <v>6.301354481552146</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.008798869691792683</v>
+        <v>0.008798869681667871</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.0007353719992118076</v>
+        <v>0.000735371998903689</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.0116185806973625</v>
+        <v>0.01161858068291788</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01551463954393428</v>
+        <v>0.01551463952478307</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004332950460570659</v>
+        <v>0.004332950454975945</v>
       </c>
     </row>
     <row r="3">
@@ -10206,34 +10206,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01611910595787592</v>
+        <v>0.01611910595792032</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.796499141566338e-07</v>
+        <v>-1.796499141600953e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0137969014269984</v>
+        <v>0.01379690142699793</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02510994707370795</v>
+        <v>0.02510994707371917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05502577480866811</v>
+        <v>0.05502577480872325</v>
       </c>
       <c r="H3" t="n">
-        <v>1.269748195475984e-13</v>
+        <v>-7.031389359646312e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.7575817250582</v>
+        <v>81.75758172383676</v>
       </c>
       <c r="K3" t="n">
-        <v>81.7575817250582</v>
+        <v>81.75758172383676</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.7575817250582</v>
+        <v>81.75758172383676</v>
       </c>
       <c r="O3" t="n">
-        <v>81.7575817250582</v>
+        <v>81.75758172383676</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,28 +10254,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180725982</v>
+        <v>292.2676180725978</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394376628</v>
+        <v>132637.8394376621</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096101875</v>
+        <v>1.581790096101869</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834751621</v>
+        <v>334589.2834751616</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800039254</v>
+        <v>418442.2800039249</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625807223</v>
+        <v>-687181.9625807212</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704061</v>
+        <v>717.709071370406</v>
       </c>
       <c r="Z3" t="n">
         <v>1006.643209103398</v>
@@ -10287,64 +10287,64 @@
         <v>0.9994973723756401</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121222485</v>
+        <v>342.8584121222482</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165869464</v>
+        <v>185942.4165869454</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054391317e-06</v>
+        <v>5.378009054391345e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565725494</v>
+        <v>132571.8565725486</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095771389e-06</v>
+        <v>7.543079095771431e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038598806</v>
+        <v>0.003434455038598811</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047167e-05</v>
+        <v>1.816725856047165e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190128118</v>
+        <v>0.02581791190128115</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394376628</v>
+        <v>132637.8394376621</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096101875</v>
+        <v>1.581790096101869</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096101875</v>
+        <v>1.581790096101869</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834751621</v>
+        <v>334589.2834751616</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800039254</v>
+        <v>418442.2800039249</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704061</v>
+        <v>717.709071370406</v>
       </c>
       <c r="AR3" t="n">
         <v>1006.643209103398</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121222485</v>
+        <v>342.8584121222482</v>
       </c>
       <c r="AT3" t="n">
         <v>0.9994973723756401</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047167e-05</v>
+        <v>1.816725856047165e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190128118</v>
+        <v>0.02581791190128115</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10355,97 +10355,97 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BD3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368984915</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BG3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367843</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309081e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617458637</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346996765e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BW3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BY3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
@@ -10456,97 +10456,97 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CK3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368984915</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="CN3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367843</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309081e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617458637</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346996765e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="DD3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="DF3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DK3" t="inlineStr">
         <is>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305849943</v>
+        <v>0.238458730581432</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305849943</v>
+        <v>0.238458730581432</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.53232129</v>
+        <v>186219.5323185073</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934738503</v>
+        <v>2.776369934697013</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780771274854</v>
+        <v>309.3780791802096</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136414433811</v>
+        <v>126.4136422821358</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727781924536</v>
+        <v>282.3727800659975</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780771274854</v>
+        <v>309.3780791802096</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136414433811</v>
+        <v>126.4136422821358</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727781924536</v>
+        <v>282.3727800659975</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365048470112</v>
+        <v>247.8365042125931</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23776199312</v>
+        <v>72726.23709180091</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014669728913</v>
+        <v>1.023014662922383</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.911703836</v>
+        <v>302836.9112506913</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0337851397</v>
+        <v>373927.0331498715</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.09306134092</v>
+        <v>3790.093061421001</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.383582503</v>
+        <v>-565396.3818331143</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430539445</v>
+        <v>716.2529430402475</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581200504</v>
+        <v>1004.831581182061</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457087302</v>
+        <v>1.402900457088381</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859001367</v>
+        <v>0.9992812858980937</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911154911718</v>
+        <v>315.6911150865857</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5426473605</v>
+        <v>101954.5417076881</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292735506561e-06</v>
+        <v>9.808292825905496e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11036349525</v>
+        <v>72674.10969363248</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005836188822e-05</v>
+        <v>1.376005848871951e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559446574417</v>
+        <v>0.00404855945691307</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113116215792e-05</v>
+        <v>1.592113112900582e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288372807984</v>
+        <v>0.0223828836777472</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23776199312</v>
+        <v>72726.23709180091</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014669728913</v>
+        <v>1.023014662922383</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014669728913</v>
+        <v>1.023014662922383</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.911703836</v>
+        <v>302836.9112506913</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0337851397</v>
+        <v>373927.0331498715</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.09306134092</v>
+        <v>3790.093061421001</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430539445</v>
+        <v>716.2529430402475</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581200504</v>
+        <v>1004.831581182061</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911154911718</v>
+        <v>315.6911150865857</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859001367</v>
+        <v>0.9992812858980937</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113116215792e-05</v>
+        <v>1.592113112900582e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288372807984</v>
+        <v>0.0223828836777472</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968650237</v>
+        <v>295.5920968647365</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.416549391</v>
+        <v>134591.4165115067</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527148346</v>
+        <v>1.58697952670299</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325157</v>
+        <v>336974.6309323868</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061350568</v>
+        <v>3790.093061430649</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242295016</v>
+        <v>-698537.1242522848</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580608007</v>
+        <v>717.8543580606934</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.76561872058</v>
+        <v>1006.765618719952</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008975134</v>
+        <v>1.402465008974469</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648234371</v>
+        <v>0.9995326648235635</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163635952</v>
+        <v>344.8011163633891</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5202524434</v>
+        <v>188672.5201992705</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188912842221e-06</v>
+        <v>5.300188914335956e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.217517033</v>
+        <v>134529.2174791828</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329491219171e-06</v>
+        <v>7.433329493310558e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843599117</v>
+        <v>0.003395573843598934</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665247359e-05</v>
+        <v>1.832907665245419e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184419459</v>
+        <v>0.02606695184416102</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.416549391</v>
+        <v>134591.4165115067</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527148346</v>
+        <v>1.58697952670299</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527148346</v>
+        <v>1.58697952670299</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325157</v>
+        <v>336974.6309323868</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061350568</v>
+        <v>3790.093061430649</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580608007</v>
+        <v>717.8543580606934</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.76561872058</v>
+        <v>1006.765618719952</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163635952</v>
+        <v>344.8011163633891</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648234371</v>
+        <v>0.9995326648235635</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665247359e-05</v>
+        <v>1.832907665245419e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184419459</v>
+        <v>0.02606695184416102</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968650237</v>
+        <v>295.5920968647365</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.416549391</v>
+        <v>134591.4165115067</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527148346</v>
+        <v>1.58697952670299</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325157</v>
+        <v>336974.6309323868</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061350568</v>
+        <v>3790.093061430649</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242295016</v>
+        <v>-698537.1242522848</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580608007</v>
+        <v>717.8543580606934</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.76561872058</v>
+        <v>1006.765618719952</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008975134</v>
+        <v>1.402465008974469</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648234371</v>
+        <v>0.9995326648235635</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163635952</v>
+        <v>344.8011163633891</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5202524434</v>
+        <v>188672.5201992705</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188912842221e-06</v>
+        <v>5.300188914335956e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.217517033</v>
+        <v>134529.2174791828</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329491219171e-06</v>
+        <v>7.433329493310558e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843599117</v>
+        <v>0.003395573843598934</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665247359e-05</v>
+        <v>1.832907665245419e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184419459</v>
+        <v>0.02606695184416102</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.416549391</v>
+        <v>134591.4165115067</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527148346</v>
+        <v>1.58697952670299</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527148346</v>
+        <v>1.58697952670299</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325157</v>
+        <v>336974.6309323868</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061350568</v>
+        <v>3790.093061430649</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580608007</v>
+        <v>717.8543580606934</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.76561872058</v>
+        <v>1006.765618719952</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163635952</v>
+        <v>344.8011163633891</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648234371</v>
+        <v>0.9995326648235635</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665247359e-05</v>
+        <v>1.832907665245419e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184419459</v>
+        <v>0.02606695184416102</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,37 +10902,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337326561065</v>
+        <v>0.01619337327147992</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.97200576974195e-07</v>
+        <v>-1.972005779559016e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868033</v>
+        <v>0.01379727827868003</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318202</v>
+        <v>0.02510093007318911</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138441689602</v>
+        <v>0.0550913844227711</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578243624397572e-06</v>
+        <v>5.578248995191659e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024832695586</v>
+        <v>0.9800024910278371</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024832695586</v>
+        <v>0.9800024910278371</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1644832381</v>
+        <v>520038.165556528</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991770422</v>
+        <v>2.776362991719329</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>1491.123350941285</v>
+        <v>1491.123352242401</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.00640675083455472</v>
+        <v>0.006406750832197506</v>
       </c>
       <c r="IL3" t="n">
-        <v>-7.140422306662255e-08</v>
+        <v>-7.140422304153025e-08</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.009980278980144017</v>
+        <v>0.009980278976448979</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005483760077183529</v>
+        <v>0.005483760075150619</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02457066441896829</v>
+        <v>0.02457066441792444</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.00242264068263393</v>
+        <v>0.002422640682169427</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01187960968177014</v>
+        <v>0.0118796096817996</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03214502245925605</v>
+        <v>0.03214502245899551</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04299769189374122</v>
+        <v>0.04299769189331755</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1140156291363696</v>
+        <v>0.1140156291342065</v>
       </c>
       <c r="IV3" t="n">
-        <v>5.26367838205033e-12</v>
+        <v>7.117324785088641e-11</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>274.2435360978989</v>
+        <v>274.2435360957214</v>
       </c>
       <c r="IY3" t="n">
-        <v>112.0574682030848</v>
+        <v>112.0574682021951</v>
       </c>
       <c r="IZ3" t="n">
-        <v>250.3050956560697</v>
+        <v>250.3050956540823</v>
       </c>
       <c r="JA3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="JB3" t="n">
-        <v>140.6492035000935</v>
+        <v>140.6492034981836</v>
       </c>
       <c r="JC3" t="n">
-        <v>112.0574682030848</v>
+        <v>112.0574682021951</v>
       </c>
       <c r="JD3" t="n">
-        <v>85.00189565606968</v>
+        <v>85.00189565408226</v>
       </c>
       <c r="JE3" t="n">
-        <v>37.18236383506229</v>
+        <v>37.18236383463631</v>
       </c>
       <c r="JF3" t="n">
-        <v>258.0744584740215</v>
+        <v>258.0744584746199</v>
       </c>
       <c r="JG3" t="n">
-        <v>84176.20446645263</v>
+        <v>84176.20446777953</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.13706277967045</v>
+        <v>1.13706277968574</v>
       </c>
       <c r="JI3" t="n">
-        <v>310150.1589826142</v>
+        <v>310150.1589830404</v>
       </c>
       <c r="JJ3" t="n">
-        <v>384179.6725428497</v>
+        <v>384179.6725434472</v>
       </c>
       <c r="JK3" t="n">
-        <v>3788.689924009076</v>
+        <v>3788.689924006871</v>
       </c>
       <c r="JL3" t="n">
-        <v>-593584.4279217744</v>
+        <v>-593584.4279228747</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.4975715567633</v>
+        <v>716.4975715567812</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.154144229361</v>
+        <v>1005.154144229395</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402871669258309</v>
+        <v>1.402871669258321</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993178407371154</v>
+        <v>0.9993178407371127</v>
       </c>
       <c r="JQ3" t="n">
-        <v>322.1541924797567</v>
+        <v>322.1541924801308</v>
       </c>
       <c r="JR3" t="n">
-        <v>118008.1545664691</v>
+        <v>118008.1545683301</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.473990663388786e-06</v>
+        <v>8.473990663255151e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>84118.99473945428</v>
+        <v>84118.99474078004</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.188792142722755e-05</v>
+        <v>1.188792142704019e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003888332522561782</v>
+        <v>0.003888332522552888</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.645192271588866e-05</v>
+        <v>1.645192271591953e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02319013352620923</v>
+        <v>0.02319013352625635</v>
       </c>
       <c r="JY3" t="n">
-        <v>84176.20446645263</v>
+        <v>84176.20446777953</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.13706277967045</v>
+        <v>1.13706277968574</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.13706277967045</v>
+        <v>1.13706277968574</v>
       </c>
       <c r="KB3" t="n">
-        <v>310150.1589826142</v>
+        <v>310150.1589830404</v>
       </c>
       <c r="KC3" t="n">
-        <v>384179.6725428497</v>
+        <v>384179.6725434472</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.689924009076</v>
+        <v>3788.689924006871</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.4975715567633</v>
+        <v>716.4975715567812</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.154144229361</v>
+        <v>1005.154144229395</v>
       </c>
       <c r="KG3" t="n">
-        <v>322.1541924797567</v>
+        <v>322.1541924801308</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993178407371154</v>
+        <v>0.9993178407371127</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.645192271588866e-05</v>
+        <v>1.645192271591953e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02319013352620923</v>
+        <v>0.02319013352625635</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5936268385319</v>
+        <v>295.5936268385344</v>
       </c>
       <c r="KN3" t="n">
-        <v>135251.2391520432</v>
+        <v>135251.2391530831</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.594754884331552</v>
+        <v>1.594754884343805</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.3825472337</v>
+        <v>336974.3825472334</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.4310887902</v>
+        <v>421784.4310887904</v>
       </c>
       <c r="KR3" t="n">
-        <v>3788.689924013645</v>
+        <v>3788.68992401144</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698128.164517005</v>
+        <v>-698128.1645163627</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8560767285048</v>
+        <v>717.8560767285076</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.776452400094</v>
+        <v>1006.776452400111</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402476742954228</v>
+        <v>1.402476742954246</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995304186575483</v>
+        <v>0.9995304186575448</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8026850521956</v>
+        <v>344.8026850521981</v>
       </c>
       <c r="KY3" t="n">
-        <v>189598.6406024894</v>
+        <v>189598.6406039489</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.274299419142934e-06</v>
+        <v>5.274299419102334e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>135188.4382789207</v>
+        <v>135188.4382799596</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.39708227072496e-06</v>
+        <v>7.397082270668117e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395617376238223</v>
+        <v>0.00339561737623829</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.83292460402056e-05</v>
+        <v>1.832924604020588e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606727748021409</v>
+        <v>0.02606727748021462</v>
       </c>
       <c r="LF3" t="n">
-        <v>135251.2391520432</v>
+        <v>135251.2391530831</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.594754884331552</v>
+        <v>1.594754884343805</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.594754884331552</v>
+        <v>1.594754884343805</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.3825472337</v>
+        <v>336974.3825472334</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.4310887902</v>
+        <v>421784.4310887904</v>
       </c>
       <c r="LK3" t="n">
-        <v>3788.689924013645</v>
+        <v>3788.68992401144</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8560767285048</v>
+        <v>717.8560767285076</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.776452400094</v>
+        <v>1006.776452400111</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8026850521956</v>
+        <v>344.8026850521981</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995304186575483</v>
+        <v>0.9995304186575448</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.83292460402056e-05</v>
+        <v>1.832924604020588e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606727748021409</v>
+        <v>0.02606727748021462</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>267.9477589609232</v>
+        <v>267.9477589614534</v>
       </c>
       <c r="LU3" t="n">
-        <v>95969.17446807519</v>
+        <v>95969.17446947367</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.248538319565577</v>
+        <v>1.248538319581304</v>
       </c>
       <c r="LW3" t="n">
-        <v>317205.5502787272</v>
+        <v>317205.5502791045</v>
       </c>
       <c r="LX3" t="n">
-        <v>394070.7717654551</v>
+        <v>394070.7717659843</v>
       </c>
       <c r="LY3" t="n">
-        <v>3788.689924015117</v>
+        <v>3788.689924012912</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-621100.2027722262</v>
+        <v>-621100.2027731144</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.7797158912988</v>
+        <v>716.7797158913177</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.504916302395</v>
+        <v>1005.504916302431</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402808832351056</v>
+        <v>1.402808832351069</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993635925923722</v>
+        <v>0.9993635925923701</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.2665470204952</v>
+        <v>328.2665470208208</v>
       </c>
       <c r="MF3" t="n">
-        <v>134541.1482523369</v>
+        <v>134541.1482542984</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.432670324207899e-06</v>
+        <v>7.432670324099536e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>95908.39831458069</v>
+        <v>95908.39831597805</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.042661557875243e-05</v>
+        <v>1.042661557860051e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003745328368390444</v>
+        <v>0.003745328368383152</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.695598263488357e-05</v>
+        <v>1.695598263491055e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.0239592313885989</v>
+        <v>0.02395923138864022</v>
       </c>
       <c r="MM3" t="n">
-        <v>95969.17446807519</v>
+        <v>95969.17446947367</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.248538319565577</v>
+        <v>1.248538319581304</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.248538319565577</v>
+        <v>1.248538319581304</v>
       </c>
       <c r="MP3" t="n">
-        <v>317205.5502787272</v>
+        <v>317205.5502791045</v>
       </c>
       <c r="MQ3" t="n">
-        <v>394070.7717654551</v>
+        <v>394070.7717659843</v>
       </c>
       <c r="MR3" t="n">
-        <v>3788.689924015117</v>
+        <v>3788.689924012912</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.7797158912988</v>
+        <v>716.7797158913177</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.504916302395</v>
+        <v>1005.504916302431</v>
       </c>
       <c r="MU3" t="n">
-        <v>328.2665470204952</v>
+        <v>328.2665470208208</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993635925923722</v>
+        <v>0.9993635925923701</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.695598263488357e-05</v>
+        <v>1.695598263491055e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.0239592313885989</v>
+        <v>0.02395923138864022</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8512803573559938</v>
+        <v>0.851280357348246</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4365897038851406</v>
+        <v>0.4365897038787048</v>
       </c>
       <c r="NC3" t="n">
-        <v>253325.8283531163</v>
+        <v>253325.8283526073</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.735430551759462</v>
+        <v>2.735430551774526</v>
       </c>
       <c r="NE3" t="n">
-        <v>380408.1978004354</v>
+        <v>380408.1978007641</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>165.2430608159529</v>
+        <v>165.2430603421237</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.6735751152067</v>
+        <v>139.6735748542115</v>
       </c>
       <c r="NI3" t="n">
-        <v>-88.29814019763626</v>
+        <v>-88.29813972375473</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-32.30005022235286</v>
+        <v>-32.3000501318234</v>
       </c>
       <c r="NK3" t="n">
-        <v>289.5208927443761</v>
+        <v>289.520892203375</v>
       </c>
       <c r="NL3" t="n">
-        <v>139.6735751152067</v>
+        <v>139.6735748542115</v>
       </c>
       <c r="NM3" t="n">
-        <v>-253.6013401976363</v>
+        <v>-253.6013397237547</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO3" t="n">
-        <v>226.0874072189353</v>
+        <v>226.0874073758329</v>
       </c>
       <c r="NP3" t="n">
-        <v>50430.90585990104</v>
+        <v>50430.90598819666</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7776564754515459</v>
+        <v>0.7776564768900542</v>
       </c>
       <c r="NR3" t="n">
-        <v>287309.7480008249</v>
+        <v>287309.7481128666</v>
       </c>
       <c r="NS3" t="n">
-        <v>352159.5980977052</v>
+        <v>352159.5982547649</v>
       </c>
       <c r="NT3" t="n">
-        <v>3803.179033035175</v>
+        <v>3803.179033000154</v>
       </c>
       <c r="NU3" t="n">
-        <v>-507691.2886706348</v>
+        <v>-507691.2891023671</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8670633212864</v>
+        <v>715.867063323397</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.237986110096</v>
+        <v>1004.23798611336</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402827476725782</v>
+        <v>1.402827476726206</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992550990886178</v>
+        <v>0.9992550990888378</v>
       </c>
       <c r="NZ3" t="n">
-        <v>301.5053434842552</v>
+        <v>301.5053435889855</v>
       </c>
       <c r="OA3" t="n">
-        <v>70693.2290710845</v>
+        <v>70693.2292509645</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.414562629462668e-05</v>
+        <v>1.414562625863291e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>50393.38781421891</v>
+        <v>50393.38794243045</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.984387324159702e-05</v>
+        <v>1.984387319110997e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004436542695358245</v>
+        <v>0.004436542692287305</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.47644765411507e-05</v>
+        <v>1.476447654963974e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02063301261076976</v>
+        <v>0.02063301262356249</v>
       </c>
       <c r="OH3" t="n">
-        <v>50430.90585990104</v>
+        <v>50430.90598819666</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7776564754515459</v>
+        <v>0.7776564768900542</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7776564754515459</v>
+        <v>0.7776564768900542</v>
       </c>
       <c r="OK3" t="n">
-        <v>287309.7480008249</v>
+        <v>287309.7481128666</v>
       </c>
       <c r="OL3" t="n">
-        <v>352159.5980977052</v>
+        <v>352159.5982547649</v>
       </c>
       <c r="OM3" t="n">
-        <v>3803.179033035175</v>
+        <v>3803.179033000154</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8670633212864</v>
+        <v>715.867063323397</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.237986110096</v>
+        <v>1004.23798611336</v>
       </c>
       <c r="OP3" t="n">
-        <v>301.5053434842552</v>
+        <v>301.5053435889855</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992550990886178</v>
+        <v>0.9992550990888378</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.47644765411507e-05</v>
+        <v>1.476447654963974e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02063301261076976</v>
+        <v>0.02063301262356249</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>239.7226983338591</v>
+        <v>239.7226984124412</v>
       </c>
       <c r="OW3" t="n">
-        <v>61869.26670442236</v>
+        <v>61869.26678275241</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.8997439563535052</v>
+        <v>0.8997439571975701</v>
       </c>
       <c r="OY3" t="n">
-        <v>297049.0403572536</v>
+        <v>297049.0404133665</v>
       </c>
       <c r="OZ3" t="n">
-        <v>365812.232671617</v>
+        <v>365812.2327502802</v>
       </c>
       <c r="PA3" t="n">
-        <v>3803.179033029224</v>
+        <v>3803.179032994204</v>
       </c>
       <c r="PB3" t="n">
-        <v>-545896.1073729057</v>
+        <v>-545896.1075847091</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.0797251347431</v>
+        <v>716.0797251361993</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.537704647179</v>
+        <v>1004.537704649313</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402829418830644</v>
+        <v>1.402829418830772</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9992879326663762</v>
+        <v>0.9992879326665132</v>
       </c>
       <c r="PG3" t="n">
-        <v>310.4746041736895</v>
+        <v>310.4746042246341</v>
       </c>
       <c r="PH3" t="n">
-        <v>86730.35065900887</v>
+        <v>86730.35076883457</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.152998912608602e-05</v>
+        <v>1.152998911148572e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>61825.30070641421</v>
+        <v>61825.30078469728</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.61746079448709e-05</v>
+        <v>1.617460792439065e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004184687678445104</v>
+        <v>0.004184687677077687</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.549400274488315e-05</v>
+        <v>1.54940027490427e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02173487697386418</v>
+        <v>0.02173487698016265</v>
       </c>
       <c r="PO3" t="n">
-        <v>61869.26670442236</v>
+        <v>61869.26678275241</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.8997439563535052</v>
+        <v>0.8997439571975701</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.8997439563535052</v>
+        <v>0.8997439571975701</v>
       </c>
       <c r="PR3" t="n">
-        <v>297049.0403572536</v>
+        <v>297049.0404133665</v>
       </c>
       <c r="PS3" t="n">
-        <v>365812.232671617</v>
+        <v>365812.2327502802</v>
       </c>
       <c r="PT3" t="n">
-        <v>3803.179033029224</v>
+        <v>3803.179032994204</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.0797251347431</v>
+        <v>716.0797251361993</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.537704647179</v>
+        <v>1004.537704649313</v>
       </c>
       <c r="PW3" t="n">
-        <v>310.4746041736895</v>
+        <v>310.4746042246341</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9992879326663762</v>
+        <v>0.9992879326665132</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.549400274488315e-05</v>
+        <v>1.54940027490427e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02173487697386418</v>
+        <v>0.02173487698016265</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>267.9343822392171</v>
+        <v>267.9343822396768</v>
       </c>
       <c r="QD3" t="n">
-        <v>91242.39323632099</v>
+        <v>91242.39324796881</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.187066317396814</v>
+        <v>1.1870663175464</v>
       </c>
       <c r="QF3" t="n">
-        <v>317207.0010568296</v>
+        <v>317207.0010571323</v>
       </c>
       <c r="QG3" t="n">
-        <v>394070.7717654549</v>
+        <v>394070.7717658841</v>
       </c>
       <c r="QH3" t="n">
-        <v>3803.179033024488</v>
+        <v>3803.179032989467</v>
       </c>
       <c r="QI3" t="n">
-        <v>-624931.652993104</v>
+        <v>-624931.65298504</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.7640334769164</v>
+        <v>716.7640334769666</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.406747516957</v>
+        <v>1005.406747517205</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402702563966383</v>
+        <v>1.40270256396663</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9993946229429916</v>
+        <v>0.9993946229429205</v>
       </c>
       <c r="QN3" t="n">
-        <v>328.2560622424912</v>
+        <v>328.2560622427785</v>
       </c>
       <c r="QO3" t="n">
-        <v>127908.8201625026</v>
+        <v>127908.8201788446</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.818069142765478e-06</v>
+        <v>7.818069141766618e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>91187.41452986177</v>
+        <v>91187.41454149612</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.09664256318236e-05</v>
+        <v>1.096642563042442e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003744864567194109</v>
+        <v>0.003744864567189227</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.695458758508442e-05</v>
+        <v>1.695458758510941e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02395652021656468</v>
+        <v>0.02395652021660425</v>
       </c>
       <c r="QV3" t="n">
-        <v>91242.39323632099</v>
+        <v>91242.39324796881</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.187066317396814</v>
+        <v>1.1870663175464</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.187066317396814</v>
+        <v>1.1870663175464</v>
       </c>
       <c r="QY3" t="n">
-        <v>317207.0010568296</v>
+        <v>317207.0010571323</v>
       </c>
       <c r="QZ3" t="n">
-        <v>394070.7717654549</v>
+        <v>394070.7717658841</v>
       </c>
       <c r="RA3" t="n">
-        <v>3803.179033024488</v>
+        <v>3803.179032989467</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.7640334769164</v>
+        <v>716.7640334769666</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.406747516957</v>
+        <v>1005.406747517205</v>
       </c>
       <c r="RD3" t="n">
-        <v>328.2560622424912</v>
+        <v>328.2560622427785</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9993946229429916</v>
+        <v>0.9993946229429205</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.695458758508442e-05</v>
+        <v>1.695458758510941e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02395652021656468</v>
+        <v>0.02395652021660425</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.02486056327084056</v>
+        <v>0.02486056327876478</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.003173845727160658</v>
+        <v>0.003173845722183187</v>
       </c>
       <c r="RL3" t="n">
-        <v>0.01184586017386789</v>
+        <v>0.01184586017388828</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.03243958782045902</v>
+        <v>0.03243958782027726</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04348344775540386</v>
+        <v>0.04348344775511334</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.115803304747732</v>
+        <v>0.1158033047502268</v>
       </c>
       <c r="RP3" t="n">
-        <v>1.656695057901392e-05</v>
+        <v>1.656701668328875e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5480601401831607</v>
+        <v>0.5480601384212427</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9602512824436727</v>
+        <v>0.9602512803157883</v>
       </c>
       <c r="RS3" t="n">
-        <v>397396.5195460007</v>
+        <v>397396.5193100373</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.73541123349327</v>
+        <v>2.735411233441819</v>
       </c>
       <c r="RU3" t="n">
-        <v>380408.1978004354</v>
+        <v>380408.1978007641</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>2827.536643367494</v>
+        <v>2827.536649368238</v>
       </c>
       <c r="RX3" t="n">
-        <v>6.861653750382366</v>
+        <v>6.861653749746395</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.008937380202599987</v>
+        <v>0.008937380210254735</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.0008812159291171075</v>
+        <v>0.0008812159297403357</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.01169249160058124</v>
+        <v>0.01169249161099767</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01564006221956096</v>
+        <v>0.01564006223346681</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004321111817493361</v>
+        <v>0.004321111821388631</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4123066043296801</v>
+        <v>0.4123066042740846</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4268411828005064</v>
+        <v>0.4268411827945527</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
   </sheetData>
@@ -12546,13 +12862,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>2.110692849005384e-08</v>
+        <v>6.182635779018874e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12574,16 +12890,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>1.803441267825943e-08</v>
+        <v>2.166727231303681e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_zero_deviation_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_zero_deviation_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.017700569966768</v>
+        <v>2.01770057002544</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29999999996259</v>
+        <v>2.300000000003021</v>
       </c>
       <c r="D2" t="n">
-        <v>2.717718920629959</v>
+        <v>2.717718920506297</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56953368587045</v>
+        <v>92.56953368701713</v>
       </c>
       <c r="F2" t="n">
-        <v>79.21432923226369</v>
+        <v>79.21432923447023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1442721370826701</v>
+        <v>0.1442721370694337</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.35860136934636</v>
+        <v>-78.35860137153966</v>
       </c>
       <c r="I2" t="n">
-        <v>135281.207585805</v>
+        <v>135281.2075834177</v>
       </c>
       <c r="J2" t="n">
-        <v>83.14763834407189</v>
+        <v>83.14763834260459</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.83992753103408</v>
+        <v>-24.83992752910227</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6544847700741</v>
+        <v>134.6544847638971</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372006.9480093436</v>
+        <v>372006.948007957</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7130441830352376</v>
+        <v>0.7130441830190151</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.07285153802677</v>
+        <v>2.072851537795445</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000095916</v>
+        <v>2.399999999865328</v>
       </c>
       <c r="D3" t="n">
-        <v>2.725101775860609</v>
+        <v>2.725101775965155</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52049240184009</v>
+        <v>92.52049238646526</v>
       </c>
       <c r="F3" t="n">
-        <v>78.35440557112192</v>
+        <v>78.35440555895676</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1531129640900661</v>
+        <v>0.1531129640808187</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.50751853521199</v>
+        <v>-77.50751852303758</v>
       </c>
       <c r="I3" t="n">
-        <v>140209.321339813</v>
+        <v>140209.3213234234</v>
       </c>
       <c r="J3" t="n">
-        <v>86.17659578353594</v>
+        <v>86.17659577346242</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.93527214006095</v>
+        <v>-26.93527213888419</v>
       </c>
       <c r="M3" t="n">
-        <v>141.8033039899421</v>
+        <v>141.8033039856599</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370333.3907708263</v>
+        <v>370333.3907788145</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7014098127181378</v>
+        <v>0.7014098127315924</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.92994373140479</v>
+        <v>79.92994372801857</v>
       </c>
       <c r="D2" t="n">
-        <v>79.92994373140479</v>
+        <v>79.92994372801857</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.92994373140479</v>
+        <v>79.92994372801857</v>
       </c>
       <c r="H2" t="n">
-        <v>79.92994373140479</v>
+        <v>79.92994372801857</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4149504416069</v>
+        <v>292.4149504417766</v>
       </c>
       <c r="L2" t="n">
-        <v>132871.7007981093</v>
+        <v>132871.7007983784</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583779025141631</v>
+        <v>1.583779025143919</v>
       </c>
       <c r="N2" t="n">
-        <v>334694.6798773534</v>
+        <v>334694.6798774747</v>
       </c>
       <c r="O2" t="n">
-        <v>418590.0331361371</v>
+        <v>418590.0331363073</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687591.5556215864</v>
+        <v>-687591.5556220586</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7157387245821</v>
+        <v>717.7157387245899</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.650945680658</v>
+        <v>1006.650945680667</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576105505961</v>
+        <v>1.402576105505958</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994984012260872</v>
+        <v>0.9994984012260884</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9448990722265</v>
+        <v>342.9448990723261</v>
       </c>
       <c r="W2" t="n">
-        <v>186270.1576995585</v>
+        <v>186270.1576999359</v>
       </c>
       <c r="X2" t="n">
-        <v>5.368546482968753e-06</v>
+        <v>5.368546482957878e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132805.740072382</v>
+        <v>132805.7400726513</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.529795018310038e-06</v>
+        <v>7.529795018294772e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432727394131003</v>
+        <v>0.003432727394129013</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817446758362162e-05</v>
+        <v>1.817446758362992e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582901598901443</v>
+        <v>0.02582901598902722</v>
       </c>
       <c r="AD2" t="n">
-        <v>132871.7007981093</v>
+        <v>132871.7007983784</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583779025141631</v>
+        <v>1.583779025143919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583779025141631</v>
+        <v>1.583779025143919</v>
       </c>
       <c r="AG2" t="n">
-        <v>334694.6798773534</v>
+        <v>334694.6798774747</v>
       </c>
       <c r="AH2" t="n">
-        <v>418590.0331361371</v>
+        <v>418590.0331363073</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7157387245821</v>
+        <v>717.7157387245899</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.650945680658</v>
+        <v>1006.650945680667</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9448990722265</v>
+        <v>342.9448990723261</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994984012260872</v>
+        <v>0.9994984012260884</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817446758362162e-05</v>
+        <v>1.817446758362992e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582901598901443</v>
+        <v>0.02582901598902722</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.233069347138973</v>
+        <v>0.2330693471290313</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.233069347138973</v>
+        <v>0.2330693471290313</v>
       </c>
       <c r="DH2" t="n">
-        <v>182213.3265322534</v>
+        <v>182213.3265247139</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.717718920626682</v>
+        <v>2.717718920515472</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>267.9512936527479</v>
+        <v>267.9512936679667</v>
       </c>
       <c r="DV2" t="n">
-        <v>109.4864221621969</v>
+        <v>109.4864221684154</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.5620966795598</v>
+        <v>244.5620966934501</v>
       </c>
       <c r="DX2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DY2" t="n">
-        <v>267.9512936527479</v>
+        <v>267.9512936679667</v>
       </c>
       <c r="DZ2" t="n">
-        <v>109.4864221621969</v>
+        <v>109.4864221684154</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.5620966795598</v>
+        <v>244.5620966934501</v>
       </c>
       <c r="EB2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.77747613362</v>
+        <v>259.7774761297425</v>
       </c>
       <c r="ED2" t="n">
-        <v>86160.51930178393</v>
+        <v>86160.51929503556</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.156228926495348</v>
+        <v>1.156228926422046</v>
       </c>
       <c r="EF2" t="n">
-        <v>311366.9191651669</v>
+        <v>311366.9191624018</v>
       </c>
       <c r="EG2" t="n">
-        <v>385885.4832032986</v>
+        <v>385885.4831994213</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.594327646642</v>
+        <v>3788.594327654184</v>
       </c>
       <c r="EI2" t="n">
-        <v>-598305.989326895</v>
+        <v>-598305.9893180414</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5428706243379</v>
+        <v>716.5428706242258</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.211773250993</v>
+        <v>1005.211773250812</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402863407705295</v>
+        <v>1.402863407705262</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993250048389621</v>
+        <v>0.9993250048389627</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.2167642371405</v>
+        <v>323.2167642347246</v>
       </c>
       <c r="EO2" t="n">
-        <v>120790.1683862175</v>
+        <v>120790.1683767539</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.278819488044551e-06</v>
+        <v>8.278819488693172e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>86102.58683972483</v>
+        <v>86102.58683298099</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.161405291877519e-05</v>
+        <v>1.161405291968484e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003862896477103867</v>
+        <v>0.00386289647716106</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.653940697260297e-05</v>
+        <v>1.653940697240371e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02332344292828225</v>
+        <v>0.02332344292797822</v>
       </c>
       <c r="EV2" t="n">
-        <v>86160.51930178393</v>
+        <v>86160.51929503556</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.156228926495348</v>
+        <v>1.156228926422046</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.156228926495348</v>
+        <v>1.156228926422046</v>
       </c>
       <c r="EY2" t="n">
-        <v>311366.9191651669</v>
+        <v>311366.9191624018</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385885.4832032986</v>
+        <v>385885.4831994213</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.594327646642</v>
+        <v>3788.594327654184</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5428706243379</v>
+        <v>716.5428706242258</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.211773250993</v>
+        <v>1005.211773250812</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.2167642371405</v>
+        <v>323.2167642347246</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993250048389621</v>
+        <v>0.9993250048389627</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.653940697260297e-05</v>
+        <v>1.653940697240371e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02332344292828225</v>
+        <v>0.02332344292797822</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5937313467916</v>
+        <v>295.5937313465834</v>
       </c>
       <c r="FK2" t="n">
-        <v>135296.3107291172</v>
+        <v>135296.310725241</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595286006642958</v>
+        <v>1.59528600659836</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3655795037</v>
+        <v>336974.3655793621</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.594327651842</v>
+        <v>3788.594327659384</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698100.3027813075</v>
+        <v>-698100.3027829484</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561941266166</v>
+        <v>717.8561941265978</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777192427193</v>
+        <v>1006.777192427123</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477544478241</v>
+        <v>1.402477544478181</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995302652409276</v>
+        <v>0.9995302652409384</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027922115479</v>
+        <v>344.8027922114227</v>
       </c>
       <c r="FV2" t="n">
-        <v>189661.9030333355</v>
+        <v>189661.9030278957</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.272540157019499e-06</v>
+        <v>5.272540157170725e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135233.4686427331</v>
+        <v>135233.4686388601</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.394619172579626e-06</v>
+        <v>7.394619172791403e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395620349781858</v>
+        <v>0.003395620349783919</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925761099558e-05</v>
+        <v>1.832925761098493e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606729972444687</v>
+        <v>0.02606729972443009</v>
       </c>
       <c r="GC2" t="n">
-        <v>135296.3107291172</v>
+        <v>135296.310725241</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595286006642958</v>
+        <v>1.59528600659836</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595286006642958</v>
+        <v>1.59528600659836</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3655795037</v>
+        <v>336974.3655793621</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.594327651842</v>
+        <v>3788.594327659384</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561941266166</v>
+        <v>717.8561941265978</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777192427193</v>
+        <v>1006.777192427123</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027922115479</v>
+        <v>344.8027922114227</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995302652409276</v>
+        <v>0.9995302652409384</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925761099558e-05</v>
+        <v>1.832925761098493e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606729972444687</v>
+        <v>0.02606729972443009</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5937313467916</v>
+        <v>295.5937313465834</v>
       </c>
       <c r="GR2" t="n">
-        <v>135296.3107291172</v>
+        <v>135296.310725241</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595286006642958</v>
+        <v>1.59528600659836</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3655795037</v>
+        <v>336974.3655793621</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.594327651842</v>
+        <v>3788.594327659384</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698100.3027813075</v>
+        <v>-698100.3027829484</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561941266166</v>
+        <v>717.8561941265978</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777192427193</v>
+        <v>1006.777192427123</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477544478241</v>
+        <v>1.402477544478181</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995302652409276</v>
+        <v>0.9995302652409384</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027922115479</v>
+        <v>344.8027922114227</v>
       </c>
       <c r="HC2" t="n">
-        <v>189661.9030333355</v>
+        <v>189661.9030278957</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.272540157019499e-06</v>
+        <v>5.272540157170725e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135233.4686427331</v>
+        <v>135233.4686388601</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.394619172579626e-06</v>
+        <v>7.394619172791403e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395620349781858</v>
+        <v>0.003395620349783919</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925761099558e-05</v>
+        <v>1.832925761098493e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606729972444687</v>
+        <v>0.02606729972443009</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135296.3107291172</v>
+        <v>135296.310725241</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595286006642958</v>
+        <v>1.59528600659836</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595286006642958</v>
+        <v>1.59528600659836</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3655795037</v>
+        <v>336974.3655793621</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.594327651842</v>
+        <v>3788.594327659384</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561941266166</v>
+        <v>717.8561941265978</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777192427193</v>
+        <v>1006.777192427123</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027922115479</v>
+        <v>344.8027922114227</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995302652409276</v>
+        <v>0.9995302652409384</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925761099558e-05</v>
+        <v>1.832925761098493e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606729972444687</v>
+        <v>0.02606729972443009</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8290142198693478</v>
+        <v>0.8290142199226296</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8290142198693478</v>
+        <v>0.8290142199226296</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490024.1617625942</v>
+        <v>490024.1617652632</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.717718920623757</v>
+        <v>2.717718920605818</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01611691534494887</v>
+        <v>0.01611691534508584</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.785867205413816e-07</v>
+        <v>-1.785867205243394e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379684642892059</v>
+        <v>0.01379684642891977</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02511126098068574</v>
+        <v>0.02511126098070543</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05502484416783467</v>
+        <v>0.05502484416799051</v>
       </c>
       <c r="II2" t="n">
-        <v>-5.700905025829428e-12</v>
+        <v>6.981716593745801e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384414.8882362216</v>
+        <v>384414.888230418</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>267.9512936527479</v>
+        <v>267.9512936679667</v>
       </c>
       <c r="IN2" t="n">
-        <v>109.4864221621969</v>
+        <v>109.4864221684154</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.5620966795598</v>
+        <v>244.5620966934501</v>
       </c>
       <c r="IP2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IQ2" t="n">
-        <v>135.1637870908474</v>
+        <v>135.1637871040298</v>
       </c>
       <c r="IR2" t="n">
-        <v>109.4864221621969</v>
+        <v>109.4864221684154</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.2588966795598</v>
+        <v>79.25889669345011</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.90135448091379</v>
+        <v>35.90135448413757</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.7774761338197</v>
+        <v>259.7774761296429</v>
       </c>
       <c r="IV2" t="n">
-        <v>86160.51930185</v>
+        <v>86160.51929508468</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.156228926495343</v>
+        <v>1.156228926423151</v>
       </c>
       <c r="IX2" t="n">
-        <v>311366.9191653098</v>
+        <v>311366.9191623299</v>
       </c>
       <c r="IY2" t="n">
-        <v>385885.483203499</v>
+        <v>385885.4831993207</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.594327647193</v>
+        <v>3788.594327653632</v>
       </c>
       <c r="JA2" t="n">
-        <v>-598305.9893275943</v>
+        <v>-598305.9893176211</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5428706243429</v>
+        <v>716.5428706242233</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.211773250997</v>
+        <v>1005.211773250812</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.40286340770529</v>
+        <v>1.402863407705267</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993250048389644</v>
+        <v>0.999325004838961</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.2167642372649</v>
+        <v>323.2167642346625</v>
       </c>
       <c r="JG2" t="n">
-        <v>120790.1683863099</v>
+        <v>120790.1683768229</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.278819488038215e-06</v>
+        <v>8.27881948868844e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>86102.58683979099</v>
+        <v>86102.58683302994</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.161405291876626e-05</v>
+        <v>1.161405291967823e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003862896477100878</v>
+        <v>0.003862896477162564</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.65394069726132e-05</v>
+        <v>1.653940697239862e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02332344292829781</v>
+        <v>0.02332344292797049</v>
       </c>
       <c r="JN2" t="n">
-        <v>86160.51930185</v>
+        <v>86160.51929508468</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.156228926495343</v>
+        <v>1.156228926423151</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.156228926495343</v>
+        <v>1.156228926423151</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311366.9191653098</v>
+        <v>311366.9191623299</v>
       </c>
       <c r="JR2" t="n">
-        <v>385885.483203499</v>
+        <v>385885.4831993207</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.594327647193</v>
+        <v>3788.594327653632</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5428706243429</v>
+        <v>716.5428706242233</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.211773250997</v>
+        <v>1005.211773250812</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.2167642372649</v>
+        <v>323.2167642346625</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993250048389644</v>
+        <v>0.999325004838961</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.65394069726132e-05</v>
+        <v>1.653940697239862e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02332344292829781</v>
+        <v>0.02332344292797049</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.593731346891</v>
+        <v>295.5937313466841</v>
       </c>
       <c r="KC2" t="n">
-        <v>135296.3107290177</v>
+        <v>135296.3107256608</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595286006641246</v>
+        <v>1.595286006602766</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3655795756</v>
+        <v>336974.3655794336</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.594327652392</v>
+        <v>3788.594327658833</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698100.3027817463</v>
+        <v>-698100.3027830669</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561941266205</v>
+        <v>717.856194126603</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777192427194</v>
+        <v>1006.777192427133</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477544478235</v>
+        <v>1.402477544478184</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995302652409292</v>
+        <v>0.9995302652409381</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027922116056</v>
+        <v>344.8027922114817</v>
       </c>
       <c r="KN2" t="n">
-        <v>189661.9030331955</v>
+        <v>189661.9030284844</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.272540157023391e-06</v>
+        <v>5.272540157154359e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135233.4686426339</v>
+        <v>135233.4686392796</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.394619172585052e-06</v>
+        <v>7.394619172768465e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395620349780695</v>
+        <v>0.003395620349782788</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925761100038e-05</v>
+        <v>1.832925761098987e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606729972445424</v>
+        <v>0.02606729972443774</v>
       </c>
       <c r="KU2" t="n">
-        <v>135296.3107290177</v>
+        <v>135296.3107256608</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595286006641246</v>
+        <v>1.595286006602766</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595286006641246</v>
+        <v>1.595286006602766</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3655795756</v>
+        <v>336974.3655794336</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.594327652392</v>
+        <v>3788.594327658833</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561941266205</v>
+        <v>717.856194126603</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777192427194</v>
+        <v>1006.777192427133</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027922116056</v>
+        <v>344.8027922114817</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995302652409292</v>
+        <v>0.9995302652409381</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925761100038e-05</v>
+        <v>1.832925761098987e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606729972445424</v>
+        <v>0.02606729972443774</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.8953286520964</v>
+        <v>268.8953286494046</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97192.0702866085</v>
+        <v>97192.07028103649</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259986353642352</v>
+        <v>1.259986353582729</v>
       </c>
       <c r="LL2" t="n">
-        <v>317882.7087222665</v>
+        <v>317882.7087203478</v>
       </c>
       <c r="LM2" t="n">
-        <v>395020.1078739691</v>
+        <v>395020.1078712784</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.594327647193</v>
+        <v>3788.594327653632</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623715.2089881909</v>
+        <v>-623715.2089824151</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8095260456458</v>
+        <v>716.8095260455539</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.541905458516</v>
+        <v>1005.541905458367</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402802095845032</v>
+        <v>1.402802095845004</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.999368149299464</v>
+        <v>0.9993681492994645</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8471955593861</v>
+        <v>328.847195557737</v>
       </c>
       <c r="LU2" t="n">
-        <v>136255.5265907247</v>
+        <v>136255.5265829105</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.339151849625398e-06</v>
+        <v>7.339151850046295e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97130.96879046649</v>
+        <v>97130.96878489797</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.029537759637945e-05</v>
+        <v>1.029537759696968e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.00373215933588243</v>
+        <v>0.003732159335919425</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.700397342640087e-05</v>
+        <v>1.700397342626432e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02403259065089094</v>
+        <v>0.02403259065068193</v>
       </c>
       <c r="MB2" t="n">
-        <v>97192.0702866085</v>
+        <v>97192.07028103649</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.259986353642352</v>
+        <v>1.259986353582729</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.259986353642352</v>
+        <v>1.259986353582729</v>
       </c>
       <c r="ME2" t="n">
-        <v>317882.7087222665</v>
+        <v>317882.7087203478</v>
       </c>
       <c r="MF2" t="n">
-        <v>395020.1078739691</v>
+        <v>395020.1078712784</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.594327647193</v>
+        <v>3788.594327653632</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8095260456458</v>
+        <v>716.8095260455539</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.541905458516</v>
+        <v>1005.541905458367</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8471955593861</v>
+        <v>328.847195557737</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.999368149299464</v>
+        <v>0.9993681492994645</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.700397342640087e-05</v>
+        <v>1.700397342626432e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02403259065089094</v>
+        <v>0.02403259065068193</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8290142198690288</v>
+        <v>0.8290142199227888</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4181830958236661</v>
+        <v>0.4181830958678178</v>
       </c>
       <c r="MR2" t="n">
-        <v>246240.0323812795</v>
+        <v>246240.0323931148</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.717718920623746</v>
+        <v>2.717718920608414</v>
       </c>
       <c r="MT2" t="n">
-        <v>381357.5339087489</v>
+        <v>381357.5339062524</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>134.6544847700741</v>
+        <v>134.6544847638971</v>
       </c>
       <c r="MW2" t="n">
-        <v>122.1969191698187</v>
+        <v>122.1969191661204</v>
       </c>
       <c r="MX2" t="n">
-        <v>-56.56627276123916</v>
+        <v>-56.56627275452425</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.83992753103408</v>
+        <v>-24.83992752910227</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.2945913318037</v>
+        <v>253.2945913241377</v>
       </c>
       <c r="NA2" t="n">
-        <v>122.1969191698187</v>
+        <v>122.1969191661204</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.8694727612392</v>
+        <v>-221.8694727545243</v>
       </c>
       <c r="NC2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8577784219491</v>
+        <v>236.8577784213932</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99999997683</v>
+        <v>59999.9999989221</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8831280873720044</v>
+        <v>0.8831280873585482</v>
       </c>
       <c r="NG2" t="n">
-        <v>295000.7183746382</v>
+        <v>295000.7183742427</v>
       </c>
       <c r="NH2" t="n">
-        <v>362941.032874796</v>
+        <v>362941.0328742415</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.929754837748</v>
+        <v>3799.929754840449</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537101.8870155346</v>
+        <v>-537101.8870146164</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.032557800926</v>
+        <v>716.032557800914</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487930872785</v>
+        <v>1004.487930872756</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852314366487</v>
+        <v>1.402852314366471</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718914417056</v>
+        <v>0.9992718914417109</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6113425341741</v>
+        <v>308.6113425338117</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96749844657</v>
+        <v>84109.96749696747</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919731800478e-05</v>
+        <v>1.188919731821385e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.39500828688</v>
+        <v>59956.39500723324</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878797352284e-05</v>
+        <v>1.667878797381594e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235352711838589</v>
+        <v>0.004235352711848384</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534216017418185e-05</v>
+        <v>1.534216017415221e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150521903514148</v>
+        <v>0.02150521903509655</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99999997683</v>
+        <v>59999.9999989221</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8831280873720044</v>
+        <v>0.8831280873585482</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8831280873720044</v>
+        <v>0.8831280873585482</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295000.7183746382</v>
+        <v>295000.7183742427</v>
       </c>
       <c r="OA2" t="n">
-        <v>362941.032874796</v>
+        <v>362941.0328742415</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.929754837748</v>
+        <v>3799.929754840449</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.032557800926</v>
+        <v>716.032557800914</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487930872785</v>
+        <v>1004.487930872756</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6113425341741</v>
+        <v>308.6113425338117</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718914417056</v>
+        <v>0.9992718914417109</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534216017418185e-05</v>
+        <v>1.534216017415221e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150521903514148</v>
+        <v>0.02150521903509655</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.9111911240925</v>
+        <v>245.9111911227058</v>
       </c>
       <c r="OL2" t="n">
-        <v>68394.68752292368</v>
+        <v>68394.68752093485</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9695995977581647</v>
+        <v>0.969599597735436</v>
       </c>
       <c r="ON2" t="n">
-        <v>301467.8433304011</v>
+        <v>301467.8433294122</v>
       </c>
       <c r="OO2" t="n">
-        <v>372006.9480093436</v>
+        <v>372006.948007957</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.929754846325</v>
+        <v>3799.929754849026</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562438.3041927969</v>
+        <v>-562438.3041895783</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2025895025258</v>
+        <v>716.2025895024949</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.717083342845</v>
+        <v>1004.71708334279</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.40283922184744</v>
+        <v>1.402839221847425</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992989235421957</v>
+        <v>0.9992989235421977</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.4611573930349</v>
+        <v>314.4611573921472</v>
       </c>
       <c r="OW2" t="n">
-        <v>95879.65081988096</v>
+        <v>95879.65081709212</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.042974177991736e-05</v>
+        <v>1.042974178022073e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68346.85638003069</v>
+        <v>68346.85637804341</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.4631250842609e-05</v>
+        <v>1.463125084303442e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004079731787033001</v>
+        <v>0.004079731787055836</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582000283799163e-05</v>
+        <v>1.582000283791886e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.0222290514547363</v>
+        <v>0.02222905145462581</v>
       </c>
       <c r="PD2" t="n">
-        <v>68394.68752292368</v>
+        <v>68394.68752093485</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9695995977581647</v>
+        <v>0.969599597735436</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9695995977581647</v>
+        <v>0.969599597735436</v>
       </c>
       <c r="PG2" t="n">
-        <v>301467.8433304011</v>
+        <v>301467.8433294122</v>
       </c>
       <c r="PH2" t="n">
-        <v>372006.9480093436</v>
+        <v>372006.948007957</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.929754846325</v>
+        <v>3799.929754849026</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2025895025258</v>
+        <v>716.2025895024949</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.717083342845</v>
+        <v>1004.71708334279</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.4611573930349</v>
+        <v>314.4611573921472</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992989235421957</v>
+        <v>0.9992989235421977</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582000283799163e-05</v>
+        <v>1.582000283791886e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.0222290514547363</v>
+        <v>0.02222905145462581</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.8847462707088</v>
+        <v>268.884746268415</v>
       </c>
       <c r="PS2" t="n">
-        <v>93426.51010703281</v>
+        <v>93426.51010337175</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.211188388332575</v>
+        <v>1.211188388295452</v>
       </c>
       <c r="PU2" t="n">
-        <v>317883.8745619125</v>
+        <v>317883.8745602748</v>
       </c>
       <c r="PV2" t="n">
-        <v>395020.1078737688</v>
+        <v>395020.1078714728</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.929754837748</v>
+        <v>3799.92975484045</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626723.040102296</v>
+        <v>-626723.0400966018</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.797146809133</v>
+        <v>716.7971468090577</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.464364791982</v>
+        <v>1005.464364791876</v>
       </c>
       <c r="QA2" t="n">
         <v>1.402718145946686</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993923761493119</v>
+        <v>0.9993923761493063</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.8388167165397</v>
+        <v>328.8388167151351</v>
       </c>
       <c r="QD2" t="n">
-        <v>130971.8168628133</v>
+        <v>130971.8168576802</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.63523041791084e-06</v>
+        <v>7.635230418210081e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93370.01680720485</v>
+        <v>93370.01680354548</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.071007625568763e-05</v>
+        <v>1.071007625610738e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003731795025066939</v>
+        <v>0.003731795025098597</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.700286758277995e-05</v>
+        <v>1.700286758266374e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.0240304423676008</v>
+        <v>0.02403044236742305</v>
       </c>
       <c r="QK2" t="n">
-        <v>93426.51010703281</v>
+        <v>93426.51010337175</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.211188388332575</v>
+        <v>1.211188388295452</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.211188388332575</v>
+        <v>1.211188388295452</v>
       </c>
       <c r="QN2" t="n">
-        <v>317883.8745619125</v>
+        <v>317883.8745602748</v>
       </c>
       <c r="QO2" t="n">
-        <v>395020.1078737688</v>
+        <v>395020.1078714728</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.929754837748</v>
+        <v>3799.92975484045</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.797146809133</v>
+        <v>716.7971468090577</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.464364791982</v>
+        <v>1005.464364791876</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.8388167165397</v>
+        <v>328.8388167151351</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993923761493119</v>
+        <v>0.9993923761493063</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.700286758277995e-05</v>
+        <v>1.700286758266374e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.0240304423676008</v>
+        <v>0.02403044236742305</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4363238358783366</v>
+        <v>0.4363238358588334</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.820755936097051</v>
+        <v>0.8207559360731745</v>
       </c>
       <c r="RA2" t="n">
-        <v>379959.6794385375</v>
+        <v>379959.6794219826</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.717718920629959</v>
+        <v>2.717718920506297</v>
       </c>
       <c r="RC2" t="n">
-        <v>381357.5339087489</v>
+        <v>381357.5339062524</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02417559754263941</v>
+        <v>0.02417559754563932</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.002020493328102941</v>
+        <v>0.002020493329983208</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01190512760901099</v>
+        <v>0.01190512760886559</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03192297883431065</v>
+        <v>0.03192297883558291</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04262771182531732</v>
+        <v>0.0426277118274274</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1126519091393813</v>
+        <v>0.1126519091474984</v>
       </c>
       <c r="RJ2" t="n">
-        <v>4.457989533079854e-12</v>
+        <v>-4.471453762810995e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360271.241090443</v>
+        <v>360271.2410907705</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.1596073463591</v>
+        <v>80.15960734138737</v>
       </c>
       <c r="D3" t="n">
-        <v>80.1596073463591</v>
+        <v>80.15960734138737</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.1596073463591</v>
+        <v>80.15960734138737</v>
       </c>
       <c r="H3" t="n">
-        <v>80.1596073463591</v>
+        <v>80.15960734138737</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.396619475409</v>
+        <v>292.3966194758063</v>
       </c>
       <c r="L3" t="n">
-        <v>132842.5878736928</v>
+        <v>132842.5878743236</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583531482077245</v>
+        <v>1.583531482082608</v>
       </c>
       <c r="N3" t="n">
-        <v>334681.5665052694</v>
+        <v>334681.5665055536</v>
       </c>
       <c r="O3" t="n">
-        <v>418571.6497636286</v>
+        <v>418571.6497640268</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687540.5944640648</v>
+        <v>-687540.5944651694</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7149084339483</v>
+        <v>717.7149084339663</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.649982352587</v>
+        <v>1006.649982352607</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576385864819</v>
+        <v>1.402576385864813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.999498273123385</v>
+        <v>0.9994982731233879</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9341396415956</v>
+        <v>342.9341396418288</v>
       </c>
       <c r="W3" t="n">
-        <v>186229.3579252565</v>
+        <v>186229.3579261404</v>
       </c>
       <c r="X3" t="n">
-        <v>5.369722642771244e-06</v>
+        <v>5.369722642745757e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132776.6243621938</v>
+        <v>132776.6243628246</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.531446177394576e-06</v>
+        <v>7.531446177358794e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432942251623273</v>
+        <v>0.003432942251618616</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817357072403314e-05</v>
+        <v>1.817357072405259e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582763452449706</v>
+        <v>0.02582763452452701</v>
       </c>
       <c r="AD3" t="n">
-        <v>132842.5878736928</v>
+        <v>132842.5878743236</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583531482077245</v>
+        <v>1.583531482082608</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583531482077245</v>
+        <v>1.583531482082608</v>
       </c>
       <c r="AG3" t="n">
-        <v>334681.5665052694</v>
+        <v>334681.5665055536</v>
       </c>
       <c r="AH3" t="n">
-        <v>418571.6497636286</v>
+        <v>418571.6497640268</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7149084339483</v>
+        <v>717.7149084339663</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.649982352587</v>
+        <v>1006.649982352607</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9341396415956</v>
+        <v>342.9341396418288</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.999498273123385</v>
+        <v>0.9994982731233879</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817357072403314e-05</v>
+        <v>1.817357072405259e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582763452449706</v>
+        <v>0.02582763452452701</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.233746361415445</v>
+        <v>0.2337463614007885</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.233746361415445</v>
+        <v>0.2337463614007885</v>
       </c>
       <c r="DH3" t="n">
-        <v>182717.3371561052</v>
+        <v>182717.3371451958</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.725101776019651</v>
+        <v>2.725101775859862</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>270.6420302791004</v>
+        <v>270.6420302297967</v>
       </c>
       <c r="DV3" t="n">
-        <v>110.5858724472995</v>
+        <v>110.5858724271537</v>
       </c>
       <c r="DW3" t="n">
-        <v>247.0179616316657</v>
+        <v>247.0179615866658</v>
       </c>
       <c r="DX3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DY3" t="n">
-        <v>270.6420302791004</v>
+        <v>270.6420302297967</v>
       </c>
       <c r="DZ3" t="n">
-        <v>110.5858724472995</v>
+        <v>110.5858724271537</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.0179616316657</v>
+        <v>247.0179615866658</v>
       </c>
       <c r="EB3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.0540156384735</v>
+        <v>259.0540156517962</v>
       </c>
       <c r="ED3" t="n">
-        <v>85297.17933046483</v>
+        <v>85297.17934634905</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.147843381914099</v>
+        <v>1.14784338206876</v>
       </c>
       <c r="EF3" t="n">
-        <v>310850.0599578187</v>
+        <v>310850.0599673367</v>
       </c>
       <c r="EG3" t="n">
-        <v>385160.8768117927</v>
+        <v>385160.8768251364</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.689924014416</v>
+        <v>3788.689924012506</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596314.4620131647</v>
+        <v>-596314.4620498022</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5233972854999</v>
+        <v>716.523397285856</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.18674969076</v>
+        <v>1005.18674969122</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402866610495682</v>
+        <v>1.402866610495626</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993220643801575</v>
+        <v>0.9993220643802109</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.7657950551784</v>
+        <v>322.765795063489</v>
       </c>
       <c r="EO3" t="n">
-        <v>119579.7505882033</v>
+        <v>119579.7506104735</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.362619884061298e-06</v>
+        <v>8.362619882503872e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85239.57281009889</v>
+        <v>85239.57282597703</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.173164021161687e-05</v>
+        <v>1.173164020943154e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003873658636424531</v>
+        <v>0.003873658636225796</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.650226777960048e-05</v>
+        <v>1.650226778028479e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02326683852554181</v>
+        <v>0.02326683852658466</v>
       </c>
       <c r="EV3" t="n">
-        <v>85297.17933046483</v>
+        <v>85297.17934634905</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.147843381914099</v>
+        <v>1.14784338206876</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.147843381914099</v>
+        <v>1.14784338206876</v>
       </c>
       <c r="EY3" t="n">
-        <v>310850.0599578187</v>
+        <v>310850.0599673367</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385160.8768117927</v>
+        <v>385160.8768251364</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.689924014416</v>
+        <v>3788.689924012506</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5233972854999</v>
+        <v>716.523397285856</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.18674969076</v>
+        <v>1005.18674969122</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.7657950551784</v>
+        <v>322.765795063489</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993220643801575</v>
+        <v>0.9993220643802109</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.650226777960048e-05</v>
+        <v>1.650226778028479e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02326683852554181</v>
+        <v>0.02326683852658466</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936268383255</v>
+        <v>295.5936268383274</v>
       </c>
       <c r="FK3" t="n">
-        <v>135251.239148908</v>
+        <v>135251.2391498082</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594754884295685</v>
+        <v>1.594754884306294</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3825470917</v>
+        <v>336974.3825470911</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885894</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.689924019619</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698128.1645181892</v>
+        <v>-698128.1645176319</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8560767284879</v>
+        <v>717.8560767284904</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776452400037</v>
+        <v>1006.776452400052</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402476742954181</v>
+        <v>1.402476742954197</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995304186575564</v>
+        <v>0.9995304186575534</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8026850520722</v>
+        <v>344.8026850520743</v>
       </c>
       <c r="FV3" t="n">
-        <v>189598.6405980895</v>
+        <v>189598.640599353</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.274299419265332e-06</v>
+        <v>5.274299419230183e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135188.438275788</v>
+        <v>135188.4382766874</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.397082270896373e-06</v>
+        <v>7.397082270847162e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395617376240329</v>
+        <v>0.00339561737624039</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832924604019514e-05</v>
+        <v>1.832924604019536e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0260672774801977</v>
+        <v>0.02606727748019813</v>
       </c>
       <c r="GC3" t="n">
-        <v>135251.239148908</v>
+        <v>135251.2391498082</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594754884295685</v>
+        <v>1.594754884306294</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594754884295685</v>
+        <v>1.594754884306294</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3825470917</v>
+        <v>336974.3825470911</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885894</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.689924019619</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8560767284879</v>
+        <v>717.8560767284904</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776452400037</v>
+        <v>1006.776452400052</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8026850520722</v>
+        <v>344.8026850520743</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995304186575564</v>
+        <v>0.9995304186575534</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832924604019514e-05</v>
+        <v>1.832924604019536e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.0260672774801977</v>
+        <v>0.02606727748019813</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936268383255</v>
+        <v>295.5936268383274</v>
       </c>
       <c r="GR3" t="n">
-        <v>135251.239148908</v>
+        <v>135251.2391498082</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594754884295685</v>
+        <v>1.594754884306294</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3825470917</v>
+        <v>336974.3825470911</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885894</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.689924019619</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698128.1645181892</v>
+        <v>-698128.1645176319</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8560767284879</v>
+        <v>717.8560767284904</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776452400037</v>
+        <v>1006.776452400052</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402476742954181</v>
+        <v>1.402476742954197</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995304186575564</v>
+        <v>0.9995304186575534</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8026850520722</v>
+        <v>344.8026850520743</v>
       </c>
       <c r="HC3" t="n">
-        <v>189598.6405980895</v>
+        <v>189598.640599353</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.274299419265332e-06</v>
+        <v>5.274299419230183e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135188.438275788</v>
+        <v>135188.4382766874</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.397082270896373e-06</v>
+        <v>7.397082270847162e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395617376240329</v>
+        <v>0.00339561737624039</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832924604019514e-05</v>
+        <v>1.832924604019536e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260672774801977</v>
+        <v>0.02606727748019813</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135251.239148908</v>
+        <v>135251.2391498082</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594754884295685</v>
+        <v>1.594754884306294</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594754884295685</v>
+        <v>1.594754884306294</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3825470917</v>
+        <v>336974.3825470911</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885894</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.689924019619</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8560767284879</v>
+        <v>717.8560767284904</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776452400037</v>
+        <v>1006.776452400052</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8026850520722</v>
+        <v>344.8026850520743</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995304186575564</v>
+        <v>0.9995304186575534</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832924604019514e-05</v>
+        <v>1.832924604019536e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0260672774801977</v>
+        <v>0.02606727748019813</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8385090193117669</v>
+        <v>0.8385090191374232</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8385090193117669</v>
+        <v>0.8385090191374232</v>
       </c>
       <c r="HZ3" t="n">
-        <v>492461.1635858273</v>
+        <v>492461.1635420474</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.725101775974983</v>
+        <v>2.725101775845724</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01611910595790887</v>
+        <v>0.01611910595788895</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.796499141283617e-07</v>
+        <v>-1.796499141834202e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379690142699882</v>
+        <v>0.01379690142699763</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02510994707369789</v>
+        <v>0.02510994707372628</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05502577480869145</v>
+        <v>0.05502577480869868</v>
       </c>
       <c r="II3" t="n">
-        <v>-1.362694679318821e-12</v>
+        <v>-2.881285487976726e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383669.753459353</v>
+        <v>383669.753473112</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>270.6420302791004</v>
+        <v>270.6420302297967</v>
       </c>
       <c r="IN3" t="n">
-        <v>110.5858724472995</v>
+        <v>110.5858724271537</v>
       </c>
       <c r="IO3" t="n">
-        <v>247.0179616316657</v>
+        <v>247.0179615866658</v>
       </c>
       <c r="IP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.5010452813008</v>
+        <v>137.5010452383557</v>
       </c>
       <c r="IR3" t="n">
-        <v>110.5858724472995</v>
+        <v>110.5858724271537</v>
       </c>
       <c r="IS3" t="n">
-        <v>81.71476163166574</v>
+        <v>81.71476158666576</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.4616537555641</v>
+        <v>36.46165374547214</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.0540156385738</v>
+        <v>259.0540156517961</v>
       </c>
       <c r="IV3" t="n">
-        <v>85297.17933057983</v>
+        <v>85297.17934634881</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.147843381915202</v>
+        <v>1.147843382068757</v>
       </c>
       <c r="IX3" t="n">
-        <v>310850.0599578904</v>
+        <v>310850.0599673367</v>
       </c>
       <c r="IY3" t="n">
-        <v>385160.8768118932</v>
+        <v>385160.8768251363</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.689924014418</v>
+        <v>3788.689924012507</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596314.4620134445</v>
+        <v>-596314.4620498018</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5233972855024</v>
+        <v>716.5233972858563</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.186749690763</v>
+        <v>1005.18674969122</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402866610495682</v>
+        <v>1.402866610495625</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993220643801579</v>
+        <v>0.9993220643802109</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.765795055241</v>
+        <v>322.7657950634889</v>
       </c>
       <c r="JG3" t="n">
-        <v>119579.7505883646</v>
+        <v>119579.7506104731</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.362619884050019e-06</v>
+        <v>8.362619882503896e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85239.57281021388</v>
+        <v>85239.57282597678</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.173164021160104e-05</v>
+        <v>1.173164020943157e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003873658636423032</v>
+        <v>0.003873658636225798</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.650226777960563e-05</v>
+        <v>1.650226778028478e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02326683852554965</v>
+        <v>0.02326683852658465</v>
       </c>
       <c r="JN3" t="n">
-        <v>85297.17933057983</v>
+        <v>85297.17934634881</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.147843381915202</v>
+        <v>1.147843382068757</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.147843381915202</v>
+        <v>1.147843382068757</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310850.0599578904</v>
+        <v>310850.0599673367</v>
       </c>
       <c r="JR3" t="n">
-        <v>385160.8768118932</v>
+        <v>385160.8768251363</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.689924014418</v>
+        <v>3788.689924012507</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5233972855024</v>
+        <v>716.5233972858563</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.186749690763</v>
+        <v>1005.18674969122</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.765795055241</v>
+        <v>322.7657950634889</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993220643801579</v>
+        <v>0.9993220643802109</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.650226777960563e-05</v>
+        <v>1.650226778028478e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02326683852554965</v>
+        <v>0.02326683852658465</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936268384256</v>
+        <v>295.5936268384274</v>
       </c>
       <c r="KC3" t="n">
-        <v>135251.239149068</v>
+        <v>135251.2391499679</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.59475488429703</v>
+        <v>1.594754884307637</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3825471633</v>
+        <v>336974.3825471626</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886896</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.689924019618</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698128.1645184678</v>
+        <v>-698128.1645179103</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8560767284929</v>
+        <v>717.8560767284951</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776452400042</v>
+        <v>1006.776452400057</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.40247674295418</v>
+        <v>1.402476742954196</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995304186575572</v>
+        <v>0.9995304186575541</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8026850521306</v>
+        <v>344.8026850521326</v>
       </c>
       <c r="KN3" t="n">
-        <v>189598.6405983137</v>
+        <v>189598.6405995769</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.274299419259097e-06</v>
+        <v>5.274299419223957e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135188.438275948</v>
+        <v>135188.4382768471</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.397082270887619e-06</v>
+        <v>7.39708227083842e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395617376239181</v>
+        <v>0.003395617376239244</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832924604020002e-05</v>
+        <v>1.832924604020024e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606727748020522</v>
+        <v>0.02606727748020564</v>
       </c>
       <c r="KU3" t="n">
-        <v>135251.239149068</v>
+        <v>135251.2391499679</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.59475488429703</v>
+        <v>1.594754884307637</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.59475488429703</v>
+        <v>1.594754884307637</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3825471633</v>
+        <v>336974.3825471626</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886896</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.689924019618</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8560767284929</v>
+        <v>717.8560767284951</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776452400042</v>
+        <v>1006.776452400057</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8026850521306</v>
+        <v>344.8026850521326</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995304186575572</v>
+        <v>0.9995304186575541</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832924604020002e-05</v>
+        <v>1.832924604020024e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606727748020522</v>
+        <v>0.02606727748020564</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.4900730187478</v>
+        <v>268.4900730259734</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96649.30963578423</v>
+        <v>96649.30964551074</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.254843564283842</v>
+        <v>1.254843564376315</v>
       </c>
       <c r="LL3" t="n">
-        <v>317593.1427724739</v>
+        <v>317593.1427776366</v>
       </c>
       <c r="LM3" t="n">
-        <v>394614.1455386183</v>
+        <v>394614.1455458563</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.689924021056</v>
+        <v>3788.689924019146</v>
       </c>
       <c r="LO3" t="n">
-        <v>-622611.4888071892</v>
+        <v>-622611.4888268138</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.7966594971874</v>
+        <v>716.7966594974164</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.525647585198</v>
+        <v>1005.525647585488</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402804594946837</v>
+        <v>1.402804594946794</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.999366311849425</v>
+        <v>0.9993663118494572</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.5989810037066</v>
+        <v>328.5989810081339</v>
       </c>
       <c r="LU3" t="n">
-        <v>135494.6078426868</v>
+        <v>135494.6078563229</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.380367498912053e-06</v>
+        <v>7.380367498169297e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96588.36899363145</v>
+        <v>96588.36900335501</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.035321343987013e-05</v>
+        <v>1.035321343882787e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003737777586222788</v>
+        <v>0.003737777586122475</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.698345421585023e-05</v>
+        <v>1.69834542162162e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02400121973019061</v>
+        <v>0.02400121973075009</v>
       </c>
       <c r="MB3" t="n">
-        <v>96649.30963578423</v>
+        <v>96649.30964551074</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.254843564283842</v>
+        <v>1.254843564376315</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.254843564283842</v>
+        <v>1.254843564376315</v>
       </c>
       <c r="ME3" t="n">
-        <v>317593.1427724739</v>
+        <v>317593.1427776366</v>
       </c>
       <c r="MF3" t="n">
-        <v>394614.1455386183</v>
+        <v>394614.1455458563</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.689924021056</v>
+        <v>3788.689924019146</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.7966594971874</v>
+        <v>716.7966594974164</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.525647585198</v>
+        <v>1005.525647585488</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.5989810037066</v>
+        <v>328.5989810081339</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.999366311849425</v>
+        <v>0.9993663118494572</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.698345421585023e-05</v>
+        <v>1.69834542162162e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02400121973019061</v>
+        <v>0.02400121973075009</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8385090193116043</v>
+        <v>0.8385090191374235</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4260087264134284</v>
+        <v>0.4260087262694887</v>
       </c>
       <c r="MR3" t="n">
-        <v>249240.9601194159</v>
+        <v>249240.9600646568</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.725101775977602</v>
+        <v>2.725101775845718</v>
       </c>
       <c r="MT3" t="n">
-        <v>380951.5715733981</v>
+        <v>380951.5715808365</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>141.8033039899421</v>
+        <v>141.8033039856599</v>
       </c>
       <c r="MW3" t="n">
-        <v>126.4203163795733</v>
+        <v>126.4203163770749</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.23457502741431</v>
+        <v>-64.23457502287806</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.93527214006095</v>
+        <v>-26.93527213888419</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.0490155639728</v>
+        <v>262.0490155587941</v>
       </c>
       <c r="NA3" t="n">
-        <v>126.4203163795733</v>
+        <v>126.4203163770749</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.5377750274143</v>
+        <v>-229.5377750228781</v>
       </c>
       <c r="NC3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1988069662469</v>
+        <v>234.1988069751237</v>
       </c>
       <c r="NE3" t="n">
-        <v>57499.99999674457</v>
+        <v>57500.00000226907</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559438385426638</v>
+        <v>0.855943838592417</v>
       </c>
       <c r="NG3" t="n">
-        <v>293101.9976192221</v>
+        <v>293101.9976255683</v>
       </c>
       <c r="NH3" t="n">
-        <v>360279.3022594944</v>
+        <v>360279.3022683901</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.836303702537</v>
+        <v>3800.836303712962</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529872.0255416394</v>
+        <v>-529872.0255689245</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9877717801191</v>
+        <v>715.9877717802514</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421533913547</v>
+        <v>1004.421533913686</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847329942957</v>
+        <v>1.402847329942892</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992672778161803</v>
+        <v>0.999267277816229</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.8722353290922</v>
+        <v>306.8722353349158</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.71815000504</v>
+        <v>80604.71815774964</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622165738492e-05</v>
+        <v>1.240622165619292e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.94031149677</v>
+        <v>57457.94031702005</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403492674292e-05</v>
+        <v>1.740403492506992e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283298254448593</v>
+        <v>0.004283298254286086</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.520047292744588e-05</v>
+        <v>1.520047292791947e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02129098961084056</v>
+        <v>0.02129098961155584</v>
       </c>
       <c r="NW3" t="n">
-        <v>57499.99999674457</v>
+        <v>57500.00000226907</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559438385426638</v>
+        <v>0.855943838592417</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559438385426638</v>
+        <v>0.855943838592417</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293101.9976192221</v>
+        <v>293101.9976255683</v>
       </c>
       <c r="OA3" t="n">
-        <v>360279.3022594944</v>
+        <v>360279.3022683901</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.836303702537</v>
+        <v>3800.836303712962</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9877717801191</v>
+        <v>715.9877717802514</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421533913547</v>
+        <v>1004.421533913686</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.8722353290922</v>
+        <v>306.8722353349158</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992672778161803</v>
+        <v>0.999267277816229</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.520047292744588e-05</v>
+        <v>1.520047292791947e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02129098961084056</v>
+        <v>0.02129098961155584</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.2393361201753</v>
+        <v>244.2393361281514</v>
       </c>
       <c r="OL3" t="n">
-        <v>66574.95602848132</v>
+        <v>66574.95603591095</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9502656064386266</v>
+        <v>0.9502656065136158</v>
       </c>
       <c r="ON3" t="n">
-        <v>300274.0772721629</v>
+        <v>300274.0772778612</v>
       </c>
       <c r="OO3" t="n">
-        <v>370333.3907708263</v>
+        <v>370333.3907788145</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.836303711215</v>
+        <v>3800.836303711908</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-557980.3447490615</v>
+        <v>-557980.3447715589</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1678171833197</v>
+        <v>716.1678171834778</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.666760708615</v>
+        <v>1004.666760708822</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837067797822</v>
+        <v>1.402837067797801</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.999295741182702</v>
+        <v>0.999295741182729</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.3891326976373</v>
+        <v>313.3891327027606</v>
       </c>
       <c r="OW3" t="n">
-        <v>93328.1970066834</v>
+        <v>93328.19701709977</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.071487537607084e-05</v>
+        <v>1.071487537487495e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66528.18003532678</v>
+        <v>66528.180042753</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.50312243543863e-05</v>
+        <v>1.503122435270843e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004107560720101387</v>
+        <v>0.004107560719967481</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573224277662726e-05</v>
+        <v>1.57322427770463e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02209591450322684</v>
+        <v>0.0220959145038622</v>
       </c>
       <c r="PD3" t="n">
-        <v>66574.95602848132</v>
+        <v>66574.95603591095</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9502656064386266</v>
+        <v>0.9502656065136158</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9502656064386266</v>
+        <v>0.9502656065136158</v>
       </c>
       <c r="PG3" t="n">
-        <v>300274.0772721629</v>
+        <v>300274.0772778612</v>
       </c>
       <c r="PH3" t="n">
-        <v>370333.3907708263</v>
+        <v>370333.3907788145</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.836303711215</v>
+        <v>3800.836303711908</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1678171833197</v>
+        <v>716.1678171834778</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.666760708615</v>
+        <v>1004.666760708822</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.3891326976373</v>
+        <v>313.3891327027606</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.999295741182702</v>
+        <v>0.999295741182729</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573224277662726e-05</v>
+        <v>1.57322427770463e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02209591450322684</v>
+        <v>0.0220959145038622</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.4787790971944</v>
+        <v>268.4787791047173</v>
       </c>
       <c r="PS3" t="n">
-        <v>92642.51381446602</v>
+        <v>92642.51382330943</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.202840746745194</v>
+        <v>1.202840746826265</v>
       </c>
       <c r="PU3" t="n">
-        <v>317594.3787362452</v>
+        <v>317594.3787416229</v>
       </c>
       <c r="PV3" t="n">
-        <v>394614.1455384177</v>
+        <v>394614.1455459565</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.836303702537</v>
+        <v>3800.836303703232</v>
       </c>
       <c r="PX3" t="n">
-        <v>-625829.7448279323</v>
+        <v>-625829.7448491737</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7834355938495</v>
+        <v>716.7834355940846</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.442838085897</v>
+        <v>1005.442838086178</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714945906772</v>
+        <v>1.402714945906705</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993923139308898</v>
+        <v>0.9993923139309275</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.5900771547496</v>
+        <v>328.5900771593579</v>
       </c>
       <c r="QD3" t="n">
-        <v>129872.4460788352</v>
+        <v>129872.4460912312</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.699862674435037e-06</v>
+        <v>7.699862673700104e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92586.4848434194</v>
+        <v>92586.484852261</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.080071245485971e-05</v>
+        <v>1.080071245382829e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003737387596176307</v>
+        <v>0.003737387596071743</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698227502125516e-05</v>
+        <v>1.698227502163601e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02399892856552698</v>
+        <v>0.02399892856610909</v>
       </c>
       <c r="QK3" t="n">
-        <v>92642.51381446602</v>
+        <v>92642.51382330943</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.202840746745194</v>
+        <v>1.202840746826265</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.202840746745194</v>
+        <v>1.202840746826265</v>
       </c>
       <c r="QN3" t="n">
-        <v>317594.3787362452</v>
+        <v>317594.3787416229</v>
       </c>
       <c r="QO3" t="n">
-        <v>394614.1455384177</v>
+        <v>394614.1455459565</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.836303702537</v>
+        <v>3800.836303703232</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7834355938495</v>
+        <v>716.7834355940846</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.442838085897</v>
+        <v>1005.442838086178</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.5900771547496</v>
+        <v>328.5900771593579</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993923139308898</v>
+        <v>0.9993923139309275</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698227502125516e-05</v>
+        <v>1.698227502163601e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02399892856552698</v>
+        <v>0.02399892856610909</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4620923226823407</v>
+        <v>0.4620923226596172</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8539352388232497</v>
+        <v>0.8539352387901684</v>
       </c>
       <c r="RA3" t="n">
-        <v>384543.1802871043</v>
+        <v>384543.1802898761</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.725101775860609</v>
+        <v>2.725101775965155</v>
       </c>
       <c r="RC3" t="n">
-        <v>380951.5715733981</v>
+        <v>380951.5715808365</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02457066442394227</v>
+        <v>0.02457066441334601</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.00242264068618012</v>
+        <v>0.002422640679247642</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01187960968153098</v>
+        <v>0.01187960968199623</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03214502246134775</v>
+        <v>0.03214502245729268</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04299769189719328</v>
+        <v>0.04299769189047006</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1140156291501944</v>
+        <v>0.1140156291223526</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-4.349910709411375e-11</v>
+        <v>-1.296934781791492e-12</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357451.7656149304</v>
+        <v>357451.7656208646</v>
       </c>
     </row>
   </sheetData>
@@ -8686,34 +8686,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01611691534494887</v>
+        <v>0.01611691534508584</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.785867205413816e-07</v>
+        <v>-1.785867205243394e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379684642892059</v>
+        <v>0.01379684642891977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02511126098068574</v>
+        <v>0.02511126098070543</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05502484416783467</v>
+        <v>0.05502484416799051</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.700905025829428e-12</v>
+        <v>6.981716593745801e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172394116</v>
+        <v>81.75758171472721</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172394116</v>
+        <v>81.75758171472721</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172394116</v>
+        <v>81.75758171472721</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172394116</v>
+        <v>81.75758171472721</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,97 +8734,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.267618072489</v>
+        <v>292.2676180734405</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394374898</v>
+        <v>132637.8394389986</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096100405</v>
+        <v>1.581790096113238</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834750838</v>
+        <v>334589.2834757645</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800038158</v>
+        <v>418442.28000477</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625804184</v>
+        <v>-687181.9625830639</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.709071370401</v>
+        <v>717.7090713704443</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103392</v>
+        <v>1006.643209103442</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574213</v>
+        <v>1.402578355574198</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756393</v>
+        <v>0.999497372375646</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121221843</v>
+        <v>342.8584121227429</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.416586704</v>
+        <v>185942.4165888185</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054398328e-06</v>
+        <v>5.378009054337172e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565723764</v>
+        <v>132571.8565738853</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095781234e-06</v>
+        <v>7.543079095695377e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038600087</v>
+        <v>0.003434455038588924</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856046632e-05</v>
+        <v>1.816725856051289e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190127294</v>
+        <v>0.02581791190134466</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394374898</v>
+        <v>132637.8394389986</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096100405</v>
+        <v>1.581790096113238</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096100405</v>
+        <v>1.581790096113238</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834750838</v>
+        <v>334589.2834757645</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800038158</v>
+        <v>418442.28000477</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.709071370401</v>
+        <v>717.7090713704443</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103392</v>
+        <v>1006.643209103442</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121221843</v>
+        <v>342.8584121227429</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756393</v>
+        <v>0.999497372375646</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856046632e-05</v>
+        <v>1.816725856051289e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190127294</v>
+        <v>0.02581791190134466</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8835,97 +8835,97 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BD2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368984915</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BG2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087309081e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346996765e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BW2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BY2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8936,97 +8936,97 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CK2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368984915</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="CN2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087309081e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346996765e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="DD2" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="DF2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305817809</v>
+        <v>0.2384587305545185</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305817809</v>
+        <v>0.2384587305545185</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323186273</v>
+        <v>186219.5322986742</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369934697989</v>
+        <v>2.776369934407621</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780741562672</v>
+        <v>309.3780778870332</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136402293244</v>
+        <v>126.4136417537366</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727754805901</v>
+        <v>282.3727788857012</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780741562672</v>
+        <v>309.3780778870332</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136402293244</v>
+        <v>126.4136417537366</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727754805901</v>
+        <v>282.3727788857012</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365057648008</v>
+        <v>247.8365046122311</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23872869357</v>
+        <v>72726.23751178919</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014679535664</v>
+        <v>1.023014667179254</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.912359392</v>
+        <v>302836.9115361457</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0347041693</v>
+        <v>373927.0335500522</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061236323</v>
+        <v>3790.093061379202</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3861160582</v>
+        <v>-565396.3829372393</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430737477</v>
+        <v>716.2529430488667</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581227114</v>
+        <v>1004.831581193624</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457085666</v>
+        <v>1.402900457087642</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812859031202</v>
+        <v>0.9992812858994021</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911160764722</v>
+        <v>315.6911153414461</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5440027631</v>
+        <v>101954.5422965494</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292605113297e-06</v>
+        <v>9.808292769255503e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11132972315</v>
+        <v>72674.11011341633</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.37600581789434e-05</v>
+        <v>1.376005840923796e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559431617331</v>
+        <v>0.00404855945040005</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113121011742e-05</v>
+        <v>1.592113114988893e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288380089315</v>
+        <v>0.02238288370945231</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23872869357</v>
+        <v>72726.23751178919</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014679535664</v>
+        <v>1.023014667179254</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014679535664</v>
+        <v>1.023014667179254</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.912359392</v>
+        <v>302836.9115361457</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0347041693</v>
+        <v>373927.0335500522</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061236323</v>
+        <v>3790.093061379202</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430737477</v>
+        <v>716.2529430488667</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581227114</v>
+        <v>1004.831581193624</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911160764722</v>
+        <v>315.6911153414461</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812859031202</v>
+        <v>0.9992812858994021</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113121011742e-05</v>
+        <v>1.592113114988893e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288380089315</v>
+        <v>0.02238288370945231</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968651375</v>
+        <v>295.5920968647819</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4165984578</v>
+        <v>134591.4165311153</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979527726551</v>
+        <v>1.586979526934059</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309324974</v>
+        <v>336974.6309323795</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061245972</v>
+        <v>3790.09306138885</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1241990146</v>
+        <v>-698537.1242401013</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580609285</v>
+        <v>717.8543580607445</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618721385</v>
+        <v>1006.765618720274</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008976006</v>
+        <v>1.402465008974818</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.99953266482327</v>
+        <v>0.9995326648234968</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163637119</v>
+        <v>344.8011163634357</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5203213126</v>
+        <v>188672.5202267927</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188910907549e-06</v>
+        <v>5.300188913562802e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2175660551</v>
+        <v>134529.2174987736</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329488510485e-06</v>
+        <v>7.433329492228084e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843602355</v>
+        <v>0.003395573843600229</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665248618e-05</v>
+        <v>1.832907665245922e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0260669518442188</v>
+        <v>0.02606695184417069</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4165984578</v>
+        <v>134591.4165311153</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979527726551</v>
+        <v>1.586979526934059</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979527726551</v>
+        <v>1.586979526934059</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309324974</v>
+        <v>336974.6309323795</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061245972</v>
+        <v>3790.09306138885</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580609285</v>
+        <v>717.8543580607445</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618721385</v>
+        <v>1006.765618720274</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163637119</v>
+        <v>344.8011163634357</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.99953266482327</v>
+        <v>0.9995326648234968</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665248618e-05</v>
+        <v>1.832907665245922e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.0260669518442188</v>
+        <v>0.02606695184417069</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968651375</v>
+        <v>295.5920968647819</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4165984578</v>
+        <v>134591.4165311153</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979527726551</v>
+        <v>1.586979526934059</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309324974</v>
+        <v>336974.6309323795</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061245972</v>
+        <v>3790.09306138885</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1241990146</v>
+        <v>-698537.1242401013</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580609285</v>
+        <v>717.8543580607445</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618721385</v>
+        <v>1006.765618720274</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008976006</v>
+        <v>1.402465008974818</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.99953266482327</v>
+        <v>0.9995326648234968</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163637119</v>
+        <v>344.8011163634357</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5203213126</v>
+        <v>188672.5202267927</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188910907549e-06</v>
+        <v>5.300188913562802e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2175660551</v>
+        <v>134529.2174987736</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329488510485e-06</v>
+        <v>7.433329492228084e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843602355</v>
+        <v>0.003395573843600229</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665248618e-05</v>
+        <v>1.832907665245922e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.0260669518442188</v>
+        <v>0.02606695184417069</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4165984578</v>
+        <v>134591.4165311153</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979527726551</v>
+        <v>1.586979526934059</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979527726551</v>
+        <v>1.586979526934059</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309324974</v>
+        <v>336974.6309323795</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061245972</v>
+        <v>3790.09306138885</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580609285</v>
+        <v>717.8543580607445</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618721385</v>
+        <v>1006.765618720274</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163637119</v>
+        <v>344.8011163634357</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.99953266482327</v>
+        <v>0.9995326648234968</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665248618e-05</v>
+        <v>1.832907665245922e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.0260669518442188</v>
+        <v>0.02606695184417069</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,37 +9382,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337325718473</v>
+        <v>0.01619337326802236</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005753925634e-07</v>
+        <v>-1.972005777341302e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827868005</v>
+        <v>0.01379727827867792</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007318881</v>
+        <v>0.02510093007323963</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138440847819</v>
+        <v>0.05509138441936218</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578238169531846e-06</v>
+        <v>5.578292021544973e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024720408171</v>
+        <v>0.9800024861403372</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024720408171</v>
+        <v>0.9800024861403372</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1629075067</v>
+        <v>520038.1648646292</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991721243</v>
+        <v>2.776362991667085</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9421,154 +9421,154 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372154.9658380237</v>
+        <v>372154.9646569893</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1470.594967077021</v>
+        <v>1470.594969003228</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02417559754263941</v>
+        <v>0.02417559754563932</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.002020493328102941</v>
+        <v>0.002020493329983208</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.01190512760901099</v>
+        <v>0.01190512760886559</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.03192297883431065</v>
+        <v>0.03192297883558291</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.04262771182531732</v>
+        <v>0.0426277118274274</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1126519091393813</v>
+        <v>0.1126519091474984</v>
       </c>
       <c r="IR2" t="n">
-        <v>4.457989533079854e-12</v>
+        <v>-4.471453762810995e-11</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>274.2435955724891</v>
+        <v>274.2435956830465</v>
       </c>
       <c r="IU2" t="n">
-        <v>112.0574925047406</v>
+        <v>112.0574925499149</v>
       </c>
       <c r="IV2" t="n">
-        <v>250.3051499391832</v>
+        <v>250.3051500400901</v>
       </c>
       <c r="IW2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IX2" t="n">
-        <v>140.6492556678257</v>
+        <v>140.6492557648003</v>
       </c>
       <c r="IY2" t="n">
-        <v>112.0574925047406</v>
+        <v>112.0574925499149</v>
       </c>
       <c r="IZ2" t="n">
-        <v>85.00194993918316</v>
+        <v>85.00195004009009</v>
       </c>
       <c r="JA2" t="n">
-        <v>37.18237547002624</v>
+        <v>37.18237549165448</v>
       </c>
       <c r="JB2" t="n">
-        <v>258.0745276026774</v>
+        <v>258.0745275722024</v>
       </c>
       <c r="JC2" t="n">
-        <v>84204.24304444389</v>
+        <v>84204.24300783894</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.137441480251121</v>
+        <v>1.137441479891104</v>
       </c>
       <c r="JE2" t="n">
-        <v>310150.1395438249</v>
+        <v>310150.1395220554</v>
       </c>
       <c r="JF2" t="n">
-        <v>384179.6562323262</v>
+        <v>384179.6562018062</v>
       </c>
       <c r="JG2" t="n">
-        <v>3788.594327647588</v>
+        <v>3788.594327654027</v>
       </c>
       <c r="JH2" t="n">
-        <v>-593560.0351535083</v>
+        <v>-593560.0350702323</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.4976739310705</v>
+        <v>716.4976739302674</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.154781941198</v>
+        <v>1005.154781940148</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.402872358854157</v>
+        <v>1.402872358854264</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993176152848606</v>
+        <v>0.9993176152847455</v>
       </c>
       <c r="JM2" t="n">
-        <v>322.1542423950335</v>
+        <v>322.1542423759873</v>
       </c>
       <c r="JN2" t="n">
-        <v>118047.493952497</v>
+        <v>118047.4939011751</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.471166701788735e-06</v>
+        <v>8.471166705471636e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>84146.99541796964</v>
+        <v>84146.99538137972</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.188396561318516e-05</v>
+        <v>1.18839656183527e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.00388833596061456</v>
+        <v>0.003888335961072508</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.645193061138991e-05</v>
+        <v>1.645193060982216e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02319014930021002</v>
+        <v>0.02319014929782156</v>
       </c>
       <c r="JU2" t="n">
-        <v>84204.24304444389</v>
+        <v>84204.24300783894</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.137441480251121</v>
+        <v>1.137441479891104</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.137441480251121</v>
+        <v>1.137441479891104</v>
       </c>
       <c r="JX2" t="n">
-        <v>310150.1395438249</v>
+        <v>310150.1395220554</v>
       </c>
       <c r="JY2" t="n">
-        <v>384179.6562323262</v>
+        <v>384179.6562018062</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3788.594327647588</v>
+        <v>3788.594327654027</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.4976739310705</v>
+        <v>716.4976739302674</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.154781941198</v>
+        <v>1005.154781940148</v>
       </c>
       <c r="KC2" t="n">
-        <v>322.1542423950335</v>
+        <v>322.1542423759873</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993176152848606</v>
+        <v>0.9993176152847455</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.645193061138991e-05</v>
+        <v>1.645193060982216e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02319014930021002</v>
+        <v>0.02319014929782156</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.5937313469913</v>
+        <v>295.593731346584</v>
       </c>
       <c r="KJ2" t="n">
-        <v>135296.3107291779</v>
+        <v>135296.3107255009</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.595286006642593</v>
+        <v>1.595286006601423</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.3655796472</v>
+        <v>336974.3655793621</v>
       </c>
       <c r="KM2" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.594327652393</v>
+        <v>3788.594327658833</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698100.3027820259</v>
+        <v>-698100.3027827878</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8561941266252</v>
+        <v>717.8561941265982</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.777192427199</v>
+        <v>1006.777192427127</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402477544478233</v>
+        <v>1.402477544478186</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995302652409299</v>
+        <v>0.9995302652409375</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8027922116641</v>
+        <v>344.8027922114233</v>
       </c>
       <c r="KU2" t="n">
-        <v>189661.90303342</v>
+        <v>189661.9030282605</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.272540157017151e-06</v>
+        <v>5.272540157160585e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>135233.4686427941</v>
+        <v>135233.4686391197</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.394619172576292e-06</v>
+        <v>7.394619172777207e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003395620349779544</v>
+        <v>0.003395620349783936</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.832925761100527e-05</v>
+        <v>1.8329257610985e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606729972446178</v>
+        <v>0.02606729972443022</v>
       </c>
       <c r="LB2" t="n">
-        <v>135296.3107291779</v>
+        <v>135296.3107255009</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.595286006642593</v>
+        <v>1.595286006601423</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.595286006642593</v>
+        <v>1.595286006601423</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.3655796472</v>
+        <v>336974.3655793621</v>
       </c>
       <c r="LF2" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.594327652393</v>
+        <v>3788.594327658833</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8561941266252</v>
+        <v>717.8561941265982</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.777192427199</v>
+        <v>1006.777192427127</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8027922116641</v>
+        <v>344.8027922114233</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995302652409299</v>
+        <v>0.9995302652409375</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.832925761100527e-05</v>
+        <v>1.8329257610985e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606729972446178</v>
+        <v>0.02606729972443022</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>267.9478405147798</v>
+        <v>267.9478404978257</v>
       </c>
       <c r="LQ2" t="n">
-        <v>96001.14969157241</v>
+        <v>96001.14966820893</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.24895419255431</v>
+        <v>1.248954192329471</v>
       </c>
       <c r="LS2" t="n">
-        <v>317205.5340563038</v>
+        <v>317205.5340441917</v>
       </c>
       <c r="LT2" t="n">
-        <v>394070.7627923833</v>
+        <v>394070.7627754022</v>
       </c>
       <c r="LU2" t="n">
-        <v>3788.594327653863</v>
+        <v>3788.594327660302</v>
       </c>
       <c r="LV2" t="n">
-        <v>-621074.9058890133</v>
+        <v>-621074.9058434878</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.7798217230678</v>
+        <v>716.7798217225336</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.5055802389</v>
+        <v>1005.50558023821</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402809551504622</v>
+        <v>1.402809551504705</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993633826738541</v>
+        <v>0.9993633826737834</v>
       </c>
       <c r="MA2" t="n">
-        <v>328.2666125073913</v>
+        <v>328.2666124969922</v>
       </c>
       <c r="MB2" t="n">
-        <v>134586.0159768453</v>
+        <v>134586.0159440897</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.430192451584599e-06</v>
+        <v>7.430192453392959e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>95940.3333349786</v>
+        <v>95940.33331162305</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.042314494060042e-05</v>
+        <v>1.042314494313781e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003745331631127303</v>
+        <v>0.003745331631363537</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.695599162244196e-05</v>
+        <v>1.695599162158246e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02395924904455158</v>
+        <v>0.02395924904323774</v>
       </c>
       <c r="MI2" t="n">
-        <v>96001.14969157241</v>
+        <v>96001.14966820893</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.24895419255431</v>
+        <v>1.248954192329471</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.24895419255431</v>
+        <v>1.248954192329471</v>
       </c>
       <c r="ML2" t="n">
-        <v>317205.5340563038</v>
+        <v>317205.5340441917</v>
       </c>
       <c r="MM2" t="n">
-        <v>394070.7627923833</v>
+        <v>394070.7627754022</v>
       </c>
       <c r="MN2" t="n">
-        <v>3788.594327653863</v>
+        <v>3788.594327660302</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.7798217230678</v>
+        <v>716.7798217225336</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.5055802389</v>
+        <v>1005.50558023821</v>
       </c>
       <c r="MQ2" t="n">
-        <v>328.2666125073913</v>
+        <v>328.2666124969922</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993633826738541</v>
+        <v>0.9993633826737834</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.695599162244196e-05</v>
+        <v>1.695599162158246e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02395924904455158</v>
+        <v>0.02395924904323774</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8512804100720326</v>
+        <v>0.8512804104655428</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.4365897981730071</v>
+        <v>0.436589798499838</v>
       </c>
       <c r="MY2" t="n">
-        <v>253410.1713027068</v>
+        <v>253410.1714213677</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.736342184712033</v>
+        <v>2.736342184949057</v>
       </c>
       <c r="NA2" t="n">
-        <v>380408.1888272632</v>
+        <v>380408.1888103824</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>165.2430815868403</v>
+        <v>165.243085408106</v>
       </c>
       <c r="ND2" t="n">
-        <v>139.6735865562521</v>
+        <v>139.6735886610862</v>
       </c>
       <c r="NE2" t="n">
-        <v>-88.29816097081712</v>
+        <v>-88.29816479250459</v>
       </c>
       <c r="NF2" t="n">
-        <v>-32.30005419082271</v>
+        <v>-32.30005492091066</v>
       </c>
       <c r="NG2" t="n">
-        <v>289.520916459826</v>
+        <v>289.5209208228091</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.6735865562521</v>
+        <v>139.6735886610862</v>
       </c>
       <c r="NI2" t="n">
-        <v>-253.6013609708171</v>
+        <v>-253.6013647925046</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK2" t="n">
-        <v>226.0874569947077</v>
+        <v>226.0874557157556</v>
       </c>
       <c r="NL2" t="n">
-        <v>50447.70907003567</v>
+        <v>50447.70801913711</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.7779156061021869</v>
+        <v>0.777915594299008</v>
       </c>
       <c r="NN2" t="n">
-        <v>287309.7339276263</v>
+        <v>287309.7330143308</v>
       </c>
       <c r="NO2" t="n">
-        <v>352159.5822586146</v>
+        <v>352159.5809783586</v>
       </c>
       <c r="NP2" t="n">
-        <v>3803.083407476122</v>
+        <v>3803.083407788656</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-507669.8740764298</v>
+        <v>-507669.8705633841</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.8671533357307</v>
+        <v>715.8671533184998</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.238516730843</v>
+        <v>1004.238516704085</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402828041559648</v>
+        <v>1.402828041556034</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.9992548518808518</v>
+        <v>0.9992548518791282</v>
       </c>
       <c r="NV2" t="n">
-        <v>301.5053628787057</v>
+        <v>301.5053620249994</v>
       </c>
       <c r="NW2" t="n">
-        <v>70716.79456300015</v>
+        <v>70716.79308956012</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.41409124406667e-05</v>
+        <v>1.414091273530374e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>50410.1660844889</v>
+        <v>50410.1650342833</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.983726850500693e-05</v>
+        <v>1.983726891828092e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.004436546204090572</v>
+        <v>0.004436546229122087</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.476448198941868e-05</v>
+        <v>1.476448192021932e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.02063302382418495</v>
+        <v>0.02063302371990276</v>
       </c>
       <c r="OD2" t="n">
-        <v>50447.70907003567</v>
+        <v>50447.70801913711</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.7779156061021869</v>
+        <v>0.777915594299008</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.7779156061021869</v>
+        <v>0.777915594299008</v>
       </c>
       <c r="OG2" t="n">
-        <v>287309.7339276263</v>
+        <v>287309.7330143308</v>
       </c>
       <c r="OH2" t="n">
-        <v>352159.5822586146</v>
+        <v>352159.5809783586</v>
       </c>
       <c r="OI2" t="n">
-        <v>3803.083407476122</v>
+        <v>3803.083407788656</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.8671533357307</v>
+        <v>715.8671533184998</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.238516730843</v>
+        <v>1004.238516704085</v>
       </c>
       <c r="OL2" t="n">
-        <v>301.5053628787057</v>
+        <v>301.5053620249994</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9992548518808518</v>
+        <v>0.9992548518791282</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.476448198941868e-05</v>
+        <v>1.476448192021932e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.02063302382418495</v>
+        <v>0.02063302371990276</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>239.7227581726547</v>
+        <v>239.7227575248869</v>
       </c>
       <c r="OS2" t="n">
-        <v>61889.88436417779</v>
+        <v>61889.88371314102</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.9000437799681292</v>
+        <v>0.9000437729333411</v>
       </c>
       <c r="OU2" t="n">
-        <v>297049.0270270502</v>
+        <v>297049.0265645152</v>
       </c>
       <c r="OV2" t="n">
-        <v>365812.2202645718</v>
+        <v>365812.2196161544</v>
       </c>
       <c r="OW2" t="n">
-        <v>3803.083407470265</v>
+        <v>3803.083407782799</v>
       </c>
       <c r="OX2" t="n">
-        <v>-545873.4237348582</v>
+        <v>-545873.4219946821</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.0798178521123</v>
+        <v>716.0798178400864</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.538266906787</v>
+        <v>1004.538266889052</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.402830022384807</v>
+        <v>1.402830022383599</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.9992876966430687</v>
+        <v>0.9992876966419985</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.474636530262</v>
+        <v>310.4746361103163</v>
       </c>
       <c r="PD2" t="n">
-        <v>86759.2700838732</v>
+        <v>86759.26917105839</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.152614584047636e-05</v>
+        <v>1.152614596174567e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>61845.88916651692</v>
+        <v>61845.88851587492</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.6169223427406e-05</v>
+        <v>1.616922359751231e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.004184691026104582</v>
+        <v>0.004184691037375393</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.549400921176382e-05</v>
+        <v>1.549400917747484e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02173489000840238</v>
+        <v>0.02173488995648058</v>
       </c>
       <c r="PK2" t="n">
-        <v>61889.88436417779</v>
+        <v>61889.88371314102</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.9000437799681292</v>
+        <v>0.9000437729333411</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9000437799681292</v>
+        <v>0.9000437729333411</v>
       </c>
       <c r="PN2" t="n">
-        <v>297049.0270270502</v>
+        <v>297049.0265645152</v>
       </c>
       <c r="PO2" t="n">
-        <v>365812.2202645718</v>
+        <v>365812.2196161544</v>
       </c>
       <c r="PP2" t="n">
-        <v>3803.083407470265</v>
+        <v>3803.083407782799</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.0798178521123</v>
+        <v>716.0798178400864</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.538266906787</v>
+        <v>1004.538266889052</v>
       </c>
       <c r="PS2" t="n">
-        <v>310.474636530262</v>
+        <v>310.4746361103163</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.9992876966430687</v>
+        <v>0.9992876966419985</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.549400921176382e-05</v>
+        <v>1.549400917747484e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02173489000840238</v>
+        <v>0.02173488995648058</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>267.9344593814543</v>
+        <v>267.9344593644262</v>
       </c>
       <c r="PZ2" t="n">
-        <v>91272.80192518841</v>
+        <v>91272.80180582571</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.187461830928116</v>
+        <v>1.187461829449989</v>
       </c>
       <c r="QB2" t="n">
-        <v>317206.985323553</v>
+        <v>317206.9853116133</v>
       </c>
       <c r="QC2" t="n">
-        <v>394070.7627923833</v>
+        <v>394070.7627756028</v>
       </c>
       <c r="QD2" t="n">
-        <v>3803.083407465438</v>
+        <v>3803.083407777971</v>
       </c>
       <c r="QE2" t="n">
-        <v>-624906.3339694479</v>
+        <v>-624906.3340052076</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.7641341362836</v>
+        <v>716.7641341354338</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.407378982188</v>
+        <v>1005.407378979492</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402703247971142</v>
+        <v>1.402703247969043</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993944230999127</v>
+        <v>0.9993944231004863</v>
       </c>
       <c r="QJ2" t="n">
-        <v>328.2561242000515</v>
+        <v>328.2561241895623</v>
       </c>
       <c r="QK2" t="n">
-        <v>127951.4858543675</v>
+        <v>127951.4856869191</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.815462191179129e-06</v>
+        <v>7.815462201407117e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>91217.78682656896</v>
+        <v>91217.78670732991</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.096277419996262e-05</v>
+        <v>1.096277421429305e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.003744867677668271</v>
+        <v>0.003744867677892156</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.695459610827619e-05</v>
+        <v>1.695459610739829e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.02395653696826141</v>
+        <v>0.0239565369669076</v>
       </c>
       <c r="QR2" t="n">
-        <v>91272.80192518841</v>
+        <v>91272.80180582571</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.187461830928116</v>
+        <v>1.187461829449989</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.187461830928116</v>
+        <v>1.187461829449989</v>
       </c>
       <c r="QU2" t="n">
-        <v>317206.985323553</v>
+        <v>317206.9853116133</v>
       </c>
       <c r="QV2" t="n">
-        <v>394070.7627923833</v>
+        <v>394070.7627756028</v>
       </c>
       <c r="QW2" t="n">
-        <v>3803.083407465438</v>
+        <v>3803.083407777971</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.7641341362836</v>
+        <v>716.7641341354338</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.407378982188</v>
+        <v>1005.407378979492</v>
       </c>
       <c r="QZ2" t="n">
-        <v>328.2561242000515</v>
+        <v>328.2561241895623</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.9993944230999127</v>
+        <v>0.9993944231004863</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.695459610827619e-05</v>
+        <v>1.695459610739829e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02395653696826141</v>
+        <v>0.0239565369669076</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,52 +10126,52 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.02486058115691622</v>
+        <v>0.02486058111196209</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.003173857984583004</v>
+        <v>0.003173858040654435</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.0118458651050976</v>
+        <v>0.01184586510406824</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.0324393964335437</v>
+        <v>0.03243939644255625</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.04348345568974305</v>
+        <v>0.04348345570449219</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.1158031563698836</v>
+        <v>0.1158031564037332</v>
       </c>
       <c r="RL2" t="n">
-        <v>1.648874771535691e-05</v>
+        <v>1.648841953562352e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.5480601738195844</v>
+        <v>0.5480601880453615</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9602512993319424</v>
+        <v>0.9602513165215397</v>
       </c>
       <c r="RO2" t="n">
-        <v>397528.8258635533</v>
+        <v>397528.8276857131</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.736322951223105</v>
+        <v>2.736322950940819</v>
       </c>
       <c r="RQ2" t="n">
-        <v>380408.1888272632</v>
+        <v>380408.1888103824</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>348907.3011596182</v>
+        <v>348907.2998295478</v>
       </c>
       <c r="RT2" t="n">
-        <v>2669.79178435303</v>
+        <v>2669.791783471068</v>
       </c>
       <c r="RU2" t="n">
-        <v>6.301354480913787</v>
+        <v>6.301354484137569</v>
       </c>
     </row>
     <row r="3">
@@ -10179,34 +10179,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01611910595790887</v>
+        <v>0.01611910595788895</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.796499141283617e-07</v>
+        <v>-1.796499141834202e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379690142699882</v>
+        <v>0.01379690142699763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02510994707369789</v>
+        <v>0.02510994707372628</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05502577480869145</v>
+        <v>0.05502577480869868</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.362694679318821e-12</v>
+        <v>-2.881285487976726e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172400477</v>
+        <v>81.75758172396166</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172400477</v>
+        <v>81.75758172396166</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172400477</v>
+        <v>81.75758172396166</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172400477</v>
+        <v>81.75758172396166</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180726841</v>
+        <v>292.2676180726876</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394377988</v>
+        <v>132637.839437805</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096103031</v>
+        <v>1.581790096103086</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834752233</v>
+        <v>334589.2834752259</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800040114</v>
+        <v>418442.2800040149</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723464</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625809611</v>
+        <v>-687181.9625809705</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.70907137041</v>
+        <v>717.7090713704101</v>
       </c>
       <c r="Z3" t="n">
         <v>1006.643209103403</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574209</v>
+        <v>1.40257835557421</v>
       </c>
       <c r="AB3" t="n">
         <v>0.9994973723756406</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121222989</v>
+        <v>342.8584121223009</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.416587137</v>
+        <v>185942.4165871456</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054385804e-06</v>
+        <v>5.378009054385555e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565726854</v>
+        <v>132571.8565726915</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095763652e-06</v>
+        <v>7.5430790957633e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038597798</v>
+        <v>0.003434455038597757</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047587e-05</v>
+        <v>1.816725856047604e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190128764</v>
+        <v>0.02581791190128792</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394377988</v>
+        <v>132637.839437805</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096103031</v>
+        <v>1.581790096103086</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096103031</v>
+        <v>1.581790096103086</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834752233</v>
+        <v>334589.2834752259</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800040114</v>
+        <v>418442.2800040149</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723464</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.70907137041</v>
+        <v>717.7090713704101</v>
       </c>
       <c r="AR3" t="n">
         <v>1006.643209103403</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121222989</v>
+        <v>342.8584121223009</v>
       </c>
       <c r="AT3" t="n">
         <v>0.9994973723756406</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047587e-05</v>
+        <v>1.816725856047604e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190128764</v>
+        <v>0.02581791190128792</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10328,97 +10328,97 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BD3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368984915</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BG3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367843</v>
+        <v>193456.8974372415</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309081e-06</v>
+        <v>5.169110087296864e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617458637</v>
+        <v>137934.66174619</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346996765e-06</v>
+        <v>7.249809346979613e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BW3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BY3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
@@ -10429,97 +10429,97 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CK3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368984915</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="CN3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367843</v>
+        <v>193456.8974372415</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309081e-06</v>
+        <v>5.169110087296864e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617458637</v>
+        <v>137934.66174619</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346996765e-06</v>
+        <v>7.249809346979613e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999950267</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753697</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="DD3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="DF3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DK3" t="inlineStr">
         <is>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305818867</v>
+        <v>0.2384587305817596</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305818867</v>
+        <v>0.2384587305817596</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323189836</v>
+        <v>186219.53231889</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934704759</v>
+        <v>2.77636993470339</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780730469175</v>
+        <v>309.3780800693962</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136397760378</v>
+        <v>126.4136426454625</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727744680743</v>
+        <v>282.3727808775679</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780730469175</v>
+        <v>309.3780800693962</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136397760378</v>
+        <v>126.4136426454625</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727744680743</v>
+        <v>282.3727808775679</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365061075477</v>
+        <v>247.8365039379685</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23909010676</v>
+        <v>72726.23680219121</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014683203617</v>
+        <v>1.023014659983044</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9126042068</v>
+        <v>302836.9110545342</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0350473776</v>
+        <v>373927.032874877</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061195674</v>
+        <v>3790.093061453681</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3870618182</v>
+        <v>-565396.3810753553</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430811447</v>
+        <v>716.2529430343207</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581237061</v>
+        <v>1004.83158117409</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457085065</v>
+        <v>1.402900457088861</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859042304</v>
+        <v>0.9992812858972044</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911162950515</v>
+        <v>315.6911149114498</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5445094979</v>
+        <v>101954.5413016285</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292556364098e-06</v>
+        <v>9.808292864969494e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.1116909593</v>
+        <v>72674.10940416464</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005811054723e-05</v>
+        <v>1.376005854352711e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559426031709</v>
+        <v>0.004048559461388525</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113122802786e-05</v>
+        <v>1.592113111465514e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0223828838280853</v>
+        <v>0.02238288365595959</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23909010676</v>
+        <v>72726.23680219121</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014683203617</v>
+        <v>1.023014659983044</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014683203617</v>
+        <v>1.023014659983044</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9126042068</v>
+        <v>302836.9110545342</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0350473776</v>
+        <v>373927.032874877</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061195674</v>
+        <v>3790.093061453681</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430811447</v>
+        <v>716.2529430343207</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581237061</v>
+        <v>1004.83158117409</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911162950515</v>
+        <v>315.6911149114498</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859042304</v>
+        <v>0.9992812858972044</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113122802786e-05</v>
+        <v>1.592113111465514e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0223828838280853</v>
+        <v>0.02238288365595959</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968651818</v>
+        <v>295.5920968649011</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4166175262</v>
+        <v>134591.4164964954</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527951253</v>
+        <v>1.586979526525021</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309324905</v>
+        <v>336974.6309325359</v>
       </c>
       <c r="FL3" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061205323</v>
+        <v>3790.093061463329</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1241871672</v>
+        <v>-698537.1242623677</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580609781</v>
+        <v>717.8543580606628</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618721699</v>
+        <v>1006.765618719711</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008976346</v>
+        <v>1.402465008974193</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.999532664823205</v>
+        <v>0.9995326648236171</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163637572</v>
+        <v>344.8011163634695</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5203480766</v>
+        <v>188672.5201782001</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188910155693e-06</v>
+        <v>5.300188914927864e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175851061</v>
+        <v>134529.2174641855</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329487457833e-06</v>
+        <v>7.433329494139227e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843603611</v>
+        <v>0.003395573843595627</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665249108e-05</v>
+        <v>1.832907665246001e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184422822</v>
+        <v>0.02606695184416848</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4166175262</v>
+        <v>134591.4164964954</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527951253</v>
+        <v>1.586979526525021</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527951253</v>
+        <v>1.586979526525021</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309324905</v>
+        <v>336974.6309325359</v>
       </c>
       <c r="GE3" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061205323</v>
+        <v>3790.093061463329</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580609781</v>
+        <v>717.8543580606628</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618721699</v>
+        <v>1006.765618719711</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163637572</v>
+        <v>344.8011163634695</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.999532664823205</v>
+        <v>0.9995326648236171</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665249108e-05</v>
+        <v>1.832907665246001e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184422822</v>
+        <v>0.02606695184416848</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968651818</v>
+        <v>295.5920968649011</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4166175262</v>
+        <v>134591.4164964954</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527951253</v>
+        <v>1.586979526525021</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309324905</v>
+        <v>336974.6309325359</v>
       </c>
       <c r="GS3" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061205323</v>
+        <v>3790.093061463329</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1241871672</v>
+        <v>-698537.1242623677</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580609781</v>
+        <v>717.8543580606628</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618721699</v>
+        <v>1006.765618719711</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008976346</v>
+        <v>1.402465008974193</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.999532664823205</v>
+        <v>0.9995326648236171</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163637572</v>
+        <v>344.8011163634695</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5203480766</v>
+        <v>188672.5201782001</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188910155693e-06</v>
+        <v>5.300188914927864e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175851061</v>
+        <v>134529.2174641855</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329487457833e-06</v>
+        <v>7.433329494139227e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843603611</v>
+        <v>0.003395573843595627</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665249108e-05</v>
+        <v>1.832907665246001e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184422822</v>
+        <v>0.02606695184416848</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4166175262</v>
+        <v>134591.4164964954</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527951253</v>
+        <v>1.586979526525021</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527951253</v>
+        <v>1.586979526525021</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309324905</v>
+        <v>336974.6309325359</v>
       </c>
       <c r="HL3" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061205323</v>
+        <v>3790.093061463329</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580609781</v>
+        <v>717.8543580606628</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618721699</v>
+        <v>1006.765618719711</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163637572</v>
+        <v>344.8011163634695</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.999532664823205</v>
+        <v>0.9995326648236171</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665249108e-05</v>
+        <v>1.832907665246001e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184422822</v>
+        <v>0.02606695184416848</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,37 +10875,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337325402797</v>
+        <v>0.01619337327400668</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005749853585e-07</v>
+        <v>-1.972005785852208e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868008</v>
+        <v>0.01379727827868007</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.0251009300731879</v>
+        <v>0.02510093007318814</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138440532097</v>
+        <v>0.05509138442529631</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.5782379902794e-06</v>
+        <v>5.578244573679891e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024678482442</v>
+        <v>0.9800024943881477</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024678482442</v>
+        <v>0.9800024943881477</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1623223318</v>
+        <v>520038.1660257367</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991720394</v>
+        <v>2.776362991721821</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10914,154 +10914,154 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372154.9661887838</v>
+        <v>372154.9639683071</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1491.123352439725</v>
+        <v>1491.123352024355</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.02457066442394227</v>
+        <v>0.02457066441334601</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.00242264068618012</v>
+        <v>0.002422640679247642</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01187960968153098</v>
+        <v>0.01187960968199623</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.03214502246134775</v>
+        <v>0.03214502245729268</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04299769189719328</v>
+        <v>0.04299769189047006</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1140156291501944</v>
+        <v>0.1140156291223526</v>
       </c>
       <c r="IR3" t="n">
-        <v>-4.349910709411375e-11</v>
+        <v>-1.296934781791492e-12</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>274.2435360951557</v>
+        <v>274.2435360974839</v>
       </c>
       <c r="IU3" t="n">
-        <v>112.0574682019639</v>
+        <v>112.0574682029153</v>
       </c>
       <c r="IV3" t="n">
-        <v>250.3050956535659</v>
+        <v>250.3050956556909</v>
       </c>
       <c r="IW3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IX3" t="n">
-        <v>140.6492034976874</v>
+        <v>140.6492034997296</v>
       </c>
       <c r="IY3" t="n">
-        <v>112.0574682019639</v>
+        <v>112.0574682029153</v>
       </c>
       <c r="IZ3" t="n">
-        <v>85.00189565356592</v>
+        <v>85.00189565569093</v>
       </c>
       <c r="JA3" t="n">
-        <v>37.18236383452564</v>
+        <v>37.1823638349811</v>
       </c>
       <c r="JB3" t="n">
-        <v>258.0744584749677</v>
+        <v>258.0744584741313</v>
       </c>
       <c r="JC3" t="n">
-        <v>84176.20446578418</v>
+        <v>84176.20446539049</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.137062779657231</v>
+        <v>1.137062779655607</v>
       </c>
       <c r="JE3" t="n">
-        <v>310150.1589832945</v>
+        <v>310150.1589826958</v>
       </c>
       <c r="JF3" t="n">
-        <v>384179.6725438028</v>
+        <v>384179.6725429636</v>
       </c>
       <c r="JG3" t="n">
-        <v>3788.689924015049</v>
+        <v>3788.689924013138</v>
       </c>
       <c r="JH3" t="n">
-        <v>-593584.4279259475</v>
+        <v>-593584.4279231251</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.4975715567815</v>
+        <v>716.4975715567616</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.154144229352</v>
+        <v>1005.154144229337</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.402871669258261</v>
+        <v>1.402871669258279</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.9993178407371335</v>
+        <v>0.9993178407371254</v>
       </c>
       <c r="JM3" t="n">
-        <v>322.1541924803475</v>
+        <v>322.154192479825</v>
       </c>
       <c r="JN3" t="n">
-        <v>118008.1545655301</v>
+        <v>118008.1545649788</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.473990663456215e-06</v>
+        <v>8.473990663495803e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>84118.99473878781</v>
+        <v>84118.9947383937</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.188792142732174e-05</v>
+        <v>1.188792142737743e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003888332522547275</v>
+        <v>0.00388833252255994</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.645192271593705e-05</v>
+        <v>1.645192271589412e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.02319013352628271</v>
+        <v>0.02319013352621739</v>
       </c>
       <c r="JU3" t="n">
-        <v>84176.20446578418</v>
+        <v>84176.20446539049</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.137062779657231</v>
+        <v>1.137062779655607</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.137062779657231</v>
+        <v>1.137062779655607</v>
       </c>
       <c r="JX3" t="n">
-        <v>310150.1589832945</v>
+        <v>310150.1589826958</v>
       </c>
       <c r="JY3" t="n">
-        <v>384179.6725438028</v>
+        <v>384179.6725429636</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3788.689924015049</v>
+        <v>3788.689924013138</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.4975715567815</v>
+        <v>716.4975715567616</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.154144229352</v>
+        <v>1005.154144229337</v>
       </c>
       <c r="KC3" t="n">
-        <v>322.1541924803475</v>
+        <v>322.154192479825</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.9993178407371335</v>
+        <v>0.9993178407371254</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.645192271593705e-05</v>
+        <v>1.645192271589412e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.02319013352628271</v>
+        <v>0.02319013352621739</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5936268385257</v>
+        <v>295.5936268385272</v>
       </c>
       <c r="KJ3" t="n">
-        <v>135251.2391492281</v>
+        <v>135251.239150128</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.594754884298377</v>
+        <v>1.594754884308984</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.3825472349</v>
+        <v>336974.3825472341</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310887904</v>
+        <v>421784.4310887898</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.689924019619</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698128.164518747</v>
+        <v>-698128.1645181883</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.8560767284974</v>
+        <v>717.8560767284998</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.776452400048</v>
+        <v>1006.776452400062</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402476742954178</v>
+        <v>1.402476742954194</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995304186575579</v>
+        <v>0.9995304186575548</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.802685052189</v>
+        <v>344.8026850521908</v>
       </c>
       <c r="KU3" t="n">
-        <v>189598.6405985381</v>
+        <v>189598.6405998012</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.274299419252855e-06</v>
+        <v>5.274299419217717e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>135188.4382761082</v>
+        <v>135188.4382770073</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.397082270878854e-06</v>
+        <v>7.397082270829659e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003395617376238033</v>
+        <v>0.003395617376238098</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.832924604020489e-05</v>
+        <v>1.83292460402051e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606727748021273</v>
+        <v>0.02606727748021314</v>
       </c>
       <c r="LB3" t="n">
-        <v>135251.2391492281</v>
+        <v>135251.239150128</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.594754884298377</v>
+        <v>1.594754884308984</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.594754884298377</v>
+        <v>1.594754884308984</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.3825472349</v>
+        <v>336974.3825472341</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310887904</v>
+        <v>421784.4310887898</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.689924019619</v>
+        <v>3788.689924017708</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.8560767284974</v>
+        <v>717.8560767284998</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.776452400048</v>
+        <v>1006.776452400062</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.802685052189</v>
+        <v>344.8026850521908</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995304186575579</v>
+        <v>0.9995304186575548</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.832924604020489e-05</v>
+        <v>1.83292460402051e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606727748021273</v>
+        <v>0.02606727748021314</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>267.9477589613309</v>
+        <v>267.9477589611817</v>
       </c>
       <c r="LQ3" t="n">
-        <v>95969.17446659434</v>
+        <v>95969.17446704468</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.248538319544394</v>
+        <v>1.248538319550954</v>
       </c>
       <c r="LS3" t="n">
-        <v>317205.5502790233</v>
+        <v>317205.5502789152</v>
       </c>
       <c r="LT3" t="n">
-        <v>394070.7717658693</v>
+        <v>394070.771765718</v>
       </c>
       <c r="LU3" t="n">
-        <v>3788.68992402109</v>
+        <v>3788.689924019179</v>
       </c>
       <c r="LV3" t="n">
-        <v>-621100.2027749568</v>
+        <v>-621100.2027740307</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.7797158913052</v>
+        <v>716.7797158913024</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.504916302369</v>
+        <v>1005.504916302377</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402808832351008</v>
+        <v>1.402808832351024</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.9993635925923874</v>
+        <v>0.9993635925923824</v>
       </c>
       <c r="MA3" t="n">
-        <v>328.2665470207443</v>
+        <v>328.2665470206531</v>
       </c>
       <c r="MB3" t="n">
-        <v>134541.1482502584</v>
+        <v>134541.1482508905</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.432670324322728e-06</v>
+        <v>7.432670324287806e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>95908.39831310221</v>
+        <v>95908.39831355176</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.042661557891316e-05</v>
+        <v>1.042661557886429e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003745328368384483</v>
+        <v>0.003745328368386652</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.695598263490393e-05</v>
+        <v>1.695598263489646e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02395923138862976</v>
+        <v>0.02395923138861844</v>
       </c>
       <c r="MI3" t="n">
-        <v>95969.17446659434</v>
+        <v>95969.17446704468</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.248538319544394</v>
+        <v>1.248538319550954</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.248538319544394</v>
+        <v>1.248538319550954</v>
       </c>
       <c r="ML3" t="n">
-        <v>317205.5502790233</v>
+        <v>317205.5502789152</v>
       </c>
       <c r="MM3" t="n">
-        <v>394070.7717658693</v>
+        <v>394070.771765718</v>
       </c>
       <c r="MN3" t="n">
-        <v>3788.68992402109</v>
+        <v>3788.689924019179</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.7797158913052</v>
+        <v>716.7797158913024</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.504916302369</v>
+        <v>1005.504916302377</v>
       </c>
       <c r="MQ3" t="n">
-        <v>328.2665470207443</v>
+        <v>328.2665470206531</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.9993635925923874</v>
+        <v>0.9993635925923824</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.695598263490393e-05</v>
+        <v>1.695598263489646e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02395923138862976</v>
+        <v>0.02395923138861844</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8512803573459172</v>
+        <v>0.851280357354525</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.4365897038768707</v>
+        <v>0.4365897038839181</v>
       </c>
       <c r="MY3" t="n">
-        <v>253325.8283450922</v>
+        <v>253325.8283490698</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.735430551700299</v>
+        <v>2.735430551719615</v>
       </c>
       <c r="NA3" t="n">
-        <v>380408.1978008495</v>
+        <v>380408.1978004978</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>165.2430570802135</v>
+        <v>165.2430534398684</v>
       </c>
       <c r="ND3" t="n">
-        <v>139.6735730574821</v>
+        <v>139.6735710523028</v>
       </c>
       <c r="NE3" t="n">
-        <v>-88.29813646148423</v>
+        <v>-88.29813282073712</v>
       </c>
       <c r="NF3" t="n">
-        <v>-32.30004950860521</v>
+        <v>-32.30004881308352</v>
       </c>
       <c r="NG3" t="n">
-        <v>289.5208884790435</v>
+        <v>289.5208843226287</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.6735730574821</v>
+        <v>139.6735710523028</v>
       </c>
       <c r="NI3" t="n">
-        <v>-253.6013364614842</v>
+        <v>-253.6013328207371</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK3" t="n">
-        <v>226.0874084532104</v>
+        <v>226.0874096550212</v>
       </c>
       <c r="NL3" t="n">
-        <v>50430.90687806171</v>
+        <v>50430.90787026695</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7776564869051324</v>
+        <v>0.7776564980701877</v>
       </c>
       <c r="NN3" t="n">
-        <v>287309.7488822046</v>
+        <v>287309.7497403996</v>
       </c>
       <c r="NO3" t="n">
-        <v>352159.5993332224</v>
+        <v>352159.6005362394</v>
       </c>
       <c r="NP3" t="n">
-        <v>3803.179032708969</v>
+        <v>3803.17903238664</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-507691.2920555361</v>
+        <v>-507691.2953503461</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.8670633379381</v>
+        <v>715.8670633541565</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.237986136053</v>
+        <v>1004.237986161353</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.40282747672941</v>
+        <v>1.40282747673297</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.999255099090217</v>
+        <v>0.999255099091762</v>
       </c>
       <c r="NV3" t="n">
-        <v>301.5053443081354</v>
+        <v>301.5053451103449</v>
       </c>
       <c r="NW3" t="n">
-        <v>70693.2304986246</v>
+        <v>70693.23188977349</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.41456260089777e-05</v>
+        <v>1.414562573061057e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>50393.38883170489</v>
+        <v>50393.38982325194</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.984387284093211e-05</v>
+        <v>1.984387245048142e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004436542671202286</v>
+        <v>0.004436542647681909</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.476447660793341e-05</v>
+        <v>1.476447667295971e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.02063301271141085</v>
+        <v>0.02063301280940519</v>
       </c>
       <c r="OD3" t="n">
-        <v>50430.90687806171</v>
+        <v>50430.90787026695</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7776564869051324</v>
+        <v>0.7776564980701877</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7776564869051324</v>
+        <v>0.7776564980701877</v>
       </c>
       <c r="OG3" t="n">
-        <v>287309.7488822046</v>
+        <v>287309.7497403996</v>
       </c>
       <c r="OH3" t="n">
-        <v>352159.5993332224</v>
+        <v>352159.6005362394</v>
       </c>
       <c r="OI3" t="n">
-        <v>3803.179032708969</v>
+        <v>3803.17903238664</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.8670633379381</v>
+        <v>715.8670633541565</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.237986136053</v>
+        <v>1004.237986161353</v>
       </c>
       <c r="OL3" t="n">
-        <v>301.5053443081354</v>
+        <v>301.5053451103449</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.999255099090217</v>
+        <v>0.999255099091762</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.476447660793341e-05</v>
+        <v>1.476447667295971e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.02063301271141085</v>
+        <v>0.02063301280940519</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>239.7226989512729</v>
+        <v>239.7226995521696</v>
       </c>
       <c r="OS3" t="n">
-        <v>61869.26733083378</v>
+        <v>61869.26794153063</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.8997439631450204</v>
+        <v>0.8997439697700306</v>
       </c>
       <c r="OU3" t="n">
-        <v>297049.0407980986</v>
+        <v>297049.0412271472</v>
       </c>
       <c r="OV3" t="n">
-        <v>365812.2332896293</v>
+        <v>365812.2338911047</v>
       </c>
       <c r="OW3" t="n">
-        <v>3803.179032703019</v>
+        <v>3803.17903238069</v>
       </c>
       <c r="OX3" t="n">
-        <v>-545896.10902483</v>
+        <v>-545896.1106314022</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.0797251462322</v>
+        <v>716.0797251574185</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.537704664247</v>
+        <v>1004.537704680886</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.402829418831971</v>
+        <v>1.402829418833294</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.9992879326673261</v>
+        <v>0.9992879326682386</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.4746045739547</v>
+        <v>310.4746049635116</v>
       </c>
       <c r="PD3" t="n">
-        <v>86730.35153729969</v>
+        <v>86730.35239355775</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.152998900932547e-05</v>
+        <v>1.152998889549397e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>61825.30133244099</v>
+        <v>61825.30194276197</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.617460778109107e-05</v>
+        <v>1.617460762142015e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004184687667703732</v>
+        <v>0.004184687657249937</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.549400277756631e-05</v>
+        <v>1.549400280937531e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02173487702335533</v>
+        <v>0.02173487707152292</v>
       </c>
       <c r="PK3" t="n">
-        <v>61869.26733083378</v>
+        <v>61869.26794153063</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.8997439631450204</v>
+        <v>0.8997439697700306</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.8997439631450204</v>
+        <v>0.8997439697700306</v>
       </c>
       <c r="PN3" t="n">
-        <v>297049.0407980986</v>
+        <v>297049.0412271472</v>
       </c>
       <c r="PO3" t="n">
-        <v>365812.2332896293</v>
+        <v>365812.2338911047</v>
       </c>
       <c r="PP3" t="n">
-        <v>3803.179032703019</v>
+        <v>3803.17903238069</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.0797251462322</v>
+        <v>716.0797251574185</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.537704664247</v>
+        <v>1004.537704680886</v>
       </c>
       <c r="PS3" t="n">
-        <v>310.4746045739547</v>
+        <v>310.4746049635116</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.9992879326673261</v>
+        <v>0.9992879326682386</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.549400277756631e-05</v>
+        <v>1.549400280937531e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02173487702335533</v>
+        <v>0.02173487707152292</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>267.9343822401242</v>
+        <v>267.9343822399634</v>
       </c>
       <c r="PZ3" t="n">
-        <v>91242.39334080208</v>
+        <v>91242.39344278432</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.187066318752904</v>
+        <v>1.18706632008121</v>
       </c>
       <c r="QB3" t="n">
-        <v>317207.0010572364</v>
+        <v>317207.0010568825</v>
       </c>
       <c r="QC3" t="n">
-        <v>394070.7717660698</v>
+        <v>394070.7717656178</v>
       </c>
       <c r="QD3" t="n">
-        <v>3803.179032698283</v>
+        <v>3803.179032375954</v>
       </c>
       <c r="QE3" t="n">
-        <v>-624931.6529085379</v>
+        <v>-624931.652822015</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.7640334772797</v>
+        <v>716.7640334776058</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.406747519135</v>
+        <v>1005.406747521247</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402702563968711</v>
+        <v>1.40270256397102</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993946229423131</v>
+        <v>0.9993946229416376</v>
       </c>
       <c r="QJ3" t="n">
-        <v>328.2560622430974</v>
+        <v>328.2560622430482</v>
       </c>
       <c r="QK3" t="n">
-        <v>127908.8203090964</v>
+        <v>127908.8204521858</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.818069133805341e-06</v>
+        <v>7.818069125059401e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>91187.41463421858</v>
+        <v>91187.41473607828</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.096642561927339e-05</v>
+        <v>1.096642560702349e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003744864567195732</v>
+        <v>0.003744864567212087</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.695458758514612e-05</v>
+        <v>1.695458758515353e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.0239565202166717</v>
+        <v>0.02395652021669556</v>
       </c>
       <c r="QR3" t="n">
-        <v>91242.39334080208</v>
+        <v>91242.39344278432</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.187066318752904</v>
+        <v>1.18706632008121</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.187066318752904</v>
+        <v>1.18706632008121</v>
       </c>
       <c r="QU3" t="n">
-        <v>317207.0010572364</v>
+        <v>317207.0010568825</v>
       </c>
       <c r="QV3" t="n">
-        <v>394070.7717660698</v>
+        <v>394070.7717656178</v>
       </c>
       <c r="QW3" t="n">
-        <v>3803.179032698283</v>
+        <v>3803.179032375954</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.7640334772797</v>
+        <v>716.7640334776058</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.406747519135</v>
+        <v>1005.406747521247</v>
       </c>
       <c r="QZ3" t="n">
-        <v>328.2560622430974</v>
+        <v>328.2560622430482</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.9993946229423131</v>
+        <v>0.9993946229416376</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.695458758514612e-05</v>
+        <v>1.695458758515353e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.0239565202166717</v>
+        <v>0.02395652021669556</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.02486056333557829</v>
+        <v>0.02486056339988177</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.003173845690386153</v>
+        <v>0.003173845655408655</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.0118458601738931</v>
+        <v>0.01184586017387152</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.03243958782024724</v>
+        <v>0.03243958782043359</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04348344775503789</v>
+        <v>0.04348344775534849</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.1158033047751427</v>
+        <v>0.115803304804944</v>
       </c>
       <c r="RL3" t="n">
-        <v>1.656692070045596e-05</v>
+        <v>1.656691720069992e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.548060126295263</v>
+        <v>0.548060112763151</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.9602512656729429</v>
+        <v>0.9602512493324782</v>
       </c>
       <c r="RO3" t="n">
-        <v>397396.5177468879</v>
+        <v>397396.515997106</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.735411233482202</v>
+        <v>2.735411233485284</v>
       </c>
       <c r="RQ3" t="n">
-        <v>380408.1978008495</v>
+        <v>380408.1978004978</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>348907.3125123975</v>
+        <v>348907.3137695302</v>
       </c>
       <c r="RT3" t="n">
-        <v>2827.53664456401</v>
+        <v>2827.536647525558</v>
       </c>
       <c r="RU3" t="n">
-        <v>6.861653755564099</v>
+        <v>6.86165374547214</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4123066042651248</v>
+        <v>0.4123066042000448</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4268411827218599</v>
+        <v>0.4268411828603862</v>
       </c>
     </row>
   </sheetData>
@@ -12808,16 +12808,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>6.737353347103884e-08</v>
+        <v>2.703779654797227e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12848,7 +12848,7 @@
         <v>57</v>
       </c>
       <c r="H3" t="n">
-        <v>3.039918928255548e-08</v>
+        <v>1.660083466643905e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
